--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_634.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_634.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g29092-d249726-Reviews-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>190</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Residence-Inn-Anaheim-Hills-Yorba-Linda.h859545.Hotel-Information?chkin=6%2F24%2F2018&amp;chkout=6%2F25%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1529171507006&amp;cancellable=false&amp;regionId=5921&amp;vip=false&amp;c=16832ecc-61b9-4d6d-be44-b045cffcf19e&amp;mctc=9&amp;exp_dp=164&amp;exp_ts=1529171507633&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_634.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_634.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="803">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2333 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r588171517-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>29092</t>
+  </si>
+  <si>
+    <t>249726</t>
+  </si>
+  <si>
+    <t>588171517</t>
+  </si>
+  <si>
+    <t>06/17/2018</t>
+  </si>
+  <si>
+    <t>Joseph is amazing</t>
+  </si>
+  <si>
+    <t>Yet another visit here and yet another pleasant experience thanks to the wonderful staff, especially Joseph....been in countless hotels across Southern California....despite the cheap price, best staff resides hereMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Gretel O, Manager at Residence Inn Anaheim Hills Yorba Linda, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Yet another visit here and yet another pleasant experience thanks to the wonderful staff, especially Joseph....been in countless hotels across Southern California....despite the cheap price, best staff resides hereMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r581107332-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>581107332</t>
+  </si>
+  <si>
+    <t>05/18/2018</t>
+  </si>
+  <si>
+    <t>Difficult stay</t>
+  </si>
+  <si>
+    <t>Difficult stay based on our bed shared a wall with the room next to us and the people yelled all nite and it was like they were in our room. The next morning the toilet stopped up and maintenance guy didn’t come in until 8am and they couldn’t locate a plunger. Then the key didn’t work so had to go get it rekeyed and the breakfast area was in the middle of the renovation construction in a make shift meeting room. The front desk lady was very nice and sympathetic which helped.h</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r566866404-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>566866404</t>
+  </si>
+  <si>
+    <t>03/16/2018</t>
+  </si>
+  <si>
+    <t>Excellent hotel</t>
+  </si>
+  <si>
+    <t>I always stay here when I work in the area. The front desk staff are the best and make me feel like family. My room is spacious clean and it has a kitchen and sofa area. They are renovating the breakfast room. The breakfast is average like most complimentary breakfasts but the location is great and many restaurants within walking distance. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Gretel O, Manager at Residence Inn Anaheim Hills Yorba Linda, responded to this reviewResponded March 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2018</t>
+  </si>
+  <si>
+    <t>I always stay here when I work in the area. The front desk staff are the best and make me feel like family. My room is spacious clean and it has a kitchen and sofa area. They are renovating the breakfast room. The breakfast is average like most complimentary breakfasts but the location is great and many restaurants within walking distance. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r553609387-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>553609387</t>
+  </si>
+  <si>
+    <t>01/13/2018</t>
+  </si>
+  <si>
+    <t>Nice improvements, great value, good sleep</t>
+  </si>
+  <si>
+    <t>I've stayed here many times but the previous time things seemed to be in need of a renovation.  I debated staying this last time, but I am very happy I did.  The rooms are newly renovated and painted and everything looks much better.The breakfasts are nothing special and I tend to stock up on my own breakfast items in the refrigerator and skip on hotel breakfasts.Overall the staff is very helpful and I will definitely be back.  One of the best values around...MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Gretel O, Manager at Residence Inn Anaheim Hills Yorba Linda, responded to this reviewResponded January 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2018</t>
+  </si>
+  <si>
+    <t>I've stayed here many times but the previous time things seemed to be in need of a renovation.  I debated staying this last time, but I am very happy I did.  The rooms are newly renovated and painted and everything looks much better.The breakfasts are nothing special and I tend to stock up on my own breakfast items in the refrigerator and skip on hotel breakfasts.Overall the staff is very helpful and I will definitely be back.  One of the best values around...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r540521375-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>540521375</t>
+  </si>
+  <si>
+    <t>11/12/2017</t>
+  </si>
+  <si>
+    <t>Just what I needed...</t>
+  </si>
+  <si>
+    <t>Just returned from a two night stay here. The location is great , right next to a mall with about everything close at hand, (pharmacy, grocery , restaurants, etc), all close at hand. The two very helpful and courteous front desk attendants assured us the area was ,"one of the safest in California", so we walked to wherever we needed to go. The facility was well kept and seemed to have been recently renovated. My room was clean, with good air conditioning. The shower, bed, fridge, FREE WiFi, etc were all in good condition and functioned properly. The breakfast was standard "free breakfast" fare, served in a clean area. Overall a good, solid , predictable stay, which is just what you need when you're on the road: no surprises.   NOTE: the pool - hot tub area appeared immaculate and there's a Sport Court onsiteMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Just returned from a two night stay here. The location is great , right next to a mall with about everything close at hand, (pharmacy, grocery , restaurants, etc), all close at hand. The two very helpful and courteous front desk attendants assured us the area was ,"one of the safest in California", so we walked to wherever we needed to go. The facility was well kept and seemed to have been recently renovated. My room was clean, with good air conditioning. The shower, bed, fridge, FREE WiFi, etc were all in good condition and functioned properly. The breakfast was standard "free breakfast" fare, served in a clean area. Overall a good, solid , predictable stay, which is just what you need when you're on the road: no surprises.   NOTE: the pool - hot tub area appeared immaculate and there's a Sport Court onsiteMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r540456068-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>540456068</t>
+  </si>
+  <si>
+    <t>enjoyed the stay Convenient location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traveled for work, am a Marriott rewards member and this hotel met ALL of my expectations!  Great customer Care and the location is so convenient to restaurants and many amenities!!  Will stay here every time I travel to the area! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r504253035-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>504253035</t>
+  </si>
+  <si>
+    <t>07/21/2017</t>
+  </si>
+  <si>
+    <t>A yawner overall</t>
+  </si>
+  <si>
+    <t>Some staff were friendly and others not so much.  Second time through on business so I held off to be sure what I experienced was not a one time thing.  Airco is noisy.  Wifi, slow, drops a lot free and paid (yes, high status person) both were about the same.  Slowness actually meant to get much done I had to find the local Starbucks instead of cozy up in my room or on their pool patio (which does look good).  Breakfast is not so appetizing as it looks really.  I don't think the eggs are actually real eggs, but more likely a reconstituted package type thing.  Has a dated look / feel.  Some bad looking (not so legally minded) people wandering through finished the picture.  Nice looking BBQ.  Oh, and the local tax rates tend to make me go elsewhere even if it's a bit of a drive.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Some staff were friendly and others not so much.  Second time through on business so I held off to be sure what I experienced was not a one time thing.  Airco is noisy.  Wifi, slow, drops a lot free and paid (yes, high status person) both were about the same.  Slowness actually meant to get much done I had to find the local Starbucks instead of cozy up in my room or on their pool patio (which does look good).  Breakfast is not so appetizing as it looks really.  I don't think the eggs are actually real eggs, but more likely a reconstituted package type thing.  Has a dated look / feel.  Some bad looking (not so legally minded) people wandering through finished the picture.  Nice looking BBQ.  Oh, and the local tax rates tend to make me go elsewhere even if it's a bit of a drive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r503682121-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>503682121</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Not for fitness buffs</t>
+  </si>
+  <si>
+    <t>Typical property but I decided to review it because people who are into fitness need to know that the "workout facility " here is laughable. No weights, mats, medicine balls, kettle bells. Total equipment = 2 treadmills &amp; 1 elliptical. Pitiful. The pros were friendly staff &amp; clean roomMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Typical property but I decided to review it because people who are into fitness need to know that the "workout facility " here is laughable. No weights, mats, medicine balls, kettle bells. Total equipment = 2 treadmills &amp; 1 elliptical. Pitiful. The pros were friendly staff &amp; clean roomMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r501892349-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>501892349</t>
+  </si>
+  <si>
+    <t>07/14/2017</t>
+  </si>
+  <si>
+    <t>First Time in Marriott Residence Inn- Wonderful!</t>
+  </si>
+  <si>
+    <t>First time at a Residence Inn.  Excellent!! Very positive experience. Rates reasonable.Rooms neat, staff very accommodating, breakfast delicious.  Used pool and exercise room.  Impressed that exercise room available 24 hrs.  USA today in morningMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2017</t>
+  </si>
+  <si>
+    <t>First time at a Residence Inn.  Excellent!! Very positive experience. Rates reasonable.Rooms neat, staff very accommodating, breakfast delicious.  Used pool and exercise room.  Impressed that exercise room available 24 hrs.  USA today in morningMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r495214483-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>495214483</t>
+  </si>
+  <si>
+    <t>06/22/2017</t>
+  </si>
+  <si>
+    <t>Another Great Stay</t>
+  </si>
+  <si>
+    <t>Another great stay at the Marriott Residence Inn in Anaheim Hills. We have stayed at this property multiple times over several years and always had a very pleasant experience. The past year stays have been excellent. The rooms have been recently upgraded with new furnishings and decor. The hotel is always very clean and well maintained. The location is very convenient to freeways, stores, restaurants and entertainment. The hotel provides breakfast in the morning and snacks are available several evenings during the week. Susan the front desk supervisor is excellent. She goes out of her way to ensure a pleasant stay and provide the best accommodations available. The entire front desk staff is excellent. They are friendly and very helpful. We will be staying here often in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2017</t>
+  </si>
+  <si>
+    <t>Another great stay at the Marriott Residence Inn in Anaheim Hills. We have stayed at this property multiple times over several years and always had a very pleasant experience. The past year stays have been excellent. The rooms have been recently upgraded with new furnishings and decor. The hotel is always very clean and well maintained. The location is very convenient to freeways, stores, restaurants and entertainment. The hotel provides breakfast in the morning and snacks are available several evenings during the week. Susan the front desk supervisor is excellent. She goes out of her way to ensure a pleasant stay and provide the best accommodations available. The entire front desk staff is excellent. They are friendly and very helpful. We will be staying here often in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r488303909-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>488303909</t>
+  </si>
+  <si>
+    <t>05/27/2017</t>
+  </si>
+  <si>
+    <t>Fantastic Location!</t>
+  </si>
+  <si>
+    <t>Here is my favorite thing about this hotel.  It is right next to a major mall.  Yet, there is hardly any car traffic.  Reason being is that the hotel is located behind the mall and close to major roads.  The mall is only 0.2 miles from the hotel.Starbucks, Panera Bread, BJ's, a grocery store and many more options.  Restaurants for breakfast, lunch and dinner.  You can literally walk to the mall since it is so close to the hotel.Residence Inn provided me with a very nice size suite.  This suite had a refrigerator, stove, sink and cabinets.  A fairly large living area with a large desk for work.  The bedroom was also very suitable.  The bathroom contained one sink, closet for hanging up your clothes and of course a shower.This hotel seems to be recently built which means what is in your room is not old per the kitchen and bedroom.I would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Here is my favorite thing about this hotel.  It is right next to a major mall.  Yet, there is hardly any car traffic.  Reason being is that the hotel is located behind the mall and close to major roads.  The mall is only 0.2 miles from the hotel.Starbucks, Panera Bread, BJ's, a grocery store and many more options.  Restaurants for breakfast, lunch and dinner.  You can literally walk to the mall since it is so close to the hotel.Residence Inn provided me with a very nice size suite.  This suite had a refrigerator, stove, sink and cabinets.  A fairly large living area with a large desk for work.  The bedroom was also very suitable.  The bathroom contained one sink, closet for hanging up your clothes and of course a shower.This hotel seems to be recently built which means what is in your room is not old per the kitchen and bedroom.I would definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r481355723-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>481355723</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>Long Stay awesome!!</t>
+  </si>
+  <si>
+    <t>WE have been here for a month already- have another month and half to go. Sold our house sooner than we expected! We were first put into an older room, but no complaints! We had a studio on the 2nd floor corner since we have a big golden retriever. Great perk of a full-size oven! They just moved us to the remodeled building-same type room but beautiful! We are so pleased with the housekeeping services. And, the staff, in general is just amazing and very accommodating. They are so quick to serve!! Susan, Gee and Trevor have been great. Maria and Yolanda service us up great breakfasts in the morning! And, there is always a free appetizer or dinner night. GREAT place to stay!! And, a park about 7/10 mile to walk the dog!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2017</t>
+  </si>
+  <si>
+    <t>WE have been here for a month already- have another month and half to go. Sold our house sooner than we expected! We were first put into an older room, but no complaints! We had a studio on the 2nd floor corner since we have a big golden retriever. Great perk of a full-size oven! They just moved us to the remodeled building-same type room but beautiful! We are so pleased with the housekeeping services. And, the staff, in general is just amazing and very accommodating. They are so quick to serve!! Susan, Gee and Trevor have been great. Maria and Yolanda service us up great breakfasts in the morning! And, there is always a free appetizer or dinner night. GREAT place to stay!! And, a park about 7/10 mile to walk the dog!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r475693785-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>475693785</t>
+  </si>
+  <si>
+    <t>04/14/2017</t>
+  </si>
+  <si>
+    <t>Very Nice Staff</t>
+  </si>
+  <si>
+    <t>While the rooms and hotel overall needs some updating, the reason we keep coming back are the staff and convenience of location of this Residence Inn. It is walking distance to a grocery store, shops, many restaurants etc. very close to the freeway. But more importantly the staff are AMAZING.  Greta, Guia in particular they are so genuine and customer centric. We stay at this hotel probably 30 nights a year and we do because of the staff.  Thank you and we will be back later this year again. Please keep up the great service. MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2017</t>
+  </si>
+  <si>
+    <t>While the rooms and hotel overall needs some updating, the reason we keep coming back are the staff and convenience of location of this Residence Inn. It is walking distance to a grocery store, shops, many restaurants etc. very close to the freeway. But more importantly the staff are AMAZING.  Greta, Guia in particular they are so genuine and customer centric. We stay at this hotel probably 30 nights a year and we do because of the staff.  Thank you and we will be back later this year again. Please keep up the great service. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r470432299-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>470432299</t>
+  </si>
+  <si>
+    <t>03/26/2017</t>
+  </si>
+  <si>
+    <t>Convenient location, dated hotel, average stay</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel for 2 nights in a king suite. Room was clean and well maintained. There were some issues having to do with the age of the hotel. First, the A/C unit was on the older side and was loud when it ran. Given the configuration of the room, the noise from the AC unit could easily keep a light sleeper awake. The room seemed like it was either too hot or too cold at times. Lastly, the breakfast was not as good as other Residence Inns. The quality of the items could use a little improvement. The staff was nice and accommodated our preferred room cleaning time. And check-in and check-out were handled smoothly.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel for 2 nights in a king suite. Room was clean and well maintained. There were some issues having to do with the age of the hotel. First, the A/C unit was on the older side and was loud when it ran. Given the configuration of the room, the noise from the AC unit could easily keep a light sleeper awake. The room seemed like it was either too hot or too cold at times. Lastly, the breakfast was not as good as other Residence Inns. The quality of the items could use a little improvement. The staff was nice and accommodated our preferred room cleaning time. And check-in and check-out were handled smoothly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r467006118-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>467006118</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>Great Friends and Family Stay</t>
+  </si>
+  <si>
+    <t>Great place to stay, comfy beds, clean rooms, and amazing breakfast!!!  Every thing you need is in the immediate area.  We stayed in a 2 bedroom suite with friends.  The only complaint is that there could have been more light in the bedrooms.  Everything else was amazing.  Best Breakfast I have ever had in a hotel. The other guests were a little inconsiderate and noisy.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Great place to stay, comfy beds, clean rooms, and amazing breakfast!!!  Every thing you need is in the immediate area.  We stayed in a 2 bedroom suite with friends.  The only complaint is that there could have been more light in the bedrooms.  Everything else was amazing.  Best Breakfast I have ever had in a hotel. The other guests were a little inconsiderate and noisy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r455386258-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>455386258</t>
+  </si>
+  <si>
+    <t>01/28/2017</t>
+  </si>
+  <si>
+    <t>Pretty average</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights in January. Approach to the hotel is easy. The rooms are separate from the reception area and you have to walk to the rooms from the courtyard which has a small outdoor pool. It was drizzling, so no protection. The room was on the ground floor, so a lot of noise from outside. Not very good for rest after a long haul flight The room size is good with kitchen facility. The furnishing is basic. The mattress was good for sleepThe breakfast area is next to the reception area. Very limited choice for breakfast. Scrambled eggs did bot taste like eggs. There was no water at the breakfast bar. The crockery and cutlery is all plastic disposable. If you do not mind that, then it is fineThe hotel does provide free wifi but it takes a bit of time to connect but then it is OK for most of the things except streaming for which there is a choice of paid connection.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights in January. Approach to the hotel is easy. The rooms are separate from the reception area and you have to walk to the rooms from the courtyard which has a small outdoor pool. It was drizzling, so no protection. The room was on the ground floor, so a lot of noise from outside. Not very good for rest after a long haul flight The room size is good with kitchen facility. The furnishing is basic. The mattress was good for sleepThe breakfast area is next to the reception area. Very limited choice for breakfast. Scrambled eggs did bot taste like eggs. There was no water at the breakfast bar. The crockery and cutlery is all plastic disposable. If you do not mind that, then it is fineThe hotel does provide free wifi but it takes a bit of time to connect but then it is OK for most of the things except streaming for which there is a choice of paid connection.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r437946426-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>437946426</t>
+  </si>
+  <si>
+    <t>11/16/2016</t>
+  </si>
+  <si>
+    <t>quiet rooms</t>
+  </si>
+  <si>
+    <t>I used points here and I'm glad I did. Location is back off the the 91 freeway, so nice and quiet. Rooms were spacious, free breakfast was good. Customer service was also outstanding. I will stay here again, with or without points.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>I used points here and I'm glad I did. Location is back off the the 91 freeway, so nice and quiet. Rooms were spacious, free breakfast was good. Customer service was also outstanding. I will stay here again, with or without points.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r422677968-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>422677968</t>
+  </si>
+  <si>
+    <t>09/26/2016</t>
+  </si>
+  <si>
+    <t>Thin walls and ants</t>
+  </si>
+  <si>
+    <t>What can I say? I happened to be in a corner room which is situated right next to an exit door. Any time someone goes in and out, I hear the door. I hear my neighbors doors when they come and go too. And day 2 of my 4 day stay, ants started to crawl in. They invaded the dining table and the kitchen sink. I don't even know why because I'm a super neat freak. Although there WAS a freak rain shower and I DID have a corner room. But still. Come on!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>What can I say? I happened to be in a corner room which is situated right next to an exit door. Any time someone goes in and out, I hear the door. I hear my neighbors doors when they come and go too. And day 2 of my 4 day stay, ants started to crawl in. They invaded the dining table and the kitchen sink. I don't even know why because I'm a super neat freak. Although there WAS a freak rain shower and I DID have a corner room. But still. Come on!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r398325977-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>398325977</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t>Home like atmosphere</t>
+  </si>
+  <si>
+    <t>The staff was very pleasant in welcoming you.  The suite contained full kitchen with dishwasher.  Stores were across the street within walking distance.  Restaurants also are within walking distance.  One for each day of the week and all likes for even the finicky palates.  This was a great place for a week stay.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r394152171-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>394152171</t>
+  </si>
+  <si>
+    <t>07/18/2016</t>
+  </si>
+  <si>
+    <t>Outdated bathrooms with poor breakfast</t>
+  </si>
+  <si>
+    <t>Good: - We got a family room on the first floor with full kitchen - 30 minutes from Disney - They offered some kind of happy hour - Good mattressBad: - Outdated bathrooms - Poor breakfast - Disorganized staff - Parking lot was full and I need to park in some place elseMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>RILAXAL, Director of Sales at Residence Inn Anaheim Hills Yorba Linda, responded to this reviewResponded July 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2016</t>
+  </si>
+  <si>
+    <t>Good: - We got a family room on the first floor with full kitchen - 30 minutes from Disney - They offered some kind of happy hour - Good mattressBad: - Outdated bathrooms - Poor breakfast - Disorganized staff - Parking lot was full and I need to park in some place elseMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r390665961-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>390665961</t>
+  </si>
+  <si>
+    <t>07/09/2016</t>
+  </si>
+  <si>
+    <t>Something else</t>
+  </si>
+  <si>
+    <t>Where to start?  Met by a rather unhelpful (seemed put out and talked down to us) lady who said she was the assistant manager.  Lots of confusion regarding the reservation, the room rate.  If it wasn't so late and if there was something else of a similar name close we would have left.  Wish we had left anyway!  Room stank of smoke, opened the windows and ran the airco at full cold - not our power bill.  Hotel is way overdue renovation.  Staff seemed to have a laissez faire attitude about everything.  Breakfast was disgusting.  Eggs are reconstituted, and the spiced potato cakes instead of hash browns were, green, stinky and not tasty to boot.  Coffee is so weak tea was better.  Dirty Towels and spotty, worn out sheets.  Overheard some apparently long term guests, who were very intoxicated, discussing life at the hotel.  Based on what we heard, not at all good.  Apparently drugs are suspected and so is prostitution.  There was joking??? overheard that the staff is in on it.  NEVER HERE EVER AGAIN.  Hey Marriott brand, this place needs close and personal attention!!!  Value for the money is not evident.MoreShow less</t>
+  </si>
+  <si>
+    <t>Where to start?  Met by a rather unhelpful (seemed put out and talked down to us) lady who said she was the assistant manager.  Lots of confusion regarding the reservation, the room rate.  If it wasn't so late and if there was something else of a similar name close we would have left.  Wish we had left anyway!  Room stank of smoke, opened the windows and ran the airco at full cold - not our power bill.  Hotel is way overdue renovation.  Staff seemed to have a laissez faire attitude about everything.  Breakfast was disgusting.  Eggs are reconstituted, and the spiced potato cakes instead of hash browns were, green, stinky and not tasty to boot.  Coffee is so weak tea was better.  Dirty Towels and spotty, worn out sheets.  Overheard some apparently long term guests, who were very intoxicated, discussing life at the hotel.  Based on what we heard, not at all good.  Apparently drugs are suspected and so is prostitution.  There was joking??? overheard that the staff is in on it.  NEVER HERE EVER AGAIN.  Hey Marriott brand, this place needs close and personal attention!!!  Value for the money is not evident.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r376410620-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>376410620</t>
+  </si>
+  <si>
+    <t>05/25/2016</t>
+  </si>
+  <si>
+    <t>Comfortable with teen grandchildren</t>
+  </si>
+  <si>
+    <t>We stayed for 3 nights in a spacious room with a queen bed and sofa bed.  We could have used a cot (they don't have them) for the second teen but he was comfortable on the floor. His sister had the sofa bed.  They loved the pool (water was warm even in cool weather) and basketball court.  Breakfast was outstanding with plenty of very pleasant service people keeping it well stocked with hot food and coffee.  They more than met our every need.  Even prom goers didn't disturb our sleep.  Room was very clean and well set up for a family with vanity sink separate from shower and toilet.  This is our third stay here since we have family in the area and will definitely continue to use this hotel whenever in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>We stayed for 3 nights in a spacious room with a queen bed and sofa bed.  We could have used a cot (they don't have them) for the second teen but he was comfortable on the floor. His sister had the sofa bed.  They loved the pool (water was warm even in cool weather) and basketball court.  Breakfast was outstanding with plenty of very pleasant service people keeping it well stocked with hot food and coffee.  They more than met our every need.  Even prom goers didn't disturb our sleep.  Room was very clean and well set up for a family with vanity sink separate from shower and toilet.  This is our third stay here since we have family in the area and will definitely continue to use this hotel whenever in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r375514631-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>375514631</t>
+  </si>
+  <si>
+    <t>05/22/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very good hotel with good location </t>
+  </si>
+  <si>
+    <t>The rooms are spacious, clean and quiet. Room has Kitchenette where you can do light cooking. There are varieties of restaurants nearby. Supermarkets within walking distance.Breakfast is fair. Fitness center is very good. Small business center is available at reception free. This is a good hotel for business and family MoreShow less</t>
+  </si>
+  <si>
+    <t>The rooms are spacious, clean and quiet. Room has Kitchenette where you can do light cooking. There are varieties of restaurants nearby. Supermarkets within walking distance.Breakfast is fair. Fitness center is very good. Small business center is available at reception free. This is a good hotel for business and family More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r366176404-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>366176404</t>
+  </si>
+  <si>
+    <t>04/21/2016</t>
+  </si>
+  <si>
+    <t>Perfect hotel</t>
+  </si>
+  <si>
+    <t>The front desk staff are the best. Very helpful with directions etc. The rooms are spacious very clean every thing looks new. The breakfast is good nothing special same as most hotels. The location is great plenty if restaurants within walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>The front desk staff are the best. Very helpful with directions etc. The rooms are spacious very clean every thing looks new. The breakfast is good nothing special same as most hotels. The location is great plenty if restaurants within walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r350429324-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>350429324</t>
+  </si>
+  <si>
+    <t>02/23/2016</t>
+  </si>
+  <si>
+    <t>Poor Customer Service</t>
+  </si>
+  <si>
+    <t>After a 4 hour drive from Las Vegas, my wife and I checked in to this hotel. We were told that we were "upgraded". We happily went to our room and were stunned to find that we were placed in a handicapped room! I am extremely tall and the shower comes up to my chest. Not practical or comfortable to take a shower. We immediately asked to switch rooms and were told that there was no vacancy. The person at the front desk did not notify us that this was a handicapped room before hand, nor did she offer to find us another room at another location that we would be comfortable in. Not very good customer service, if you ask me. We are reward members that travel often and we stay at a Marriott location EACH and EVERY time. We checked in using the associate pleasure rate because my wife's mother works for a Courtyard location back home. It begs the question: Were we placed in a crappy/uncomfortable room because we are getting a discounted rate? If this is the case, then Marriott and this location should be ashamed of themselves. We are trying to get the hell out of this location ASAP and never looking back!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>After a 4 hour drive from Las Vegas, my wife and I checked in to this hotel. We were told that we were "upgraded". We happily went to our room and were stunned to find that we were placed in a handicapped room! I am extremely tall and the shower comes up to my chest. Not practical or comfortable to take a shower. We immediately asked to switch rooms and were told that there was no vacancy. The person at the front desk did not notify us that this was a handicapped room before hand, nor did she offer to find us another room at another location that we would be comfortable in. Not very good customer service, if you ask me. We are reward members that travel often and we stay at a Marriott location EACH and EVERY time. We checked in using the associate pleasure rate because my wife's mother works for a Courtyard location back home. It begs the question: Were we placed in a crappy/uncomfortable room because we are getting a discounted rate? If this is the case, then Marriott and this location should be ashamed of themselves. We are trying to get the hell out of this location ASAP and never looking back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r346414842-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>346414842</t>
+  </si>
+  <si>
+    <t>02/09/2016</t>
+  </si>
+  <si>
+    <t>Beautiful Location</t>
+  </si>
+  <si>
+    <t>Clean comfortable rooms friendly staff (for the most part) and just about everything needed for an very nice extended stay. I loved the full kitchen, and the fact that there is a huge supermarket within walking distance! The free breakfast was good one morning, but lacking the next. The food prep staff seemed oblivious to the needs of the diners. One stepped in front of me (I was the only person in line at the time) and took her time straitening up and refilling the paper plates napkins and plastic utensils. Another staff member removed the half full container sausage links just before I could get one. Since there was no other protein selection on the food bar, I had to wait until she brought it back. It was a little strange.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Clean comfortable rooms friendly staff (for the most part) and just about everything needed for an very nice extended stay. I loved the full kitchen, and the fact that there is a huge supermarket within walking distance! The free breakfast was good one morning, but lacking the next. The food prep staff seemed oblivious to the needs of the diners. One stepped in front of me (I was the only person in line at the time) and took her time straitening up and refilling the paper plates napkins and plastic utensils. Another staff member removed the half full container sausage links just before I could get one. Since there was no other protein selection on the food bar, I had to wait until she brought it back. It was a little strange.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r342966653-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>342966653</t>
+  </si>
+  <si>
+    <t>01/26/2016</t>
+  </si>
+  <si>
+    <t>Just can't say enough!!!</t>
+  </si>
+  <si>
+    <t>they took a good thing and made it better!  faster, more reliable wifi!...and free.  did i mention that it was FREE!  how the heck can you beat that...well they do have free breakfast!  wow....you can beat it all...they have a full kitchen!!!!  I stay here 3-4 times per year!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r328101807-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>328101807</t>
+  </si>
+  <si>
+    <t>11/20/2015</t>
+  </si>
+  <si>
+    <t>Home away from Home</t>
+  </si>
+  <si>
+    <t>My wife and I travel to this area at least two times a year and we always choose to stay at this Residence Inn because of the wonderful service that you get from the staff. In particular for our most recent stay, the assistant manager Gretel was very accommodating in holding my luggages for us while we temporarily had to travel to another part of the country.  While I can see the other reviews talk about the place being dated, and yes the place is due for remodeling, the place is always immaculately clean.  The residence rooms feel very much like home complete with a kitchen, and appliances. My wife and I would always call this our place away from home.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>MitchellFern, General Manager at Residence Inn Anaheim Hills Yorba Linda, responded to this reviewResponded November 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2015</t>
+  </si>
+  <si>
+    <t>My wife and I travel to this area at least two times a year and we always choose to stay at this Residence Inn because of the wonderful service that you get from the staff. In particular for our most recent stay, the assistant manager Gretel was very accommodating in holding my luggages for us while we temporarily had to travel to another part of the country.  While I can see the other reviews talk about the place being dated, and yes the place is due for remodeling, the place is always immaculately clean.  The residence rooms feel very much like home complete with a kitchen, and appliances. My wife and I would always call this our place away from home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r326245806-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>326245806</t>
+  </si>
+  <si>
+    <t>11/12/2015</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>This is our second stay at this hotel. The rooms are large and well equipped. Daily maid service is very efficient. Daily breakfast is awesome with different types of egg dishes each day. They also offer oatmeal, cereal, waffles, bagels and such, assorted fruit and muffins. And of course, fresh, hot coffee. The front desk staff  are very accommodating and friendly. This hotel is our home away from home when we are in CA. Very comfortable beds!! We will return again and again when we visit our children in CA.MoreShow less</t>
+  </si>
+  <si>
+    <t>MitchellFern, General Manager at Residence Inn Anaheim Hills Yorba Linda, responded to this reviewResponded November 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2015</t>
+  </si>
+  <si>
+    <t>This is our second stay at this hotel. The rooms are large and well equipped. Daily maid service is very efficient. Daily breakfast is awesome with different types of egg dishes each day. They also offer oatmeal, cereal, waffles, bagels and such, assorted fruit and muffins. And of course, fresh, hot coffee. The front desk staff  are very accommodating and friendly. This hotel is our home away from home when we are in CA. Very comfortable beds!! We will return again and again when we visit our children in CA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r324756489-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>324756489</t>
+  </si>
+  <si>
+    <t>11/05/2015</t>
+  </si>
+  <si>
+    <t>Nice and clean</t>
+  </si>
+  <si>
+    <t>The staff is nice and knows the area. Rooms are exactly what you would expect. You don't have to listen to the drone of the traffic on the Anaheim freeway at night and it's located very convenient to the 91, 57 @ 55. Breakfast is not what I have come to like about other residents inn as they do not have all the fresh cooked rather steam trays of food, but still good. MoreShow less</t>
+  </si>
+  <si>
+    <t>MitchellFern, General Manager at Residence Inn Anaheim Hills Yorba Linda, responded to this reviewResponded November 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2015</t>
+  </si>
+  <si>
+    <t>The staff is nice and knows the area. Rooms are exactly what you would expect. You don't have to listen to the drone of the traffic on the Anaheim freeway at night and it's located very convenient to the 91, 57 @ 55. Breakfast is not what I have come to like about other residents inn as they do not have all the fresh cooked rather steam trays of food, but still good. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r320546091-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>320546091</t>
+  </si>
+  <si>
+    <t>10/20/2015</t>
+  </si>
+  <si>
+    <t>Awesome hotel!</t>
+  </si>
+  <si>
+    <t>Stay here 3-4 x per year, 5 nights at a pop on visits to So Cal.  This place is a great location close to stores, restaurants, shopping....walking distance!  the staff is super friendly AND they have free breakfast AND free wifi!!  AND a kitchenette!MoreShow less</t>
+  </si>
+  <si>
+    <t>MitchellFern, General Manager at Residence Inn Anaheim Hills Yorba Linda, responded to this reviewResponded October 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2015</t>
+  </si>
+  <si>
+    <t>Stay here 3-4 x per year, 5 nights at a pop on visits to So Cal.  This place is a great location close to stores, restaurants, shopping....walking distance!  the staff is super friendly AND they have free breakfast AND free wifi!!  AND a kitchenette!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r309835391-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>309835391</t>
+  </si>
+  <si>
+    <t>09/13/2015</t>
+  </si>
+  <si>
+    <t>A very good Residence Inn</t>
+  </si>
+  <si>
+    <t>Residence Inns are one of my favorite hotel brands. The rooms, even the studio, are spacious with full kitchens. It doesn't feel so much like a hotel room. This property is clean and walking distance from 24 hour Fitness, Von's grocery, movie theaters and variety of restaurants. During the week there is an evening social hour with appetizers. The staff here is friendly and courteous in a typical Marriott fashion.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r307112666-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>307112666</t>
+  </si>
+  <si>
+    <t>09/04/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice hotel! Walking distance to so much! </t>
+  </si>
+  <si>
+    <t>This is a very nice hotel. Check in was quick &amp; parking wasn't crowded like at most hotels. Rooms are nice and clean! They supply you with everything for the kitchen which is great!! Movie theater, dining &amp; shopping within walking distance! Very nice hotel. Would definitely recommend! MoreShow less</t>
+  </si>
+  <si>
+    <t>MitchellFern, General Manager at Residence Inn Anaheim Hills Yorba Linda, responded to this reviewResponded September 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2015</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel. Check in was quick &amp; parking wasn't crowded like at most hotels. Rooms are nice and clean! They supply you with everything for the kitchen which is great!! Movie theater, dining &amp; shopping within walking distance! Very nice hotel. Would definitely recommend! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r284579613-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>284579613</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Giant room!</t>
+  </si>
+  <si>
+    <t>As the name suggests, you could literally live here. Full kitchen with refrigerator, cabinets, dishwasher (!) and sink. There's a full sized couch and sizable bathroom.Everything else is pretty minimalist. The pool is pretty small, the lounge chairs suck, and the pool towels are half-sized. I guess it's designed for consultants spending time here for work, but I saw a bunch of little kids at the pool, probably post-Disneyland. There's basically no lobby nor any service staff.We stayed here due to the affordability and proximity to Angel Stadium, which worked out pretty well. The room was clean and we experienced no problems. Free parking. Free breakfast buffet, which was okay.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>MitchellFern, General Manager at Residence Inn Anaheim Hills Yorba Linda, responded to this reviewResponded July 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2015</t>
+  </si>
+  <si>
+    <t>As the name suggests, you could literally live here. Full kitchen with refrigerator, cabinets, dishwasher (!) and sink. There's a full sized couch and sizable bathroom.Everything else is pretty minimalist. The pool is pretty small, the lounge chairs suck, and the pool towels are half-sized. I guess it's designed for consultants spending time here for work, but I saw a bunch of little kids at the pool, probably post-Disneyland. There's basically no lobby nor any service staff.We stayed here due to the affordability and proximity to Angel Stadium, which worked out pretty well. The room was clean and we experienced no problems. Free parking. Free breakfast buffet, which was okay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r281708818-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>281708818</t>
+  </si>
+  <si>
+    <t>06/20/2015</t>
+  </si>
+  <si>
+    <t>Third time...and not the last</t>
+  </si>
+  <si>
+    <t>We love this Residence Inn. We've stayed here on a few other trips to SoCal. It's a friendly, clean, well maintained hotel. With a Pavillion's grocery store (Von's/Safeway chain) just across the street - it's perfect.I cannot thank Kimberly (Ops Manager)enough  for her help during this stay! She was so incredibly kind and helpful as we were dealing with a death in our immediate family. I will never look for another place to stay when in SoCal and in need of a hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>MitchellFern, General Manager at Residence Inn Anaheim Hills Yorba Linda, responded to this reviewResponded June 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2015</t>
+  </si>
+  <si>
+    <t>We love this Residence Inn. We've stayed here on a few other trips to SoCal. It's a friendly, clean, well maintained hotel. With a Pavillion's grocery store (Von's/Safeway chain) just across the street - it's perfect.I cannot thank Kimberly (Ops Manager)enough  for her help during this stay! She was so incredibly kind and helpful as we were dealing with a death in our immediate family. I will never look for another place to stay when in SoCal and in need of a hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r281418143-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>281418143</t>
+  </si>
+  <si>
+    <t>06/19/2015</t>
+  </si>
+  <si>
+    <t>Clean, relatively quiet and convenient location.</t>
+  </si>
+  <si>
+    <t>We booked a two bedroom, two bath accommodation.  It was plenty of roomy for four of us.  While the location was in a busy area, it was surprisingly quiet.  A short walk across the street found several eating opportunities and a large (Pavillions) grocery store if needed for an extended stay.  The facility was well kept.  We stayed two nights but were busy with family events so did not use any of the facilities (ie. swimming pool).  It looked very nice and well kept.  If you are visiting the Yorba Linda area (i.e. Nixon Library)  this is a very convenient location.MoreShow less</t>
+  </si>
+  <si>
+    <t>We booked a two bedroom, two bath accommodation.  It was plenty of roomy for four of us.  While the location was in a busy area, it was surprisingly quiet.  A short walk across the street found several eating opportunities and a large (Pavillions) grocery store if needed for an extended stay.  The facility was well kept.  We stayed two nights but were busy with family events so did not use any of the facilities (ie. swimming pool).  It looked very nice and well kept.  If you are visiting the Yorba Linda area (i.e. Nixon Library)  this is a very convenient location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r271019487-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>271019487</t>
+  </si>
+  <si>
+    <t>05/09/2015</t>
+  </si>
+  <si>
+    <t>Nice lodging, well-located with lots of shopping, restaurants and highway access close by</t>
+  </si>
+  <si>
+    <t>This was my first stay at the Residence Inn Anaheim Hills and I would recommend it to business travelers or families for its great location and roomy accommodations. Lots of dining and retail options very close by. The property is not new but is well-maintained and housekeeping does a very good job. My check-in and check-out were efficient and staff was friendly and helpful. Bedding was comfortable and linens were clean and fresh. I stayed in a king bedroom suite that was spacious with a separate seating area and two TVs. The morning breakfast offering is varied enough to satisfy most travelers with hot and cold items and beverages. Free parking was a plus and the pool and exercise areas were in good condition. Standard wifi was free and fast enough for me to keep in touch with my office and family. An upgraded option is available for $4.95 per day. The kitchen area featured a full-size fridge, microwave, coffeemaker, dishwasher, two-burner cook top, and lots of utensils and dishes. It was odd that no liquid dish soap nor dishwasher soap was provided - this may have been a restocking oversight, but I'm not sure. Overall, I enjoyed my stay at this property very much and will return on my next trip through Anaheim Hills.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>This was my first stay at the Residence Inn Anaheim Hills and I would recommend it to business travelers or families for its great location and roomy accommodations. Lots of dining and retail options very close by. The property is not new but is well-maintained and housekeeping does a very good job. My check-in and check-out were efficient and staff was friendly and helpful. Bedding was comfortable and linens were clean and fresh. I stayed in a king bedroom suite that was spacious with a separate seating area and two TVs. The morning breakfast offering is varied enough to satisfy most travelers with hot and cold items and beverages. Free parking was a plus and the pool and exercise areas were in good condition. Standard wifi was free and fast enough for me to keep in touch with my office and family. An upgraded option is available for $4.95 per day. The kitchen area featured a full-size fridge, microwave, coffeemaker, dishwasher, two-burner cook top, and lots of utensils and dishes. It was odd that no liquid dish soap nor dishwasher soap was provided - this may have been a restocking oversight, but I'm not sure. Overall, I enjoyed my stay at this property very much and will return on my next trip through Anaheim Hills.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r268310384-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>268310384</t>
+  </si>
+  <si>
+    <t>04/27/2015</t>
+  </si>
+  <si>
+    <t>Great Residence Inn</t>
+  </si>
+  <si>
+    <t>We stayed at this inn for about 4 days. The staff was friendly, rooms immaculate, and location great for daily trips into Anaheim. Wifi never really worked, but otherwise no complaints at all in the stay. there are lots of stores and restaurants right around the Inn, so shopping and getting food is very easy- all within walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>MitchellFern, General Manager at Residence Inn Anaheim Hills Yorba Linda, responded to this reviewResponded April 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2015</t>
+  </si>
+  <si>
+    <t>We stayed at this inn for about 4 days. The staff was friendly, rooms immaculate, and location great for daily trips into Anaheim. Wifi never really worked, but otherwise no complaints at all in the stay. there are lots of stores and restaurants right around the Inn, so shopping and getting food is very easy- all within walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r267908870-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>267908870</t>
+  </si>
+  <si>
+    <t>04/25/2015</t>
+  </si>
+  <si>
+    <t>Great pet friendly hotel</t>
+  </si>
+  <si>
+    <t>We stayed here on our last minute trip to Disneyland. Since there wasn't any properties nearby, we stayed here. It was only 20 minutes away. So it wasn't bad. The rooms were clean and the breakfast is your typical free hotel breakfast. We didn't use the pool since our plans were strictly Disney but it seemed clean as we walked by it to breakfast. Their pet policy was reasonable compared to other hotels. We paid $75 for our entire stay. We had our 3 small dogs, and this was the best. If we travel with our lets again, we will definitely stay here. It's near lots of shops and restaurants and easy to get to off the freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here on our last minute trip to Disneyland. Since there wasn't any properties nearby, we stayed here. It was only 20 minutes away. So it wasn't bad. The rooms were clean and the breakfast is your typical free hotel breakfast. We didn't use the pool since our plans were strictly Disney but it seemed clean as we walked by it to breakfast. Their pet policy was reasonable compared to other hotels. We paid $75 for our entire stay. We had our 3 small dogs, and this was the best. If we travel with our lets again, we will definitely stay here. It's near lots of shops and restaurants and easy to get to off the freeway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r260456326-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>260456326</t>
+  </si>
+  <si>
+    <t>03/18/2015</t>
+  </si>
+  <si>
+    <t>Very pleasant stay</t>
+  </si>
+  <si>
+    <t>This hotel is very neat and clean and in a nice area.The bed was exceptionally comfortable. The fitness center was well equipped and clean. The hot breakfast bar was well stocked with eggs, sausage, waffles, home fries..much better than just cold cereal and toast. I would stay there again.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r259502359-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>259502359</t>
+  </si>
+  <si>
+    <t>03/14/2015</t>
+  </si>
+  <si>
+    <t>Good stay, not perfect</t>
+  </si>
+  <si>
+    <t>Evening staff was OK on arrival.  Rooms were nice.  Plenty of restaurants and a decent grocery store nearby.  Internet service was so-so.  Beds were comfy.  In room kitchen worked well.  Breakfast was good, but staff struggled a bit keeping it full.  About a 30 minute ride to Disneyland.  Yorba Linda seems like a nice area.  TV channel choice was well above average.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r255889713-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>255889713</t>
+  </si>
+  <si>
+    <t>02/22/2015</t>
+  </si>
+  <si>
+    <t>Fun Weekend</t>
+  </si>
+  <si>
+    <t>This is the second time I have stayed at this hotel and will continue to when I come down to Southern California.  I stayed in the 2-bedroom suite both times as it has 2 separate bedrooms and each has its own bathroom. The bedrooms are located on the sides and then joined in the middle is a spacious kitchen, dinning room table and comfortable couch with a fire place.  Our family went to Disneyland for 2 days and I wanted to keep an eye on my 76 year old mom with out getting in her way or having her in mine.  This suite worked out so well. The free breakfast for each morning was great and the service was wonderful. The hotel is currently working on remodeling all their bathrooms, so you might want to check when this will be done but the stay was WAY less expensive than staying anywhere close to Disneyland; yet it only took us 10 minutes to get to the parking lot.  Well worth it.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>This is the second time I have stayed at this hotel and will continue to when I come down to Southern California.  I stayed in the 2-bedroom suite both times as it has 2 separate bedrooms and each has its own bathroom. The bedrooms are located on the sides and then joined in the middle is a spacious kitchen, dinning room table and comfortable couch with a fire place.  Our family went to Disneyland for 2 days and I wanted to keep an eye on my 76 year old mom with out getting in her way or having her in mine.  This suite worked out so well. The free breakfast for each morning was great and the service was wonderful. The hotel is currently working on remodeling all their bathrooms, so you might want to check when this will be done but the stay was WAY less expensive than staying anywhere close to Disneyland; yet it only took us 10 minutes to get to the parking lot.  Well worth it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r252494631-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>252494631</t>
+  </si>
+  <si>
+    <t>02/03/2015</t>
+  </si>
+  <si>
+    <t>Convenient Location</t>
+  </si>
+  <si>
+    <t>A good hotel for a family with a limited budget.  A simple but filling breakfast comes with the room. The hotel offers free news papers each morning.  If you are looking for a relaxing breakfast you will not get it here.  There a groups of children and parents getting ready for their day at Disney and the children are excited and loud.  
+The room itself has an array of dishes and utensils, a two burner stove, microwave, full refrigerator, toaster, coffee pot and full dishwasher.  My room, which was very large, had a hide-a-bed and a queen size bed.  there is a play court outside for children.
+Just across the street is a shopping center with a major chain's grocery store, at least a half dozen eating places , a Target,  several apparel stores and three banks.   
+The freeway on/off ramp for the 91 freeway is almost at the front door for ease of access to Los Angeles, Anaheim's attractions and the Inland Empire.
+It is well maintained and the staff is cordial.  That all having been said if you are a light sleeper  you will have a problem with the constant hum in the building and the noise of cycling on and off air conditioners all nite.  After the first night I asked at the front desk for a quiet room and was told that all of the rooms are the same  noise-wise so I used wax ear plugs....A good hotel for a family with a limited budget.  A simple but filling breakfast comes with the room. The hotel offers free news papers each morning.  If you are looking for a relaxing breakfast you will not get it here.  There a groups of children and parents getting ready for their day at Disney and the children are excited and loud.  The room itself has an array of dishes and utensils, a two burner stove, microwave, full refrigerator, toaster, coffee pot and full dishwasher.  My room, which was very large, had a hide-a-bed and a queen size bed.  there is a play court outside for children.Just across the street is a shopping center with a major chain's grocery store, at least a half dozen eating places , a Target,  several apparel stores and three banks.   The freeway on/off ramp for the 91 freeway is almost at the front door for ease of access to Los Angeles, Anaheim's attractions and the Inland Empire.It is well maintained and the staff is cordial.  That all having been said if you are a light sleeper  you will have a problem with the constant hum in the building and the noise of cycling on and off air conditioners all nite.  After the first night I asked at the front desk for a quiet room and was told that all of the rooms are the same  noise-wise so I used wax ear plugs..MoreShow less</t>
+  </si>
+  <si>
+    <t>MitchellFern, General Manager at Residence Inn Anaheim Hills Yorba Linda, responded to this reviewResponded February 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2015</t>
+  </si>
+  <si>
+    <t>A good hotel for a family with a limited budget.  A simple but filling breakfast comes with the room. The hotel offers free news papers each morning.  If you are looking for a relaxing breakfast you will not get it here.  There a groups of children and parents getting ready for their day at Disney and the children are excited and loud.  
+The room itself has an array of dishes and utensils, a two burner stove, microwave, full refrigerator, toaster, coffee pot and full dishwasher.  My room, which was very large, had a hide-a-bed and a queen size bed.  there is a play court outside for children.
+Just across the street is a shopping center with a major chain's grocery store, at least a half dozen eating places , a Target,  several apparel stores and three banks.   
+The freeway on/off ramp for the 91 freeway is almost at the front door for ease of access to Los Angeles, Anaheim's attractions and the Inland Empire.
+It is well maintained and the staff is cordial.  That all having been said if you are a light sleeper  you will have a problem with the constant hum in the building and the noise of cycling on and off air conditioners all nite.  After the first night I asked at the front desk for a quiet room and was told that all of the rooms are the same  noise-wise so I used wax ear plugs....A good hotel for a family with a limited budget.  A simple but filling breakfast comes with the room. The hotel offers free news papers each morning.  If you are looking for a relaxing breakfast you will not get it here.  There a groups of children and parents getting ready for their day at Disney and the children are excited and loud.  The room itself has an array of dishes and utensils, a two burner stove, microwave, full refrigerator, toaster, coffee pot and full dishwasher.  My room, which was very large, had a hide-a-bed and a queen size bed.  there is a play court outside for children.Just across the street is a shopping center with a major chain's grocery store, at least a half dozen eating places , a Target,  several apparel stores and three banks.   The freeway on/off ramp for the 91 freeway is almost at the front door for ease of access to Los Angeles, Anaheim's attractions and the Inland Empire.It is well maintained and the staff is cordial.  That all having been said if you are a light sleeper  you will have a problem with the constant hum in the building and the noise of cycling on and off air conditioners all nite.  After the first night I asked at the front desk for a quiet room and was told that all of the rooms are the same  noise-wise so I used wax ear plugs..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r246856819-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>246856819</t>
+  </si>
+  <si>
+    <t>01/01/2015</t>
+  </si>
+  <si>
+    <t>Busy Disneyland hotel. Need better maintenance.</t>
+  </si>
+  <si>
+    <t>We stayed here for a week in December. First night there was a plumbing problem which caused a gross backup into the bathtub. Front desk moved us to a room which turned out to be "out of service" according to maintenance staff due to air conditioning malfunction. Poor communication between front desk and maintenance. Front desk moved us to another room. The next day, the disposal machine broke down and caused another backup and leaks. Maintenance was good about fixing and replacing quickly.This hotel seems to get a lot of business and needs to go on an accelerated maintenance schedule. It's ridiculous three items broke down in three separate rooms during our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for a week in December. First night there was a plumbing problem which caused a gross backup into the bathtub. Front desk moved us to a room which turned out to be "out of service" according to maintenance staff due to air conditioning malfunction. Poor communication between front desk and maintenance. Front desk moved us to another room. The next day, the disposal machine broke down and caused another backup and leaks. Maintenance was good about fixing and replacing quickly.This hotel seems to get a lot of business and needs to go on an accelerated maintenance schedule. It's ridiculous three items broke down in three separate rooms during our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r240875465-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>240875465</t>
+  </si>
+  <si>
+    <t>11/21/2014</t>
+  </si>
+  <si>
+    <t>Lovely Hotel in a nice setting</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights while visiting Disneyland, nice hotel and only about 25mins to get to Disneyland! Was nice to have a relaxing hotel away from the madness of Disney! Room was very big and spacious, had a separate bedroom and living room. Staff very friendly and got us all checked in nice and early! Would recommend to anyone wanting to be near to disney but to still be able to escape the madness.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>MitchellFern, Manager at Residence Inn Anaheim Hills Yorba Linda, responded to this reviewResponded January 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights while visiting Disneyland, nice hotel and only about 25mins to get to Disneyland! Was nice to have a relaxing hotel away from the madness of Disney! Room was very big and spacious, had a separate bedroom and living room. Staff very friendly and got us all checked in nice and early! Would recommend to anyone wanting to be near to disney but to still be able to escape the madness.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r228272957-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>228272957</t>
+  </si>
+  <si>
+    <t>09/11/2014</t>
+  </si>
+  <si>
+    <t>Great place, will definately be back!</t>
+  </si>
+  <si>
+    <t>While visiting our family in Yorba Linda and participating in the Disneyland Half Marathon we stayed at this Residence Inn.  We found it very nice! It has a great location (across from Target, and Pavilion grocery store, plus many restaurants) and included a very good breakfast each morning.  It is only about 20 minutes from Disneyland which made our drive in for the race very convenient! We also saw others at the hotel who ran in the races and they agreed!The pool was refreshing after a day of sightseeing! They do even offer a light dinner on Mon, Tues, Wed evenings, but we were out and about on these nights so didn't get a chance to take advantage.The price was a great value, our room was very spacious and clean. It also came with free wifi. It also has a workout room, and coin operated washer/dryer, which came in handy for our workout clothes.It is pet friendly, although we did not have our pet with us, there were approx. 6  other dogs staying during the timeframe we were there. They were no problem and fun to pet :)The front desk was very accommodating with extra towels,and helping us scan some items that we needed to email etc.  We will be back again for our next trip!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>While visiting our family in Yorba Linda and participating in the Disneyland Half Marathon we stayed at this Residence Inn.  We found it very nice! It has a great location (across from Target, and Pavilion grocery store, plus many restaurants) and included a very good breakfast each morning.  It is only about 20 minutes from Disneyland which made our drive in for the race very convenient! We also saw others at the hotel who ran in the races and they agreed!The pool was refreshing after a day of sightseeing! They do even offer a light dinner on Mon, Tues, Wed evenings, but we were out and about on these nights so didn't get a chance to take advantage.The price was a great value, our room was very spacious and clean. It also came with free wifi. It also has a workout room, and coin operated washer/dryer, which came in handy for our workout clothes.It is pet friendly, although we did not have our pet with us, there were approx. 6  other dogs staying during the timeframe we were there. They were no problem and fun to pet :)The front desk was very accommodating with extra towels,and helping us scan some items that we needed to email etc.  We will be back again for our next trip!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r226500993-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>226500993</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>30th high school reunion</t>
+  </si>
+  <si>
+    <t>Very comfy bed,nice size room,played games with my family.....fun time had by all.....liked the coffee pot and kitchen......the fact that we could order groceries was interesting but way cool.........MoreShow less</t>
+  </si>
+  <si>
+    <t>MitchellFern, Manager at Residence Inn Anaheim Hills Yorba Linda, responded to this reviewResponded September 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2014</t>
+  </si>
+  <si>
+    <t>Very comfy bed,nice size room,played games with my family.....fun time had by all.....liked the coffee pot and kitchen......the fact that we could order groceries was interesting but way cool.........More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r226178346-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>226178346</t>
+  </si>
+  <si>
+    <t>09/01/2014</t>
+  </si>
+  <si>
+    <t>Not up to the standards of Marriott</t>
+  </si>
+  <si>
+    <t>My expectations were more because it was Marriott and I had stayed earlier in other Marriott hotels which were really good but this is very poor hotel so dont go by the name.First, In my room A/C was very noisy, noise was so harsh and loud that I woke up many times in night. After paying high prices at least I expect peaceful sleep. Second, breakfast quality was very poor - had very few options so don't expect much when you book this hotel.Third, plates in the kitchen were not clean properly.Marriott hotels are now out of my list and will not recommend this hotel to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>My expectations were more because it was Marriott and I had stayed earlier in other Marriott hotels which were really good but this is very poor hotel so dont go by the name.First, In my room A/C was very noisy, noise was so harsh and loud that I woke up many times in night. After paying high prices at least I expect peaceful sleep. Second, breakfast quality was very poor - had very few options so don't expect much when you book this hotel.Third, plates in the kitchen were not clean properly.Marriott hotels are now out of my list and will not recommend this hotel to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r220997545-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>220997545</t>
+  </si>
+  <si>
+    <t>08/10/2014</t>
+  </si>
+  <si>
+    <t>Clean, Many Kids</t>
+  </si>
+  <si>
+    <t>My family stayed here for a wedding weekend. It's a great location and next to a Pavilions which is great for groceries. Lots of kids here for summer, and we heard then running through hallways and in the room above us. Try to get a top floor, but beware the painfully slow elevator or take the stairs.  We loved the one bedroom with door for baby to sleep. There was some hair in the bathroom and the shower did not drain fast which is always a little disgusting, but tolerable. MoreShow less</t>
+  </si>
+  <si>
+    <t>MitchellFern, Manager at Residence Inn Anaheim Hills Yorba Linda, responded to this reviewResponded September 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2014</t>
+  </si>
+  <si>
+    <t>My family stayed here for a wedding weekend. It's a great location and next to a Pavilions which is great for groceries. Lots of kids here for summer, and we heard then running through hallways and in the room above us. Try to get a top floor, but beware the painfully slow elevator or take the stairs.  We loved the one bedroom with door for baby to sleep. There was some hair in the bathroom and the shower did not drain fast which is always a little disgusting, but tolerable. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r219347572-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>219347572</t>
+  </si>
+  <si>
+    <t>08/03/2014</t>
+  </si>
+  <si>
+    <t>Great Marriott Service!</t>
+  </si>
+  <si>
+    <t>I just spent four nights at this hotel and was very pleased. I arrived and couldn't get my requested room on the top floor. Ray, the front desk clerk, made it happen for me. I had to wait 10 minutes, and give up my suite for a studio, but I much prefer the top floor at any hotel. The room was plenty spacious, with a kitchen and king sized bed. The breakfast was pretty good...the selections were a bit limited but I didn't go hungry. I didn't partake in the night social hour foods but did check it out and again, the selection was limited but you wouldn't go hungry. The hotel also had a great location within walking distance of BJ's, Target, Chipotle, and the grocery store Pavillions. The pool was small but it was in the 90s and it felt great! Ray also helped me out when I couldn't get my Disneyland ticket to print on their computer and actually printed it out on his business email.Overall, I would definitely stay here again and hope to get the chance!MoreShow less</t>
+  </si>
+  <si>
+    <t>I just spent four nights at this hotel and was very pleased. I arrived and couldn't get my requested room on the top floor. Ray, the front desk clerk, made it happen for me. I had to wait 10 minutes, and give up my suite for a studio, but I much prefer the top floor at any hotel. The room was plenty spacious, with a kitchen and king sized bed. The breakfast was pretty good...the selections were a bit limited but I didn't go hungry. I didn't partake in the night social hour foods but did check it out and again, the selection was limited but you wouldn't go hungry. The hotel also had a great location within walking distance of BJ's, Target, Chipotle, and the grocery store Pavillions. The pool was small but it was in the 90s and it felt great! Ray also helped me out when I couldn't get my Disneyland ticket to print on their computer and actually printed it out on his business email.Overall, I would definitely stay here again and hope to get the chance!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r218528992-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>218528992</t>
+  </si>
+  <si>
+    <t>07/30/2014</t>
+  </si>
+  <si>
+    <t>Family Friendly - Excellent Base for Disneyland and Surrounds</t>
+  </si>
+  <si>
+    <t>Stayed 7 nights in July 2014.
+We always try to stay at Residence Inns because of their consistent standard of family friendly spacious two bedroom suites and hotel facilities.  
+This hotel is located in a quiet residential area with numerous restaurants and various stores within the immediate area.  Ask reception for a copy of their detailed (8 pages printed on both sides) list of local restaurants that also includes directions to/from the restaurants.
+We found this Residence Inn significantly cheaper than hotels that are within walking distance of Disneyland.  In our case we saved over $125 per night (two bedroom suite) compared with the Residence Inn Maingate.  Disneyland is an easy 20-25 minutes drive away.  We also visited Santa Monica and the Aquarium by the Pacific at Long Beach.  Both were an hour away.  
+Check-in/out was quick and easy.  The reception staff were extremely friendly and helpful.
+The two bedroom suite is ideal for families and includes two full sized bedrooms, each with full shower/bath bathroom, separated by an open plan living/dining/kitchen area.  The kitchen has a full sized fridge, stove, microwave and dishwasher.  Ample dishes, glassware, cutlery, cooking dishes etc. are provided.  Each bedroom and the living area has a flat screen TV.  There is also an in-room safe large enough for several iPads/laptops, cameras, passports, etc.  Each suite has individual air con/heating controls.  The free WiFi is good but occasionally dropped out.
+Our suite was a bit tired...Stayed 7 nights in July 2014.We always try to stay at Residence Inns because of their consistent standard of family friendly spacious two bedroom suites and hotel facilities.  This hotel is located in a quiet residential area with numerous restaurants and various stores within the immediate area.  Ask reception for a copy of their detailed (8 pages printed on both sides) list of local restaurants that also includes directions to/from the restaurants.We found this Residence Inn significantly cheaper than hotels that are within walking distance of Disneyland.  In our case we saved over $125 per night (two bedroom suite) compared with the Residence Inn Maingate.  Disneyland is an easy 20-25 minutes drive away.  We also visited Santa Monica and the Aquarium by the Pacific at Long Beach.  Both were an hour away.  Check-in/out was quick and easy.  The reception staff were extremely friendly and helpful.The two bedroom suite is ideal for families and includes two full sized bedrooms, each with full shower/bath bathroom, separated by an open plan living/dining/kitchen area.  The kitchen has a full sized fridge, stove, microwave and dishwasher.  Ample dishes, glassware, cutlery, cooking dishes etc. are provided.  Each bedroom and the living area has a flat screen TV.  There is also an in-room safe large enough for several iPads/laptops, cameras, passports, etc.  Each suite has individual air con/heating controls.  The free WiFi is good but occasionally dropped out.Our suite was a bit tired and there were a number of minor maintenance issues (both bath faucets would not completely turn off, the inside suite door handle fell off but just needed the screw found on the floor screwed back in, the dish rack in the dishwasher was missing a wheel).  The suite was serviced daily and was reasonably clean.Being located in a residential area, there was no external noise.  However we often heard our upstairs neighbours which sometimes sounded like they were moving all of the furniture around.The kids enjoyed the outside pool.  There is a coin operated guest laundry room ($1.25 per wash and per dry).  There is ample free off street parking.Buffet style breakfast is included in the room rate.  Guests are allowed to take food back to their rooms but on most days there was a shortage of trays which made this a bit of a challenge.  There is a wide choice of hot and cold food and beverages.  The dining area is really too small for the number of rooms.  Weekdays were not too bad but on weekends breakfast was total chaos with staff struggling to keep up replenishing food etc. and long queues.Overall, we were satisfied with our stay and would certainly consider staying here again.  Recommended based upon value for money, convenient location and standard Residence Inn suites and facilities.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Stayed 7 nights in July 2014.
+We always try to stay at Residence Inns because of their consistent standard of family friendly spacious two bedroom suites and hotel facilities.  
+This hotel is located in a quiet residential area with numerous restaurants and various stores within the immediate area.  Ask reception for a copy of their detailed (8 pages printed on both sides) list of local restaurants that also includes directions to/from the restaurants.
+We found this Residence Inn significantly cheaper than hotels that are within walking distance of Disneyland.  In our case we saved over $125 per night (two bedroom suite) compared with the Residence Inn Maingate.  Disneyland is an easy 20-25 minutes drive away.  We also visited Santa Monica and the Aquarium by the Pacific at Long Beach.  Both were an hour away.  
+Check-in/out was quick and easy.  The reception staff were extremely friendly and helpful.
+The two bedroom suite is ideal for families and includes two full sized bedrooms, each with full shower/bath bathroom, separated by an open plan living/dining/kitchen area.  The kitchen has a full sized fridge, stove, microwave and dishwasher.  Ample dishes, glassware, cutlery, cooking dishes etc. are provided.  Each bedroom and the living area has a flat screen TV.  There is also an in-room safe large enough for several iPads/laptops, cameras, passports, etc.  Each suite has individual air con/heating controls.  The free WiFi is good but occasionally dropped out.
+Our suite was a bit tired...Stayed 7 nights in July 2014.We always try to stay at Residence Inns because of their consistent standard of family friendly spacious two bedroom suites and hotel facilities.  This hotel is located in a quiet residential area with numerous restaurants and various stores within the immediate area.  Ask reception for a copy of their detailed (8 pages printed on both sides) list of local restaurants that also includes directions to/from the restaurants.We found this Residence Inn significantly cheaper than hotels that are within walking distance of Disneyland.  In our case we saved over $125 per night (two bedroom suite) compared with the Residence Inn Maingate.  Disneyland is an easy 20-25 minutes drive away.  We also visited Santa Monica and the Aquarium by the Pacific at Long Beach.  Both were an hour away.  Check-in/out was quick and easy.  The reception staff were extremely friendly and helpful.The two bedroom suite is ideal for families and includes two full sized bedrooms, each with full shower/bath bathroom, separated by an open plan living/dining/kitchen area.  The kitchen has a full sized fridge, stove, microwave and dishwasher.  Ample dishes, glassware, cutlery, cooking dishes etc. are provided.  Each bedroom and the living area has a flat screen TV.  There is also an in-room safe large enough for several iPads/laptops, cameras, passports, etc.  Each suite has individual air con/heating controls.  The free WiFi is good but occasionally dropped out.Our suite was a bit tired and there were a number of minor maintenance issues (both bath faucets would not completely turn off, the inside suite door handle fell off but just needed the screw found on the floor screwed back in, the dish rack in the dishwasher was missing a wheel).  The suite was serviced daily and was reasonably clean.Being located in a residential area, there was no external noise.  However we often heard our upstairs neighbours which sometimes sounded like they were moving all of the furniture around.The kids enjoyed the outside pool.  There is a coin operated guest laundry room ($1.25 per wash and per dry).  There is ample free off street parking.Buffet style breakfast is included in the room rate.  Guests are allowed to take food back to their rooms but on most days there was a shortage of trays which made this a bit of a challenge.  There is a wide choice of hot and cold food and beverages.  The dining area is really too small for the number of rooms.  Weekdays were not too bad but on weekends breakfast was total chaos with staff struggling to keep up replenishing food etc. and long queues.Overall, we were satisfied with our stay and would certainly consider staying here again.  Recommended based upon value for money, convenient location and standard Residence Inn suites and facilities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r213781187-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>213781187</t>
+  </si>
+  <si>
+    <t>07/05/2014</t>
+  </si>
+  <si>
+    <t>Nice place to stay.</t>
+  </si>
+  <si>
+    <t>This was very suitable for our needs. The room was nice and the setting good. it is within walking distance of some shops and eating places and a cinema.The room was clean and nice. The only disappointment was breakfast. I like a healthy breakfast and was not able to find this here.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>MitchellFern, Manager at Residence Inn Anaheim Hills Yorba Linda, responded to this reviewResponded August 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2014</t>
+  </si>
+  <si>
+    <t>This was very suitable for our needs. The room was nice and the setting good. it is within walking distance of some shops and eating places and a cinema.The room was clean and nice. The only disappointment was breakfast. I like a healthy breakfast and was not able to find this here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r204284918-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>204284918</t>
+  </si>
+  <si>
+    <t>05/06/2014</t>
+  </si>
+  <si>
+    <t>Convenient location! Comfortable beds.</t>
+  </si>
+  <si>
+    <t>Convenient restaurants and grocery within walking distance. Beds very comfortable.Furniture and baths were worn and dated. Smoke detector hung from ceiling. Disappointed for a $195/nt Marriott. But breakfast was good, staff was friendly and location was convenient.MoreShow less</t>
+  </si>
+  <si>
+    <t>MitchellFern, Manager at Residence Inn Anaheim Hills Yorba Linda, responded to this reviewResponded May 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2014</t>
+  </si>
+  <si>
+    <t>Convenient restaurants and grocery within walking distance. Beds very comfortable.Furniture and baths were worn and dated. Smoke detector hung from ceiling. Disappointed for a $195/nt Marriott. But breakfast was good, staff was friendly and location was convenient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r201987390-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>201987390</t>
+  </si>
+  <si>
+    <t>04/20/2014</t>
+  </si>
+  <si>
+    <t>Comfortable Hotel in a Good Location</t>
+  </si>
+  <si>
+    <t>This hotel served as our base for our Disney trip.  Compared to the  hotels in the immediate vicinity of Disney land- this had a few pluses -(1) it was 25-30$ cheaper (2) No Parking fees (3) No Fees for wifi. Plus a breakfast buffet is included. The hotel comes with the usual Residence inn facilities- Pool/Gym/Laundry. There is a Complimentary dinner on some days- but we did not use that. Great Location - there is a nearby Mall with some good stores. Safe neighborhood. Drive to Disney and other attractions was about 15 min.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>This hotel served as our base for our Disney trip.  Compared to the  hotels in the immediate vicinity of Disney land- this had a few pluses -(1) it was 25-30$ cheaper (2) No Parking fees (3) No Fees for wifi. Plus a breakfast buffet is included. The hotel comes with the usual Residence inn facilities- Pool/Gym/Laundry. There is a Complimentary dinner on some days- but we did not use that. Great Location - there is a nearby Mall with some good stores. Safe neighborhood. Drive to Disney and other attractions was about 15 min.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r199722096-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>199722096</t>
+  </si>
+  <si>
+    <t>04/02/2014</t>
+  </si>
+  <si>
+    <t>Great serene place to stay at.</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for a couple of nights in a studio.  The room is small but good enough for two people.  We liked the area very much because it is in a very quiet neighborhood and it has a very nice view.  Next to the hotel is Pavilion to buy groceries or Chinese food.  You can also do a little shopping.  The location is convenient to the theme parks.The breakfast was okay.  There were bagels, muffins, oatmeal, bread, waffles, scrambled eggs, croissantwich one day and toasted muffins with Canadian bacon and egg another day.  There were also fresh bananas and apples as well as canned fruits.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for a couple of nights in a studio.  The room is small but good enough for two people.  We liked the area very much because it is in a very quiet neighborhood and it has a very nice view.  Next to the hotel is Pavilion to buy groceries or Chinese food.  You can also do a little shopping.  The location is convenient to the theme parks.The breakfast was okay.  There were bagels, muffins, oatmeal, bread, waffles, scrambled eggs, croissantwich one day and toasted muffins with Canadian bacon and egg another day.  There were also fresh bananas and apples as well as canned fruits.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r199673801-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>199673801</t>
+  </si>
+  <si>
+    <t>close to disney</t>
+  </si>
+  <si>
+    <t>The room was clean and close to Disney. The description of the room said fireplace but there was not one in my room and after a plane flight and a day at Disney was not going to switch rooms. Also the free breakfast did not have much to choose from but there was some type of youth basketball team staying there and only one person trying to keep up on bringing out food so you can imagine there was nothing left. Free Wi Fi and parking make it a good deal.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>The room was clean and close to Disney. The description of the room said fireplace but there was not one in my room and after a plane flight and a day at Disney was not going to switch rooms. Also the free breakfast did not have much to choose from but there was some type of youth basketball team staying there and only one person trying to keep up on bringing out food so you can imagine there was nothing left. Free Wi Fi and parking make it a good deal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r199161433-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>199161433</t>
+  </si>
+  <si>
+    <t>03/29/2014</t>
+  </si>
+  <si>
+    <t>We were bitten!</t>
+  </si>
+  <si>
+    <t>First off let me say I have never written a bad review for anything.  Usually I am pretty easy to please, so when we checked into our room at this hotel we were so impressed at how clean everything "looked".  The next morning when we woke up I had a few bites on my sides and stomach.  We thought it was weird but didn't give it much thought.  The second morning my kids and husband woke up with a few bites and I woke up with even more.  We had no idea what it would be and just wondered if it was due to climate change or something?  On the final morning, the morning we checked out, I looked like I had been attacked by something all over my stomach, back, sides and arms!  We were excited to get to Disneyland that morning and didn't have much time to do research.  That night after a busy day and being extremely itchy and sore where the bites were, I decided to start doing some research on what it might be.  Bed bugs.  It kept coming up again and again with pictures that looked extremely similar to ours.  My husband called the Manager the following morning and he informed us that there was already a new family checked into our room, and wouldn't be leaving for 3 more days. He wasn't going to ruin their vacation by asking them to move..... um...First off let me say I have never written a bad review for anything.  Usually I am pretty easy to please, so when we checked into our room at this hotel we were so impressed at how clean everything "looked".  The next morning when we woke up I had a few bites on my sides and stomach.  We thought it was weird but didn't give it much thought.  The second morning my kids and husband woke up with a few bites and I woke up with even more.  We had no idea what it would be and just wondered if it was due to climate change or something?  On the final morning, the morning we checked out, I looked like I had been attacked by something all over my stomach, back, sides and arms!  We were excited to get to Disneyland that morning and didn't have much time to do research.  That night after a busy day and being extremely itchy and sore where the bites were, I decided to start doing some research on what it might be.  Bed bugs.  It kept coming up again and again with pictures that looked extremely similar to ours.  My husband called the Manager the following morning and he informed us that there was already a new family checked into our room, and wouldn't be leaving for 3 more days. He wasn't going to ruin their vacation by asking them to move..... um pretty sure their vacation will be ruined if they get bit all over!  But for some reason...??? the family decided to check out 3 days early, and he had the room inspected all in the same day.  Which of course found no bed bugs.  I was never offered any compensation for the nights we spent there.  The whole thing was a nightmare.  I am glad we found out what it was before we got home.  We had to throw away pillows and suitcases, as well as clean all our clothes that might have brought them home with us.  In our absolute opinion these were indeed bed bugs.  But of course no hotel will admit to that right? I have included a photo of one of my arms.  This spot had the least amount of bites but didn't want to put an inappropriate photo up :)MoreShow less</t>
+  </si>
+  <si>
+    <t>First off let me say I have never written a bad review for anything.  Usually I am pretty easy to please, so when we checked into our room at this hotel we were so impressed at how clean everything "looked".  The next morning when we woke up I had a few bites on my sides and stomach.  We thought it was weird but didn't give it much thought.  The second morning my kids and husband woke up with a few bites and I woke up with even more.  We had no idea what it would be and just wondered if it was due to climate change or something?  On the final morning, the morning we checked out, I looked like I had been attacked by something all over my stomach, back, sides and arms!  We were excited to get to Disneyland that morning and didn't have much time to do research.  That night after a busy day and being extremely itchy and sore where the bites were, I decided to start doing some research on what it might be.  Bed bugs.  It kept coming up again and again with pictures that looked extremely similar to ours.  My husband called the Manager the following morning and he informed us that there was already a new family checked into our room, and wouldn't be leaving for 3 more days. He wasn't going to ruin their vacation by asking them to move..... um...First off let me say I have never written a bad review for anything.  Usually I am pretty easy to please, so when we checked into our room at this hotel we were so impressed at how clean everything "looked".  The next morning when we woke up I had a few bites on my sides and stomach.  We thought it was weird but didn't give it much thought.  The second morning my kids and husband woke up with a few bites and I woke up with even more.  We had no idea what it would be and just wondered if it was due to climate change or something?  On the final morning, the morning we checked out, I looked like I had been attacked by something all over my stomach, back, sides and arms!  We were excited to get to Disneyland that morning and didn't have much time to do research.  That night after a busy day and being extremely itchy and sore where the bites were, I decided to start doing some research on what it might be.  Bed bugs.  It kept coming up again and again with pictures that looked extremely similar to ours.  My husband called the Manager the following morning and he informed us that there was already a new family checked into our room, and wouldn't be leaving for 3 more days. He wasn't going to ruin their vacation by asking them to move..... um pretty sure their vacation will be ruined if they get bit all over!  But for some reason...??? the family decided to check out 3 days early, and he had the room inspected all in the same day.  Which of course found no bed bugs.  I was never offered any compensation for the nights we spent there.  The whole thing was a nightmare.  I am glad we found out what it was before we got home.  We had to throw away pillows and suitcases, as well as clean all our clothes that might have brought them home with us.  In our absolute opinion these were indeed bed bugs.  But of course no hotel will admit to that right? I have included a photo of one of my arms.  This spot had the least amount of bites but didn't want to put an inappropriate photo up :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r195840039-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>195840039</t>
+  </si>
+  <si>
+    <t>03/01/2014</t>
+  </si>
+  <si>
+    <t>Great Service, Good Location, Relaxing Vacation</t>
+  </si>
+  <si>
+    <t>We just got home from a week stay in Southern California. We were in town to visit my dad and wanted to spend time at Disneyland as well. We usually stay in the resort area but chose this place for two reasons, the price for a two bedroom suite and the proximity to Yorba Linda. It was about a 20 minute drive to Disneyland and is situated by a great shopping center with Target, an upscale grocery store and several great restaurants.
+The rooms are almost as nice as the photos. Although my daughter is in a wheelchair we don't require a handicap accessible room. We were so tired when we checked in that we just went with it.
+We had the two bedroom, two bath suite. It has a full kitchen and a pull out sofa bed between the two rooms. Our youngest daughter slept in the middle room while our daughter and her husband had their own area. 
+The breakfast wasn't spectacular but there was variety. Basic scrambled eggs, breakfast meat. potatoes, waffles and a rotating choice each day of breakfast burritos or sandwiches as well as the usual continental fare. We were able to get a decent meal before starting the day.
+We made use of the kitchen as well as the community grill by the pool. 
+We spent a lot of time on the out door couches or entertaining in the breakfast room. The manager was...We just got home from a week stay in Southern California. We were in town to visit my dad and wanted to spend time at Disneyland as well. We usually stay in the resort area but chose this place for two reasons, the price for a two bedroom suite and the proximity to Yorba Linda. It was about a 20 minute drive to Disneyland and is situated by a great shopping center with Target, an upscale grocery store and several great restaurants.The rooms are almost as nice as the photos. Although my daughter is in a wheelchair we don't require a handicap accessible room. We were so tired when we checked in that we just went with it.We had the two bedroom, two bath suite. It has a full kitchen and a pull out sofa bed between the two rooms. Our youngest daughter slept in the middle room while our daughter and her husband had their own area. The breakfast wasn't spectacular but there was variety. Basic scrambled eggs, breakfast meat. potatoes, waffles and a rotating choice each day of breakfast burritos or sandwiches as well as the usual continental fare. We were able to get a decent meal before starting the day.We made use of the kitchen as well as the community grill by the pool. We spent a lot of time on the out door couches or entertaining in the breakfast room. The manager was very accommodating. We caught up with friends and family over a meal.The housekeepers were very good. Everything was really clean. They ran our dishwasher everyday and even put our dishes away a couple of times.I wouldn't hesitate staying here again. It was nice to stay out of the hustle and bustle of the parks. It was close enough but far enough away to get a good deal.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>MitchellFern, General Manager at Residence Inn Anaheim Hills Yorba Linda, responded to this reviewResponded March 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 3, 2014</t>
+  </si>
+  <si>
+    <t>We just got home from a week stay in Southern California. We were in town to visit my dad and wanted to spend time at Disneyland as well. We usually stay in the resort area but chose this place for two reasons, the price for a two bedroom suite and the proximity to Yorba Linda. It was about a 20 minute drive to Disneyland and is situated by a great shopping center with Target, an upscale grocery store and several great restaurants.
+The rooms are almost as nice as the photos. Although my daughter is in a wheelchair we don't require a handicap accessible room. We were so tired when we checked in that we just went with it.
+We had the two bedroom, two bath suite. It has a full kitchen and a pull out sofa bed between the two rooms. Our youngest daughter slept in the middle room while our daughter and her husband had their own area. 
+The breakfast wasn't spectacular but there was variety. Basic scrambled eggs, breakfast meat. potatoes, waffles and a rotating choice each day of breakfast burritos or sandwiches as well as the usual continental fare. We were able to get a decent meal before starting the day.
+We made use of the kitchen as well as the community grill by the pool. 
+We spent a lot of time on the out door couches or entertaining in the breakfast room. The manager was...We just got home from a week stay in Southern California. We were in town to visit my dad and wanted to spend time at Disneyland as well. We usually stay in the resort area but chose this place for two reasons, the price for a two bedroom suite and the proximity to Yorba Linda. It was about a 20 minute drive to Disneyland and is situated by a great shopping center with Target, an upscale grocery store and several great restaurants.The rooms are almost as nice as the photos. Although my daughter is in a wheelchair we don't require a handicap accessible room. We were so tired when we checked in that we just went with it.We had the two bedroom, two bath suite. It has a full kitchen and a pull out sofa bed between the two rooms. Our youngest daughter slept in the middle room while our daughter and her husband had their own area. The breakfast wasn't spectacular but there was variety. Basic scrambled eggs, breakfast meat. potatoes, waffles and a rotating choice each day of breakfast burritos or sandwiches as well as the usual continental fare. We were able to get a decent meal before starting the day.We made use of the kitchen as well as the community grill by the pool. We spent a lot of time on the out door couches or entertaining in the breakfast room. The manager was very accommodating. We caught up with friends and family over a meal.The housekeepers were very good. Everything was really clean. They ran our dishwasher everyday and even put our dishes away a couple of times.I wouldn't hesitate staying here again. It was nice to stay out of the hustle and bustle of the parks. It was close enough but far enough away to get a good deal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r194133869-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>194133869</t>
+  </si>
+  <si>
+    <t>02/15/2014</t>
+  </si>
+  <si>
+    <t>Double bedroom suite excellent space for 4+ people; Beds not as comfortable</t>
+  </si>
+  <si>
+    <t>Second stay in just over a year, but likely would not stay here again. The beds are not up to par with other Marriott properties. Woke up with a achy back each day we stayed. Rooms are quiet from other rooms in the property. Two bedrooms per large suite separated by a living room with electric fireplace, kitchen and eating area. TV's in each bedroom and in living area. Pool is heated. Hottub, while small, is good. Free breakfast is ample but seems small size for the amount of rooms and guests. Staff is very friendly and helpful. Location is close to shopping, restaurants, and major freeways. Rate was not discounted like first stay. Given the price I would not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>MitchellFern, General Manager at Residence Inn Anaheim Hills Yorba Linda, responded to this reviewResponded February 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 17, 2014</t>
+  </si>
+  <si>
+    <t>Second stay in just over a year, but likely would not stay here again. The beds are not up to par with other Marriott properties. Woke up with a achy back each day we stayed. Rooms are quiet from other rooms in the property. Two bedrooms per large suite separated by a living room with electric fireplace, kitchen and eating area. TV's in each bedroom and in living area. Pool is heated. Hottub, while small, is good. Free breakfast is ample but seems small size for the amount of rooms and guests. Staff is very friendly and helpful. Location is close to shopping, restaurants, and major freeways. Rate was not discounted like first stay. Given the price I would not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r191143160-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>191143160</t>
+  </si>
+  <si>
+    <t>01/17/2014</t>
+  </si>
+  <si>
+    <t>Exceeded Expectations</t>
+  </si>
+  <si>
+    <t>We were impressed with this Inn in every way. The location is convenient to the freeway, yet positioned on a quiet street and backed by a canyon open space. There is a nice shopping mall adjacent for shopping and dining. The staff is consistently very friendly from housekeeping to front office to breakfast service. And speaking of breakfast, our experience was just great. Great choices of fresh food and a hot selection rotated daily. We loved it! The 2 BR suite was well appointed with fireplace and full kitchen. Great to have an icemaker handy for our cold beverages. Beds were excellent, shower heads were perfect and the broadband speeds were outstanding. This Inn is well managed. Highly recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>MitchellFern, General Manager at Residence Inn Anaheim Hills Yorba Linda, responded to this reviewResponded January 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2014</t>
+  </si>
+  <si>
+    <t>We were impressed with this Inn in every way. The location is convenient to the freeway, yet positioned on a quiet street and backed by a canyon open space. There is a nice shopping mall adjacent for shopping and dining. The staff is consistently very friendly from housekeeping to front office to breakfast service. And speaking of breakfast, our experience was just great. Great choices of fresh food and a hot selection rotated daily. We loved it! The 2 BR suite was well appointed with fireplace and full kitchen. Great to have an icemaker handy for our cold beverages. Beds were excellent, shower heads were perfect and the broadband speeds were outstanding. This Inn is well managed. Highly recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r186374522-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>186374522</t>
+  </si>
+  <si>
+    <t>11/30/2013</t>
+  </si>
+  <si>
+    <t>You will be happy with this place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The usual great Marriott service and comfort. The breakfast is wonderful and seems to accommodate everyone. You can walk to Disneyland, although there is a shuttle that runs every 20 minutes. There is a fee, and you can buy passes at the hotel. There are also several good restaurants within walking distance. A Disney desk is located on property, where you can buy tickets and get all kinds of information. The perfect place to stay when visiting Disneyland. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r185648899-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>185648899</t>
+  </si>
+  <si>
+    <t>11/23/2013</t>
+  </si>
+  <si>
+    <t>Clean and Friendly Hotel Bonus Near Disneyland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel was clean and family friendly. Located only a short drive from Disneyland. Serves a good breakfast both hot and cold choices. Shopping center with grocery market directly across from the hotel. Staff make you feel welcome and tend to your needs. Would highly recommend for a family looking for a nice, clean close to Disneyland without breaking the bank to stay. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r183750637-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>183750637</t>
+  </si>
+  <si>
+    <t>11/06/2013</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>Great stay here... We used this hotel because we'd been invited back to the Fender Guitar Factory and needed somewhere close.The location is fantastic and the rooms/suites are a very good size.Breakfast was good.My GF runs and the hotel is right next to a local park - so it's great all round, though I think Marriott should make more use of that fact</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r180118151-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>180118151</t>
+  </si>
+  <si>
+    <t>10/07/2013</t>
+  </si>
+  <si>
+    <t>Good Home away from home</t>
+  </si>
+  <si>
+    <t>Spent a number of nights there this year and for the most part was very pleased with this hotel. Food was decent, usually the same things most weeks, evening socials could be improved (the Residence Inn at Ontario airport serves alcohol each night). They finally upgraded the exercise room to put in an elliptical and got rid of the treadmill that was temporarily out of order for about two months. Staff was attentive and front desk people were accommodating and even remembered our names.Good location, Pavilions across street, target, theater, restaurants all around</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r177450240-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>177450240</t>
+  </si>
+  <si>
+    <t>09/16/2013</t>
+  </si>
+  <si>
+    <t>Nice, quiet location;  nice rooms, family hotel</t>
+  </si>
+  <si>
+    <t>Stayed here in August for a baseball trip.  Booked based on TA reviews.  Location reminds me of the Brady Bunch neighborhood...beautiful and in the hills.  Nice rooms and staff was fabulous.  About a 20 minute ride to Anaheim Stadium without traffic.  Has all the basics you need.  Looked like a great family hotel (I did not travel with kids) with pool and basketball courts.  Restaurants within a short drive.  Would stay again if in the areaMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>MitchellFern, General Manager at Residence Inn Anaheim Hills Yorba Linda, responded to this reviewResponded February 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here in August for a baseball trip.  Booked based on TA reviews.  Location reminds me of the Brady Bunch neighborhood...beautiful and in the hills.  Nice rooms and staff was fabulous.  About a 20 minute ride to Anaheim Stadium without traffic.  Has all the basics you need.  Looked like a great family hotel (I did not travel with kids) with pool and basketball courts.  Restaurants within a short drive.  Would stay again if in the areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r175281113-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>175281113</t>
+  </si>
+  <si>
+    <t>09/02/2013</t>
+  </si>
+  <si>
+    <t>Nice Rooms, Great Location, Slow Internet</t>
+  </si>
+  <si>
+    <t>This Residence Inn is on the newer side of this particular sub-chain.  I've stayed in several RI's over the past few years with varying "ages" of the buildings, but this is newer and certainly worthy of the Marriott name, though it still can't be confused with a "new" building.The room was comfortable and the service was great.The location is great, it's near everything you could need and is also a great place to stay if you're playing in a soccer tournament.The internet however was terrible.  I couldn't get above .2 Mbps and management kept telling me it was working just fine.  It wasn't fine, I ran several speedtests on several different devices and computers and it was consistently terrible.  Management couldn't do anything about it and said it was just fine.  I also kept losing any slow connection I could connect to.I'd say that I've not been impressed with Marriott internet overall, when I pay for access, it's usually poor and when I get it free...it's not much better.  Marriott is a great chain, but needs to commit resources to better internet.I loved the hotel, but was very disappointed in not having internet - with two kids on devices and no internet...it's not good.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>This Residence Inn is on the newer side of this particular sub-chain.  I've stayed in several RI's over the past few years with varying "ages" of the buildings, but this is newer and certainly worthy of the Marriott name, though it still can't be confused with a "new" building.The room was comfortable and the service was great.The location is great, it's near everything you could need and is also a great place to stay if you're playing in a soccer tournament.The internet however was terrible.  I couldn't get above .2 Mbps and management kept telling me it was working just fine.  It wasn't fine, I ran several speedtests on several different devices and computers and it was consistently terrible.  Management couldn't do anything about it and said it was just fine.  I also kept losing any slow connection I could connect to.I'd say that I've not been impressed with Marriott internet overall, when I pay for access, it's usually poor and when I get it free...it's not much better.  Marriott is a great chain, but needs to commit resources to better internet.I loved the hotel, but was very disappointed in not having internet - with two kids on devices and no internet...it's not good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r170773976-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>170773976</t>
+  </si>
+  <si>
+    <t>08/04/2013</t>
+  </si>
+  <si>
+    <t>It's OK for a Residence Inn</t>
+  </si>
+  <si>
+    <t>The hotel is getting a little run down and needs a face lift.  The included breakfast could use some healthier options.  I checked in at midnight, and the clerk on duty was excellent, I am sorry I did not get his name.  He provided me with all of the information that I needed to plan my visit in the local area.  All of the staff that I interacted with were excellent.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r170707035-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>170707035</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay!</t>
+  </si>
+  <si>
+    <t>I stayed at this particular Residence Inn at the end of May this year.  I had come down with my best friend to attend a concert in Anaheim.  I am a Marriott gold member and am 99% faithful to the chain unless there is not a Marriott where I am staying.  I was really impressed with this particular property.  My best friend and I are shoppers so the location was amazing.  You just had to walk across the side street and there was T.J Maxx, Tuesday Morning, Target and several others.  LOVED the fact that there was at least 4 restaurants there as well.  I reserved a 1 bedroom suite.  It was great.  We were on the top floor which I always request. I try to eliminate the noise factor as much as possible.  It was very clean and perfect for the two of us.  There is a sofa bed in the living room and queen size bed in the bedroom with a flat screen T.V.  Bathroom wasn't huge but a nice vanity area and for two girls it was fine.  I like these R.I properties because of the full kitchen.  Love having a full size fridge especially.  There was a huge Pavilions grocery store across the street and I always stock up on water and other snack type foods.  Great if you have kids or traveling with pets.  The girls at the front check in desk were very nice...I stayed at this particular Residence Inn at the end of May this year.  I had come down with my best friend to attend a concert in Anaheim.  I am a Marriott gold member and am 99% faithful to the chain unless there is not a Marriott where I am staying.  I was really impressed with this particular property.  My best friend and I are shoppers so the location was amazing.  You just had to walk across the side street and there was T.J Maxx, Tuesday Morning, Target and several others.  LOVED the fact that there was at least 4 restaurants there as well.  I reserved a 1 bedroom suite.  It was great.  We were on the top floor which I always request. I try to eliminate the noise factor as much as possible.  It was very clean and perfect for the two of us.  There is a sofa bed in the living room and queen size bed in the bedroom with a flat screen T.V.  Bathroom wasn't huge but a nice vanity area and for two girls it was fine.  I like these R.I properties because of the full kitchen.  Love having a full size fridge especially.  There was a huge Pavilions grocery store across the street and I always stock up on water and other snack type foods.  Great if you have kids or traveling with pets.  The girls at the front check in desk were very nice and the breakfast was typical for the Residence inn.  I don't agree with one of the previous reviewers comment about the breakfast being different from other Residence Inns.  I have stayed at a lot of R.I properties and this breakfast was exactly the same as any other one I have stayed at. They do change the menu up a little bit daily where one day they might have breakfast burritos and the next egg mcmuffin type sandwiches.  They all have the scrambled eggs, bacon or sausage or ham, potatoes of some sort, bagels, pastries, oatmeal, cold cereal, fruit, yogurt, waffles etc.  I will definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>I stayed at this particular Residence Inn at the end of May this year.  I had come down with my best friend to attend a concert in Anaheim.  I am a Marriott gold member and am 99% faithful to the chain unless there is not a Marriott where I am staying.  I was really impressed with this particular property.  My best friend and I are shoppers so the location was amazing.  You just had to walk across the side street and there was T.J Maxx, Tuesday Morning, Target and several others.  LOVED the fact that there was at least 4 restaurants there as well.  I reserved a 1 bedroom suite.  It was great.  We were on the top floor which I always request. I try to eliminate the noise factor as much as possible.  It was very clean and perfect for the two of us.  There is a sofa bed in the living room and queen size bed in the bedroom with a flat screen T.V.  Bathroom wasn't huge but a nice vanity area and for two girls it was fine.  I like these R.I properties because of the full kitchen.  Love having a full size fridge especially.  There was a huge Pavilions grocery store across the street and I always stock up on water and other snack type foods.  Great if you have kids or traveling with pets.  The girls at the front check in desk were very nice...I stayed at this particular Residence Inn at the end of May this year.  I had come down with my best friend to attend a concert in Anaheim.  I am a Marriott gold member and am 99% faithful to the chain unless there is not a Marriott where I am staying.  I was really impressed with this particular property.  My best friend and I are shoppers so the location was amazing.  You just had to walk across the side street and there was T.J Maxx, Tuesday Morning, Target and several others.  LOVED the fact that there was at least 4 restaurants there as well.  I reserved a 1 bedroom suite.  It was great.  We were on the top floor which I always request. I try to eliminate the noise factor as much as possible.  It was very clean and perfect for the two of us.  There is a sofa bed in the living room and queen size bed in the bedroom with a flat screen T.V.  Bathroom wasn't huge but a nice vanity area and for two girls it was fine.  I like these R.I properties because of the full kitchen.  Love having a full size fridge especially.  There was a huge Pavilions grocery store across the street and I always stock up on water and other snack type foods.  Great if you have kids or traveling with pets.  The girls at the front check in desk were very nice and the breakfast was typical for the Residence inn.  I don't agree with one of the previous reviewers comment about the breakfast being different from other Residence Inns.  I have stayed at a lot of R.I properties and this breakfast was exactly the same as any other one I have stayed at. They do change the menu up a little bit daily where one day they might have breakfast burritos and the next egg mcmuffin type sandwiches.  They all have the scrambled eggs, bacon or sausage or ham, potatoes of some sort, bagels, pastries, oatmeal, cold cereal, fruit, yogurt, waffles etc.  I will definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r169977133-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>169977133</t>
+  </si>
+  <si>
+    <t>07/30/2013</t>
+  </si>
+  <si>
+    <t>Adequate</t>
+  </si>
+  <si>
+    <t>We stayed here in June for 2 nights in order to attend a high school graduation. The room was fine, not much of a view but we weren't looking for anything special. Staff was nice enough. I found the breakfast to be a cut below that of other Residence Inns but again, it was Free. We had 2 issues. One, the door does not shut automatcally, so you need to grab the handle upon exiting the room and make sure it closes! Two- We were out for most of the second day and returned about 3-ish. Our room had not been serviced. The maid knocked on our door about 30 minutes later but we were getting ready to go out again and so we told her no. For us, it didn't matter but it may be an issue for others. To be fair, they had a TON of kids staying there for some sports thing. I imagne that caused alot of extra work for the poor maids. Oftentimes, the kids are not closely supervised and leave a godawful mess.We did not complain because that's not how we roll.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>We stayed here in June for 2 nights in order to attend a high school graduation. The room was fine, not much of a view but we weren't looking for anything special. Staff was nice enough. I found the breakfast to be a cut below that of other Residence Inns but again, it was Free. We had 2 issues. One, the door does not shut automatcally, so you need to grab the handle upon exiting the room and make sure it closes! Two- We were out for most of the second day and returned about 3-ish. Our room had not been serviced. The maid knocked on our door about 30 minutes later but we were getting ready to go out again and so we told her no. For us, it didn't matter but it may be an issue for others. To be fair, they had a TON of kids staying there for some sports thing. I imagne that caused alot of extra work for the poor maids. Oftentimes, the kids are not closely supervised and leave a godawful mess.We did not complain because that's not how we roll.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r167438778-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>167438778</t>
+  </si>
+  <si>
+    <t>07/13/2013</t>
+  </si>
+  <si>
+    <t>Average hotel</t>
+  </si>
+  <si>
+    <t>We arrived at around 9:15pm. There were 4 people ahead of us at the front desk, but no front desk personnel to help us. We all looked at each other and waited for another 15 mins, still no one. I decided to call the hotel from the lobby and the phone rang and still no one came out to answer. I let the call rolled to the operator hoping someone would answer. No one did. But right after I hung up two young employees walked out and started checking us in, with no reason why there was no one attending to the front desk. The young lady who checked us in gave us a handicapped accessible room which would have been fine if not for the bathroom.  There was no tub shower enclosure, just one big room with the toilet right next to the shower. So you can imagine the toilet seat getting wet each time some one takes a shower. There was no place to put the toiletries, no place to put the soap. So we had to improvise and put the handicap seat/bench down and use it to put our shampoos, conditioner etc. We had to use the soap dish from the sink to put the bath soap since there was no soap holder in the shower. 
+Breakfast was not impressive but since it's free, I can't complain. At least the coffee was decent. 
+The room was clean...We arrived at around 9:15pm. There were 4 people ahead of us at the front desk, but no front desk personnel to help us. We all looked at each other and waited for another 15 mins, still no one. I decided to call the hotel from the lobby and the phone rang and still no one came out to answer. I let the call rolled to the operator hoping someone would answer. No one did. But right after I hung up two young employees walked out and started checking us in, with no reason why there was no one attending to the front desk. The young lady who checked us in gave us a handicapped accessible room which would have been fine if not for the bathroom.  There was no tub shower enclosure, just one big room with the toilet right next to the shower. So you can imagine the toilet seat getting wet each time some one takes a shower. There was no place to put the toiletries, no place to put the soap. So we had to improvise and put the handicap seat/bench down and use it to put our shampoos, conditioner etc. We had to use the soap dish from the sink to put the bath soap since there was no soap holder in the shower. Breakfast was not impressive but since it's free, I can't complain. At least the coffee was decent. The room was clean but linens were very thin. Full size fridge, dishwasher and microwave in the room. Wifi access was great. Nice outdoor basketball court and pool. A little noisy if your room is on the first floor next to the court.Very convenient location with access to restaurants and grocery stores. Ample parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>We arrived at around 9:15pm. There were 4 people ahead of us at the front desk, but no front desk personnel to help us. We all looked at each other and waited for another 15 mins, still no one. I decided to call the hotel from the lobby and the phone rang and still no one came out to answer. I let the call rolled to the operator hoping someone would answer. No one did. But right after I hung up two young employees walked out and started checking us in, with no reason why there was no one attending to the front desk. The young lady who checked us in gave us a handicapped accessible room which would have been fine if not for the bathroom.  There was no tub shower enclosure, just one big room with the toilet right next to the shower. So you can imagine the toilet seat getting wet each time some one takes a shower. There was no place to put the toiletries, no place to put the soap. So we had to improvise and put the handicap seat/bench down and use it to put our shampoos, conditioner etc. We had to use the soap dish from the sink to put the bath soap since there was no soap holder in the shower. 
+Breakfast was not impressive but since it's free, I can't complain. At least the coffee was decent. 
+The room was clean...We arrived at around 9:15pm. There were 4 people ahead of us at the front desk, but no front desk personnel to help us. We all looked at each other and waited for another 15 mins, still no one. I decided to call the hotel from the lobby and the phone rang and still no one came out to answer. I let the call rolled to the operator hoping someone would answer. No one did. But right after I hung up two young employees walked out and started checking us in, with no reason why there was no one attending to the front desk. The young lady who checked us in gave us a handicapped accessible room which would have been fine if not for the bathroom.  There was no tub shower enclosure, just one big room with the toilet right next to the shower. So you can imagine the toilet seat getting wet each time some one takes a shower. There was no place to put the toiletries, no place to put the soap. So we had to improvise and put the handicap seat/bench down and use it to put our shampoos, conditioner etc. We had to use the soap dish from the sink to put the bath soap since there was no soap holder in the shower. Breakfast was not impressive but since it's free, I can't complain. At least the coffee was decent. The room was clean but linens were very thin. Full size fridge, dishwasher and microwave in the room. Wifi access was great. Nice outdoor basketball court and pool. A little noisy if your room is on the first floor next to the court.Very convenient location with access to restaurants and grocery stores. Ample parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r166363950-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>166363950</t>
+  </si>
+  <si>
+    <t>07/04/2013</t>
+  </si>
+  <si>
+    <t>Best extended stay: Felt comfortable like home</t>
+  </si>
+  <si>
+    <t>I have stayed at the Anaheim Hills Residence Inn for three months in the spring of 2013, on an academic sabbatical. The hotel was perfect for my needs. I had a one bedroom suite, fully equipped, a comfortable desk and chair, with a nice view from the fourth floor window. The high-speed Wi-Fi connection (have used multiple devices simultaneously) was excellent, both in the suite and throughout the hotel. There were two new computers with printers in the lobby, which I have used occasionally for printing. The hotel staff was proficient, friendly, and helpful. The rooms and public areas were kept very clean. There was a laundry room with two washing machines and four driers in my building. The shopping center, within five minutes walking distance, opposite the hotel was very convenient, with a Target store, a supermarket, a few restaurants, and more. The hot breakfast buffet was excellent, and the staff was doing their most to answer every request. They refilled the items constantly, kept the dining room clean and neat. During occasional busier times, I would take a tray to my suite. There were also complementary light dinners on Mondays, Tuesdays, and Wednesdays, which were not fancy, but adequate, and were always served with a friendly smile. My husband and son have stayed a short while with me, and both have enjoyed the hotel tremendously. I would definitely stay in this hotel on my next visits to the...I have stayed at the Anaheim Hills Residence Inn for three months in the spring of 2013, on an academic sabbatical. The hotel was perfect for my needs. I had a one bedroom suite, fully equipped, a comfortable desk and chair, with a nice view from the fourth floor window. The high-speed Wi-Fi connection (have used multiple devices simultaneously) was excellent, both in the suite and throughout the hotel. There were two new computers with printers in the lobby, which I have used occasionally for printing. The hotel staff was proficient, friendly, and helpful. The rooms and public areas were kept very clean. There was a laundry room with two washing machines and four driers in my building. The shopping center, within five minutes walking distance, opposite the hotel was very convenient, with a Target store, a supermarket, a few restaurants, and more. The hot breakfast buffet was excellent, and the staff was doing their most to answer every request. They refilled the items constantly, kept the dining room clean and neat. During occasional busier times, I would take a tray to my suite. There were also complementary light dinners on Mondays, Tuesdays, and Wednesdays, which were not fancy, but adequate, and were always served with a friendly smile. My husband and son have stayed a short while with me, and both have enjoyed the hotel tremendously. I would definitely stay in this hotel on my next visits to the Orange County area, and recommend it to my friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>I have stayed at the Anaheim Hills Residence Inn for three months in the spring of 2013, on an academic sabbatical. The hotel was perfect for my needs. I had a one bedroom suite, fully equipped, a comfortable desk and chair, with a nice view from the fourth floor window. The high-speed Wi-Fi connection (have used multiple devices simultaneously) was excellent, both in the suite and throughout the hotel. There were two new computers with printers in the lobby, which I have used occasionally for printing. The hotel staff was proficient, friendly, and helpful. The rooms and public areas were kept very clean. There was a laundry room with two washing machines and four driers in my building. The shopping center, within five minutes walking distance, opposite the hotel was very convenient, with a Target store, a supermarket, a few restaurants, and more. The hot breakfast buffet was excellent, and the staff was doing their most to answer every request. They refilled the items constantly, kept the dining room clean and neat. During occasional busier times, I would take a tray to my suite. There were also complementary light dinners on Mondays, Tuesdays, and Wednesdays, which were not fancy, but adequate, and were always served with a friendly smile. My husband and son have stayed a short while with me, and both have enjoyed the hotel tremendously. I would definitely stay in this hotel on my next visits to the...I have stayed at the Anaheim Hills Residence Inn for three months in the spring of 2013, on an academic sabbatical. The hotel was perfect for my needs. I had a one bedroom suite, fully equipped, a comfortable desk and chair, with a nice view from the fourth floor window. The high-speed Wi-Fi connection (have used multiple devices simultaneously) was excellent, both in the suite and throughout the hotel. There were two new computers with printers in the lobby, which I have used occasionally for printing. The hotel staff was proficient, friendly, and helpful. The rooms and public areas were kept very clean. There was a laundry room with two washing machines and four driers in my building. The shopping center, within five minutes walking distance, opposite the hotel was very convenient, with a Target store, a supermarket, a few restaurants, and more. The hot breakfast buffet was excellent, and the staff was doing their most to answer every request. They refilled the items constantly, kept the dining room clean and neat. During occasional busier times, I would take a tray to my suite. There were also complementary light dinners on Mondays, Tuesdays, and Wednesdays, which were not fancy, but adequate, and were always served with a friendly smile. My husband and son have stayed a short while with me, and both have enjoyed the hotel tremendously. I would definitely stay in this hotel on my next visits to the Orange County area, and recommend it to my friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r165721708-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>165721708</t>
+  </si>
+  <si>
+    <t>06/29/2013</t>
+  </si>
+  <si>
+    <t>Excellent location and price, business or pleasure</t>
+  </si>
+  <si>
+    <t>I've stayed about 3-4 days every two months since June of 2012 until summer of 2013 so far:
+The Good: Great location, close to stores, business office complexes I mostly go to when in the area, restaurants, attractions (Disney, etc), convention center, etc. Is next to the main LA freeways but far enough not to hear their noise, good but average breakfast, intelligent and friendly staff, spacious rooms, within walking distance of movie theaters, grocery store, restaurants (Islands, Maccarronni Grill, steak houses, etc.) and many more. A Costco and a Home Depot are just 5 min by car as well as a TGIF and others, couple of gas stations, etc. etc. Great location I must say. Even if on business, could bring the family along so they go to the amusement parks while you get work done to pay for their bills. For being in So-Cal and LA area parking is free (though not covered or not plenty of spots). Rooms as expected have a refrigerator, microwave, etc so you can simply buy stuff at the grocery store and keep it in the room or bring food to go and eat while you work in your room.
+The Bad: While close to all main LA freeways, immediate entrance is via the nasty 91 freeway which at certain times of the day is probably the most congested one in LA. LAX Airport is not very close, so if you have an...I've stayed about 3-4 days every two months since June of 2012 until summer of 2013 so far:The Good: Great location, close to stores, business office complexes I mostly go to when in the area, restaurants, attractions (Disney, etc), convention center, etc. Is next to the main LA freeways but far enough not to hear their noise, good but average breakfast, intelligent and friendly staff, spacious rooms, within walking distance of movie theaters, grocery store, restaurants (Islands, Maccarronni Grill, steak houses, etc.) and many more. A Costco and a Home Depot are just 5 min by car as well as a TGIF and others, couple of gas stations, etc. etc. Great location I must say. Even if on business, could bring the family along so they go to the amusement parks while you get work done to pay for their bills. For being in So-Cal and LA area parking is free (though not covered or not plenty of spots). Rooms as expected have a refrigerator, microwave, etc so you can simply buy stuff at the grocery store and keep it in the room or bring food to go and eat while you work in your room.The Bad: While close to all main LA freeways, immediate entrance is via the nasty 91 freeway which at certain times of the day is probably the most congested one in LA. LAX Airport is not very close, so if you have an early AM flight you'd rather stay by the airport the night before. Breakfast is average but the breakfast area is waaay to small, specially considering this hotel mixes business travelers (where we eat alone) and families (who take 2-3 tables if not more) so not only the area gets very crowded (and dirty) in the morning but also if you do meet colleagues over breakfast you'll have to deal with background noise of kids and parents arguments over typical breakfast family disputes, not to mention prompt depletion of certain foods when big parties come in and take over the breakfast area.The Ugly: None that I can think ofMoreShow less</t>
+  </si>
+  <si>
+    <t>I've stayed about 3-4 days every two months since June of 2012 until summer of 2013 so far:
+The Good: Great location, close to stores, business office complexes I mostly go to when in the area, restaurants, attractions (Disney, etc), convention center, etc. Is next to the main LA freeways but far enough not to hear their noise, good but average breakfast, intelligent and friendly staff, spacious rooms, within walking distance of movie theaters, grocery store, restaurants (Islands, Maccarronni Grill, steak houses, etc.) and many more. A Costco and a Home Depot are just 5 min by car as well as a TGIF and others, couple of gas stations, etc. etc. Great location I must say. Even if on business, could bring the family along so they go to the amusement parks while you get work done to pay for their bills. For being in So-Cal and LA area parking is free (though not covered or not plenty of spots). Rooms as expected have a refrigerator, microwave, etc so you can simply buy stuff at the grocery store and keep it in the room or bring food to go and eat while you work in your room.
+The Bad: While close to all main LA freeways, immediate entrance is via the nasty 91 freeway which at certain times of the day is probably the most congested one in LA. LAX Airport is not very close, so if you have an...I've stayed about 3-4 days every two months since June of 2012 until summer of 2013 so far:The Good: Great location, close to stores, business office complexes I mostly go to when in the area, restaurants, attractions (Disney, etc), convention center, etc. Is next to the main LA freeways but far enough not to hear their noise, good but average breakfast, intelligent and friendly staff, spacious rooms, within walking distance of movie theaters, grocery store, restaurants (Islands, Maccarronni Grill, steak houses, etc.) and many more. A Costco and a Home Depot are just 5 min by car as well as a TGIF and others, couple of gas stations, etc. etc. Great location I must say. Even if on business, could bring the family along so they go to the amusement parks while you get work done to pay for their bills. For being in So-Cal and LA area parking is free (though not covered or not plenty of spots). Rooms as expected have a refrigerator, microwave, etc so you can simply buy stuff at the grocery store and keep it in the room or bring food to go and eat while you work in your room.The Bad: While close to all main LA freeways, immediate entrance is via the nasty 91 freeway which at certain times of the day is probably the most congested one in LA. LAX Airport is not very close, so if you have an early AM flight you'd rather stay by the airport the night before. Breakfast is average but the breakfast area is waaay to small, specially considering this hotel mixes business travelers (where we eat alone) and families (who take 2-3 tables if not more) so not only the area gets very crowded (and dirty) in the morning but also if you do meet colleagues over breakfast you'll have to deal with background noise of kids and parents arguments over typical breakfast family disputes, not to mention prompt depletion of certain foods when big parties come in and take over the breakfast area.The Ugly: None that I can think ofMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r159575991-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>159575991</t>
+  </si>
+  <si>
+    <t>05/03/2013</t>
+  </si>
+  <si>
+    <t>A great deal for the price!</t>
+  </si>
+  <si>
+    <t>My stay was very enjoyable. I had a 1 bedroom suite which included a kitchen/livingroom. There was a small dining table and good sized desk table. The room came with a sofa that folded out and a living room chair. It was spacious and comfortable for my 2 large dogs and I. Every morning there was a great breakfast buffet which was included. On Mondays, Tuesdays and Wednesdays the also had a light dinner. In walking distance (5-10 minutes) there were restraunts and a movie theater, it is located close to the fwy and is very convient . I highly recommend this hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r158871133-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>158871133</t>
+  </si>
+  <si>
+    <t>04/26/2013</t>
+  </si>
+  <si>
+    <t>Our Family Reunion</t>
+  </si>
+  <si>
+    <t>All my family members who attended the Reunion all agreed that I could not have picked a more perfect place.  The rooms were clean and spacious with full size fridges and stoves so we could pick up food - store it -  then we cooked it on the hotel's grill -- having a nice relaxing day at the pool.  Later in the evening we used the hotel's conference room to display our family tree and watch some old movies.  The manager, Mitchell Fern, even popped up some popcorn for us for the event.  I am from Wyoming so planning this event in California was a gamble.  I talked to over 20 hotels in Anaheim area and found Mitchell Fern to be the most helpful, patient and cooperative and that is why I picked this place. Other hotels gave me a better price but it is not about price it is about getting a place that makes you feel welcome.  It is not housing but hospitality. Mitchell understands this...Mitchell worked with me in telling me about the area and attractions in a truthful and honest way. He spend countless hours answering calls and email messages to get to know me and my family and it meant so much.  Thank you Thank you Thank you Mitchell Fern to helping make my family's reunion a success.  Carol &amp; All 50 of us Coccia'sMoreShow less</t>
+  </si>
+  <si>
+    <t>All my family members who attended the Reunion all agreed that I could not have picked a more perfect place.  The rooms were clean and spacious with full size fridges and stoves so we could pick up food - store it -  then we cooked it on the hotel's grill -- having a nice relaxing day at the pool.  Later in the evening we used the hotel's conference room to display our family tree and watch some old movies.  The manager, Mitchell Fern, even popped up some popcorn for us for the event.  I am from Wyoming so planning this event in California was a gamble.  I talked to over 20 hotels in Anaheim area and found Mitchell Fern to be the most helpful, patient and cooperative and that is why I picked this place. Other hotels gave me a better price but it is not about price it is about getting a place that makes you feel welcome.  It is not housing but hospitality. Mitchell understands this...Mitchell worked with me in telling me about the area and attractions in a truthful and honest way. He spend countless hours answering calls and email messages to get to know me and my family and it meant so much.  Thank you Thank you Thank you Mitchell Fern to helping make my family's reunion a success.  Carol &amp; All 50 of us Coccia'sMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r157946988-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>157946988</t>
+  </si>
+  <si>
+    <t>04/16/2013</t>
+  </si>
+  <si>
+    <t>Great staff and customer service!</t>
+  </si>
+  <si>
+    <t>I had never stayed at a Residence Inn before but will certainly look into booking one in the future.  We had six rooms reserved for out-of-town family and friends for our son's wedding.  Not only did the rooms work great for us (having 2 BR, 2 bath rooms available at an affordable rate was really helpful), but the location is really convenient--we walked to Target, the Pavilions supermarket, and a few restaurants!  We also enjoyed using the pool and hot tub and the staff was great about letting our large group congregate in the breakfast room at odd times of day.  Best of all was the staff:  Mitchell Fern and the desk and housekeeping staff were all outstanding.  They bent over backwards to take care of our many needs (even odds and ends such as a bowl for ice to borrow for the wedding reception!).  They upgraded a room and waived the banquet room fee when one of our party had to be moved to a new room--without any request for compensation on our part at all!  We couldn't have had a better stay or been more impressed by the hotel staff.  To me, great customer service counts for a lot--it makes even a less comfortable room much more bearable--but the Residence Inn in Anaheim Hills/Yorba Linda combines wonderful location, incredibly comfortable and pleasant rooms, AND an outstanding staff for one of the best hotel stays I've ever experienced!  THANK...I had never stayed at a Residence Inn before but will certainly look into booking one in the future.  We had six rooms reserved for out-of-town family and friends for our son's wedding.  Not only did the rooms work great for us (having 2 BR, 2 bath rooms available at an affordable rate was really helpful), but the location is really convenient--we walked to Target, the Pavilions supermarket, and a few restaurants!  We also enjoyed using the pool and hot tub and the staff was great about letting our large group congregate in the breakfast room at odd times of day.  Best of all was the staff:  Mitchell Fern and the desk and housekeeping staff were all outstanding.  They bent over backwards to take care of our many needs (even odds and ends such as a bowl for ice to borrow for the wedding reception!).  They upgraded a room and waived the banquet room fee when one of our party had to be moved to a new room--without any request for compensation on our part at all!  We couldn't have had a better stay or been more impressed by the hotel staff.  To me, great customer service counts for a lot--it makes even a less comfortable room much more bearable--but the Residence Inn in Anaheim Hills/Yorba Linda combines wonderful location, incredibly comfortable and pleasant rooms, AND an outstanding staff for one of the best hotel stays I've ever experienced!  THANK YOU, Mitchell, Samantha, Brooke, and the others at the Residence Inn!MoreShow less</t>
+  </si>
+  <si>
+    <t>I had never stayed at a Residence Inn before but will certainly look into booking one in the future.  We had six rooms reserved for out-of-town family and friends for our son's wedding.  Not only did the rooms work great for us (having 2 BR, 2 bath rooms available at an affordable rate was really helpful), but the location is really convenient--we walked to Target, the Pavilions supermarket, and a few restaurants!  We also enjoyed using the pool and hot tub and the staff was great about letting our large group congregate in the breakfast room at odd times of day.  Best of all was the staff:  Mitchell Fern and the desk and housekeeping staff were all outstanding.  They bent over backwards to take care of our many needs (even odds and ends such as a bowl for ice to borrow for the wedding reception!).  They upgraded a room and waived the banquet room fee when one of our party had to be moved to a new room--without any request for compensation on our part at all!  We couldn't have had a better stay or been more impressed by the hotel staff.  To me, great customer service counts for a lot--it makes even a less comfortable room much more bearable--but the Residence Inn in Anaheim Hills/Yorba Linda combines wonderful location, incredibly comfortable and pleasant rooms, AND an outstanding staff for one of the best hotel stays I've ever experienced!  THANK...I had never stayed at a Residence Inn before but will certainly look into booking one in the future.  We had six rooms reserved for out-of-town family and friends for our son's wedding.  Not only did the rooms work great for us (having 2 BR, 2 bath rooms available at an affordable rate was really helpful), but the location is really convenient--we walked to Target, the Pavilions supermarket, and a few restaurants!  We also enjoyed using the pool and hot tub and the staff was great about letting our large group congregate in the breakfast room at odd times of day.  Best of all was the staff:  Mitchell Fern and the desk and housekeeping staff were all outstanding.  They bent over backwards to take care of our many needs (even odds and ends such as a bowl for ice to borrow for the wedding reception!).  They upgraded a room and waived the banquet room fee when one of our party had to be moved to a new room--without any request for compensation on our part at all!  We couldn't have had a better stay or been more impressed by the hotel staff.  To me, great customer service counts for a lot--it makes even a less comfortable room much more bearable--but the Residence Inn in Anaheim Hills/Yorba Linda combines wonderful location, incredibly comfortable and pleasant rooms, AND an outstanding staff for one of the best hotel stays I've ever experienced!  THANK YOU, Mitchell, Samantha, Brooke, and the others at the Residence Inn!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r155743020-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>155743020</t>
+  </si>
+  <si>
+    <t>03/26/2013</t>
+  </si>
+  <si>
+    <t>Very nice staff, And breakfast crew</t>
+  </si>
+  <si>
+    <t>Was a little concerned at first we checked in, 4 people, was going to use the sofa bed, it was terrible, nothing but a sheet over springs,  but when notified in the morning, they instantly offered to move us, chose not to but asked for comforters to build it up, they bent over backwards for us, all we needed, ice maker broke in fridge, once again the staff said, just ask and we will bring it up for you ( and they did ), now for breakfast,  ordinary breakfast, was good, but the staff jumped when you would ask for something low, they RUSHED to fill it, and even delivered to your table, Best staff ever for breakfast, not to mention main staffMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Was a little concerned at first we checked in, 4 people, was going to use the sofa bed, it was terrible, nothing but a sheet over springs,  but when notified in the morning, they instantly offered to move us, chose not to but asked for comforters to build it up, they bent over backwards for us, all we needed, ice maker broke in fridge, once again the staff said, just ask and we will bring it up for you ( and they did ), now for breakfast,  ordinary breakfast, was good, but the staff jumped when you would ask for something low, they RUSHED to fill it, and even delivered to your table, Best staff ever for breakfast, not to mention main staffMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r155068341-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>155068341</t>
+  </si>
+  <si>
+    <t>03/19/2013</t>
+  </si>
+  <si>
+    <t>"Top Notch Hotel and Staff!"</t>
+  </si>
+  <si>
+    <t>Enjoyed a pleasant stay at the hotel and found everything to our liking even though we are very picky travelers. The spacious suite with full kitchenette was excellent and the night manager was most helpful in directing us to some great local restaurants. All was well until I returned home and could not locate my small jewelry bag which I immediately reported to the hotel. I promptly received a return call from the Manager, Fern Mitchell, who listened patiently and took my charges seriously while I was jumping to conclusions and making accusations. Although he had the utmost confidence in his staff, he also expressed genuine concern for my loss and offered to conduct a thorough investigation. As a result, there was no evidence or reason to implicate any hotel staff but he proposed a generous good will gesture which I readily accepted. He went above and beyone anything I had expected. However, I was humbled and embarrassed the next day when I found the jewelry safely tucked away in my travel bag! And, of course, Mr. Mitchell was magnanimous in accepting my deepest apologies (lesson learned!). Both the hotel and management score a perfect ten in my book!  Carol NBMoreShow less</t>
+  </si>
+  <si>
+    <t>Enjoyed a pleasant stay at the hotel and found everything to our liking even though we are very picky travelers. The spacious suite with full kitchenette was excellent and the night manager was most helpful in directing us to some great local restaurants. All was well until I returned home and could not locate my small jewelry bag which I immediately reported to the hotel. I promptly received a return call from the Manager, Fern Mitchell, who listened patiently and took my charges seriously while I was jumping to conclusions and making accusations. Although he had the utmost confidence in his staff, he also expressed genuine concern for my loss and offered to conduct a thorough investigation. As a result, there was no evidence or reason to implicate any hotel staff but he proposed a generous good will gesture which I readily accepted. He went above and beyone anything I had expected. However, I was humbled and embarrassed the next day when I found the jewelry safely tucked away in my travel bag! And, of course, Mr. Mitchell was magnanimous in accepting my deepest apologies (lesson learned!). Both the hotel and management score a perfect ten in my book!  Carol NBMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r154555868-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>154555868</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>Still a great deal for the price</t>
+  </si>
+  <si>
+    <t>My boys and I have just returned from a week visiting family in Anaheim Hills. This is the second time we have stayed at this hotel, and once again we were more than satisfied. Our rooms were spotlessly clean and spacious. The beds were extremely comfortable and the sheets crisp and snowy white. All employees around the hotel are friendly and polite, and all (minor) issues were resolved quickly. The pool and hot tub are great for the kids, although not kept as clean off season as they were when we visited in the summer. Breakfast offers a good selection of items, both hot and cold, and snacks are available for sale at reception. The hotel offers a grocery shopping service and coin-operated laundry facilities which are very handy. All in all, a very good stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>My boys and I have just returned from a week visiting family in Anaheim Hills. This is the second time we have stayed at this hotel, and once again we were more than satisfied. Our rooms were spotlessly clean and spacious. The beds were extremely comfortable and the sheets crisp and snowy white. All employees around the hotel are friendly and polite, and all (minor) issues were resolved quickly. The pool and hot tub are great for the kids, although not kept as clean off season as they were when we visited in the summer. Breakfast offers a good selection of items, both hot and cold, and snacks are available for sale at reception. The hotel offers a grocery shopping service and coin-operated laundry facilities which are very handy. All in all, a very good stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r147446799-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>147446799</t>
+  </si>
+  <si>
+    <t>12/14/2012</t>
+  </si>
+  <si>
+    <t>another stay</t>
+  </si>
+  <si>
+    <t>This was my 5th stay at this hotel this year [2012] and i have enjoyed all of the stays. The employees are nice, the rooms and grounds  are clean, the breakfast is good. and the location is very good.There are many restaurants in the area and  numerous shopping areas.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r141854759-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>141854759</t>
+  </si>
+  <si>
+    <t>10/02/2012</t>
+  </si>
+  <si>
+    <t>Close enough to Disney, Medieval Times but far enough away from the crowds!</t>
+  </si>
+  <si>
+    <t>Easy to get to off Riverside Freeway (hwy 91) just a few minutes north east of Disney (hwy 55), east of Medieval Times and all other Anaheim attractions. Great, safe and quiet neighbourhood. Walking distance to Starbucks, Target and very good restaurants. We stayed in a two bedroom suite, with a living and kitchen area between the two bedrooms. Beds were both small queens, bordering on doubles, and harder than most. Room was clean and quiet. Full kitchen with fridge, stove, microwave etc. Swimming pool is heated and gets very nicely warm by the sun as well. Hottub is a bit small, fitting 3 at best average side adults. There is a bbq in the courtyard for guests to use. Breakfast is average Marriott food, including make your own waffles, eggs, potatoes, yogurt, cereal, milk, coffee and more. Walking distance to Wood Ranch and Romano's Macaroni Grill, Target and Starbucks. Easy access to Hwy 91 gets you to wherever you want to go. Disney took us about 15 minutes to get to, Medieval Times took about 30 minutes. Check out prices on Priceline and other sites before booking.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Easy to get to off Riverside Freeway (hwy 91) just a few minutes north east of Disney (hwy 55), east of Medieval Times and all other Anaheim attractions. Great, safe and quiet neighbourhood. Walking distance to Starbucks, Target and very good restaurants. We stayed in a two bedroom suite, with a living and kitchen area between the two bedrooms. Beds were both small queens, bordering on doubles, and harder than most. Room was clean and quiet. Full kitchen with fridge, stove, microwave etc. Swimming pool is heated and gets very nicely warm by the sun as well. Hottub is a bit small, fitting 3 at best average side adults. There is a bbq in the courtyard for guests to use. Breakfast is average Marriott food, including make your own waffles, eggs, potatoes, yogurt, cereal, milk, coffee and more. Walking distance to Wood Ranch and Romano's Macaroni Grill, Target and Starbucks. Easy access to Hwy 91 gets you to wherever you want to go. Disney took us about 15 minutes to get to, Medieval Times took about 30 minutes. Check out prices on Priceline and other sites before booking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r141356043-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>141356043</t>
+  </si>
+  <si>
+    <t>09/26/2012</t>
+  </si>
+  <si>
+    <t>It's About the $$$ Not the Guests</t>
+  </si>
+  <si>
+    <t>I booked the room on 9-2-2012 for a stay on 9-23 (3 weeks later) using Marriott Rewards points. When we checked in and got to our room it was very hot (90 degree temperature the previous days which is very rare for that area.  I used to live less than a mile away so know this is unusual). There was a portable AC in the room.  I turned it on and set it to 60 degrees and high fan and then went to turn on the thermostat for the regular AC and it was dead.  I asked an employee in the hallway what was wrong with the hotel air conditioning and he said it was out, leading me to believe this was true for the entire building. I noticed the temperature on the thermostat in the hallway read 81 degrees.  Later I noticed that none of the other rooms were vented for portable AC units and concluded that it was only for that room.  Asking for another room at the front desk I was told that the hotel was full and there were none available.  Had I not been using Rewards points I would have gone elsewhere but you can't just take your Marriott points to another brand hotel so we were stuck.  I'm sure the General Manager wanted money from "Paying Guests" and knew he would be paid by Marriott for the points.  The room never got below the...I booked the room on 9-2-2012 for a stay on 9-23 (3 weeks later) using Marriott Rewards points. When we checked in and got to our room it was very hot (90 degree temperature the previous days which is very rare for that area.  I used to live less than a mile away so know this is unusual). There was a portable AC in the room.  I turned it on and set it to 60 degrees and high fan and then went to turn on the thermostat for the regular AC and it was dead.  I asked an employee in the hallway what was wrong with the hotel air conditioning and he said it was out, leading me to believe this was true for the entire building. I noticed the temperature on the thermostat in the hallway read 81 degrees.  Later I noticed that none of the other rooms were vented for portable AC units and concluded that it was only for that room.  Asking for another room at the front desk I was told that the hotel was full and there were none available.  Had I not been using Rewards points I would have gone elsewhere but you can't just take your Marriott points to another brand hotel so we were stuck.  I'm sure the General Manager wanted money from "Paying Guests" and knew he would be paid by Marriott for the points.  The room never got below the high eighties and the unit was noisy. I did an internet search and learned that it was designed to a single room up to 300 square feet.  It was not suited for a two room suite.The next morning, just before checking out, I met Mr. Lee, the head of engineering, he said, and he informed me that the AC unit had to be ordered from Texas and it would take 8 weeks to replace it.  I told him that the AC had been on all night set at 60 degrees and it was much hotter than in the hallway.  I asked him to verify that by coming to the room with me.  He said he was late to a meeting and it would have to wait.  I didn't believe him because if you are late to a meeting you aren't carrying a gallon jug of some chemical.I registered my complaint at the desk when I checked out and asked why they hadn't closed the room because of the heat.  She said it was closed but they opened it that night because the hotel was full.  Yeah, right!  The closed room has a portable AC in it?  But they only opened it that night?  I didn't believe her either.  I told her I had booked 3 weeks prior to arrival and was sure they weren't completely booked then, so why was I put in that room.  Her reply was she didn't block the rooms.The hotel is quite nice.  Employees are friendly, but obfuscate and deceive. I'm sure that is at the direction of the GM.  It would have been a very nice stay except one spends most time sleeping at a hotel and we couldn't do that with the AC making a racket and heat in the high eighties.If you are using Marriott Reward points go someplace else.  If you are charging to a credit card or paying cash and you get treated like this, tell them you are leaving and go someplace else.MoreShow less</t>
+  </si>
+  <si>
+    <t>JasonRobinson, Director of Sales at Residence Inn Anaheim Hills Yorba Linda, responded to this reviewResponded September 28, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2012</t>
+  </si>
+  <si>
+    <t>I booked the room on 9-2-2012 for a stay on 9-23 (3 weeks later) using Marriott Rewards points. When we checked in and got to our room it was very hot (90 degree temperature the previous days which is very rare for that area.  I used to live less than a mile away so know this is unusual). There was a portable AC in the room.  I turned it on and set it to 60 degrees and high fan and then went to turn on the thermostat for the regular AC and it was dead.  I asked an employee in the hallway what was wrong with the hotel air conditioning and he said it was out, leading me to believe this was true for the entire building. I noticed the temperature on the thermostat in the hallway read 81 degrees.  Later I noticed that none of the other rooms were vented for portable AC units and concluded that it was only for that room.  Asking for another room at the front desk I was told that the hotel was full and there were none available.  Had I not been using Rewards points I would have gone elsewhere but you can't just take your Marriott points to another brand hotel so we were stuck.  I'm sure the General Manager wanted money from "Paying Guests" and knew he would be paid by Marriott for the points.  The room never got below the...I booked the room on 9-2-2012 for a stay on 9-23 (3 weeks later) using Marriott Rewards points. When we checked in and got to our room it was very hot (90 degree temperature the previous days which is very rare for that area.  I used to live less than a mile away so know this is unusual). There was a portable AC in the room.  I turned it on and set it to 60 degrees and high fan and then went to turn on the thermostat for the regular AC and it was dead.  I asked an employee in the hallway what was wrong with the hotel air conditioning and he said it was out, leading me to believe this was true for the entire building. I noticed the temperature on the thermostat in the hallway read 81 degrees.  Later I noticed that none of the other rooms were vented for portable AC units and concluded that it was only for that room.  Asking for another room at the front desk I was told that the hotel was full and there were none available.  Had I not been using Rewards points I would have gone elsewhere but you can't just take your Marriott points to another brand hotel so we were stuck.  I'm sure the General Manager wanted money from "Paying Guests" and knew he would be paid by Marriott for the points.  The room never got below the high eighties and the unit was noisy. I did an internet search and learned that it was designed to a single room up to 300 square feet.  It was not suited for a two room suite.The next morning, just before checking out, I met Mr. Lee, the head of engineering, he said, and he informed me that the AC unit had to be ordered from Texas and it would take 8 weeks to replace it.  I told him that the AC had been on all night set at 60 degrees and it was much hotter than in the hallway.  I asked him to verify that by coming to the room with me.  He said he was late to a meeting and it would have to wait.  I didn't believe him because if you are late to a meeting you aren't carrying a gallon jug of some chemical.I registered my complaint at the desk when I checked out and asked why they hadn't closed the room because of the heat.  She said it was closed but they opened it that night because the hotel was full.  Yeah, right!  The closed room has a portable AC in it?  But they only opened it that night?  I didn't believe her either.  I told her I had booked 3 weeks prior to arrival and was sure they weren't completely booked then, so why was I put in that room.  Her reply was she didn't block the rooms.The hotel is quite nice.  Employees are friendly, but obfuscate and deceive. I'm sure that is at the direction of the GM.  It would have been a very nice stay except one spends most time sleeping at a hotel and we couldn't do that with the AC making a racket and heat in the high eighties.If you are using Marriott Reward points go someplace else.  If you are charging to a credit card or paying cash and you get treated like this, tell them you are leaving and go someplace else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r137118659-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>137118659</t>
+  </si>
+  <si>
+    <t>08/13/2012</t>
+  </si>
+  <si>
+    <t>A THIEF WORKS AT THIS HOTEL</t>
+  </si>
+  <si>
+    <t>On 8/3/2012 we checked into the Marriott Residence Inn Anaheim Hills @ 3:30pm.  At 4:00pm we went out front to meet relatives arriving from LAX.  Approx 25 min later we returned to our our room to find a female maintenance worker in the bedroom area.  Startled, she began rambling on about the drain needing fixed, while holding an air conditioning filter.  As she continued trying to convince us that the drain was backed up, I noticed my purse was not how I had left it.  My wallet was sticking half out and then I saw $30.00 lying atop our suitcase.  My purse had been left zippered shut when I left the room.  I called this to the attention of my husband, who then ordered the worker out of our room.  Checking the drain to find it working properly, we then called the front desk to complain.  Next my husband went down to speak to a mgr, who was surprised because this employee had been there 10 yrs.
+Mgmt conducted an investigation and concluded that the employee was in the wrong room to fix a drain problem.  She had no plumbing tools, though, only the filter.  We know she was caught in the middle of stealing from our property, but since we could not prove it, no action was taken by the manager.  Our biggest regret is that we did not call the police on the spot.  The DISHONEST EMPLOYEE is...On 8/3/2012 we checked into the Marriott Residence Inn Anaheim Hills @ 3:30pm.  At 4:00pm we went out front to meet relatives arriving from LAX.  Approx 25 min later we returned to our our room to find a female maintenance worker in the bedroom area.  Startled, she began rambling on about the drain needing fixed, while holding an air conditioning filter.  As she continued trying to convince us that the drain was backed up, I noticed my purse was not how I had left it.  My wallet was sticking half out and then I saw $30.00 lying atop our suitcase.  My purse had been left zippered shut when I left the room.  I called this to the attention of my husband, who then ordered the worker out of our room.  Checking the drain to find it working properly, we then called the front desk to complain.  Next my husband went down to speak to a mgr, who was surprised because this employee had been there 10 yrs.Mgmt conducted an investigation and concluded that the employee was in the wrong room to fix a drain problem.  She had no plumbing tools, though, only the filter.  We know she was caught in the middle of stealing from our property, but since we could not prove it, no action was taken by the manager.  Our biggest regret is that we did not call the police on the spot.  The DISHONEST EMPLOYEE is still STILL EMPLOYED there.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>JasonRobinson, Director of Sales at Residence Inn Anaheim Hills Yorba Linda, responded to this reviewResponded August 22, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2012</t>
+  </si>
+  <si>
+    <t>On 8/3/2012 we checked into the Marriott Residence Inn Anaheim Hills @ 3:30pm.  At 4:00pm we went out front to meet relatives arriving from LAX.  Approx 25 min later we returned to our our room to find a female maintenance worker in the bedroom area.  Startled, she began rambling on about the drain needing fixed, while holding an air conditioning filter.  As she continued trying to convince us that the drain was backed up, I noticed my purse was not how I had left it.  My wallet was sticking half out and then I saw $30.00 lying atop our suitcase.  My purse had been left zippered shut when I left the room.  I called this to the attention of my husband, who then ordered the worker out of our room.  Checking the drain to find it working properly, we then called the front desk to complain.  Next my husband went down to speak to a mgr, who was surprised because this employee had been there 10 yrs.
+Mgmt conducted an investigation and concluded that the employee was in the wrong room to fix a drain problem.  She had no plumbing tools, though, only the filter.  We know she was caught in the middle of stealing from our property, but since we could not prove it, no action was taken by the manager.  Our biggest regret is that we did not call the police on the spot.  The DISHONEST EMPLOYEE is...On 8/3/2012 we checked into the Marriott Residence Inn Anaheim Hills @ 3:30pm.  At 4:00pm we went out front to meet relatives arriving from LAX.  Approx 25 min later we returned to our our room to find a female maintenance worker in the bedroom area.  Startled, she began rambling on about the drain needing fixed, while holding an air conditioning filter.  As she continued trying to convince us that the drain was backed up, I noticed my purse was not how I had left it.  My wallet was sticking half out and then I saw $30.00 lying atop our suitcase.  My purse had been left zippered shut when I left the room.  I called this to the attention of my husband, who then ordered the worker out of our room.  Checking the drain to find it working properly, we then called the front desk to complain.  Next my husband went down to speak to a mgr, who was surprised because this employee had been there 10 yrs.Mgmt conducted an investigation and concluded that the employee was in the wrong room to fix a drain problem.  She had no plumbing tools, though, only the filter.  We know she was caught in the middle of stealing from our property, but since we could not prove it, no action was taken by the manager.  Our biggest regret is that we did not call the police on the spot.  The DISHONEST EMPLOYEE is still STILL EMPLOYED there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r136783561-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>136783561</t>
+  </si>
+  <si>
+    <t>08/09/2012</t>
+  </si>
+  <si>
+    <t>Good option away from the tourists</t>
+  </si>
+  <si>
+    <t>Overall, this place was pretty good.  The rooms were very clean, the beds were comfortable and the staff was very friendly.  The breakfast area does get very crowded in the mornings, so go early!  The free internet worked really well.  This property isn't as updated as other residence inns, but it is also a lot cheaper.  We have stayed at the residence inn by Disneyland before and it was loud and crowded; this hotel was very quiet and relaxing.  Great shopping and restaurants nearby.  A good choice when visiting Orange County.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r136003482-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>136003482</t>
+  </si>
+  <si>
+    <t>08/01/2012</t>
+  </si>
+  <si>
+    <t>Best of the best!</t>
+  </si>
+  <si>
+    <t>Thank you for your attentive customer service in accomodating so many family members and all our children for the most memborable week of family reunion that we could have hoped for.  Your staff was great, your rooms clean and comfortable, your breakfast was delicious and bountiful.   We all had a blast and big kudos to your great hotel!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r132415966-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>132415966</t>
+  </si>
+  <si>
+    <t>06/20/2012</t>
+  </si>
+  <si>
+    <t>Great alternative for a disney stay</t>
+  </si>
+  <si>
+    <t>We decided to get away from the disney corridor hotels so we looked a little further out and we struck gold with this hotel . Its only 10 minutes to Disney and the parking at the hotel is free . The property is clean , the free internet worked great for us on the first floor , the staff were great . There is ample shopping and restaurants within walking distance . The free breakfast was Ok nothing special , but hey its free. The general area around the hotel is very nice and we felt safe enough to walk to the store at night . Overall a great place to stay for a family of four . We will be back .MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 25, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2012</t>
+  </si>
+  <si>
+    <t>We decided to get away from the disney corridor hotels so we looked a little further out and we struck gold with this hotel . Its only 10 minutes to Disney and the parking at the hotel is free . The property is clean , the free internet worked great for us on the first floor , the staff were great . There is ample shopping and restaurants within walking distance . The free breakfast was Ok nothing special , but hey its free. The general area around the hotel is very nice and we felt safe enough to walk to the store at night . Overall a great place to stay for a family of four . We will be back .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r132370208-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>132370208</t>
+  </si>
+  <si>
+    <t>Great location and value</t>
+  </si>
+  <si>
+    <t>Nice suite and grounds with great location, excellent service and good rates. Enjoyed stay with grounds well kept, staff helpful.  Fantastic convenience to restaurants, shops, market, gas stations, etc. Wifi reliable, nice kitchen. All around nice stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r131165590-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>131165590</t>
+  </si>
+  <si>
+    <t>06/02/2012</t>
+  </si>
+  <si>
+    <t>Below Average for a Marriott Property</t>
+  </si>
+  <si>
+    <t>As with essentially every other hotel within the Marriott family in which I have stayed, the room was very clean and the staff was generally professional.  But the wifi didn't work during my stay.  From the desk clerk's reaction to my inquiry, I surmised that this was a common occurrence.  Because my room had no hardwire service, there was little the desk clerk could do for me.  Without internet service, it was difficult to accomplish what I needed for the business purpose of my trip.  The rooms seem dated and worn, especially the kitchen.  The breakfast, however, was very good.  This hotel is in a good location, just off the 91 freeway and adjacent to a shopping center with a wide range of restaurant choicesMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>JasonRobinson, Director of Sales at Residence Inn Anaheim Hills Yorba Linda, responded to this reviewResponded June 5, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2012</t>
+  </si>
+  <si>
+    <t>As with essentially every other hotel within the Marriott family in which I have stayed, the room was very clean and the staff was generally professional.  But the wifi didn't work during my stay.  From the desk clerk's reaction to my inquiry, I surmised that this was a common occurrence.  Because my room had no hardwire service, there was little the desk clerk could do for me.  Without internet service, it was difficult to accomplish what I needed for the business purpose of my trip.  The rooms seem dated and worn, especially the kitchen.  The breakfast, however, was very good.  This hotel is in a good location, just off the 91 freeway and adjacent to a shopping center with a wide range of restaurant choicesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r130412008-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>130412008</t>
+  </si>
+  <si>
+    <t>05/22/2012</t>
+  </si>
+  <si>
+    <t>Not bad</t>
+  </si>
+  <si>
+    <t>Nice location, but the hotel is a little tired and the rooms could do with a deep clean rather than just a surface clean. The clock radio was broken in one room and the shower and toilet were blocked in one of the bathrooms. Having said that, when we called up reception to tell them, someone came up straight away to sort it. Breakfast was virtually the same every day (except the hot items which were swapped sausage for bacon, etc.), and could have done with a lot more variety re cereals (does anyone really eat Fruit Loops still?!), and breads / pastries. Pool area was nice. Rooms are a good size and beds were comfortable.I would stay here again, if only not to be in the chaos of the theme park areas.MoreShow less</t>
+  </si>
+  <si>
+    <t>JasonRobinson, Director of Sales at Residence Inn Anaheim Hills Yorba Linda, responded to this reviewResponded May 30, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2012</t>
+  </si>
+  <si>
+    <t>Nice location, but the hotel is a little tired and the rooms could do with a deep clean rather than just a surface clean. The clock radio was broken in one room and the shower and toilet were blocked in one of the bathrooms. Having said that, when we called up reception to tell them, someone came up straight away to sort it. Breakfast was virtually the same every day (except the hot items which were swapped sausage for bacon, etc.), and could have done with a lot more variety re cereals (does anyone really eat Fruit Loops still?!), and breads / pastries. Pool area was nice. Rooms are a good size and beds were comfortable.I would stay here again, if only not to be in the chaos of the theme park areas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r129535396-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>129535396</t>
+  </si>
+  <si>
+    <t>05/07/2012</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Very good hotel, nice location and neat. Stayed a night with my husband and kids in March. We checked out forgetting our 3 jackets in the closet. When we called in the evening to report that, we were told they could not be found. After we got home, we decided to call once more for the forgotten items. They had been found and the hotel shipped the items to us via Fedex.We will visit again.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r127479331-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>127479331</t>
+  </si>
+  <si>
+    <t>04/08/2012</t>
+  </si>
+  <si>
+    <t>Clean, comfortable place</t>
+  </si>
+  <si>
+    <t>We stayed here March 26 for 5 nights. There was a little confusion while checking in because of the promo rate I was using, but it was quickly resolved in a way that left both sides happy.  The rooms are very clean, the hotel is a little dated but kept up very nicely, and the proximatety to stores, restaurants, movie theatre, and gym is unbeatable. All literally in walking distance!  All of the staff are very friendly and seem to go the extra mile to make you happy.  My only complaint is one that's out of their control. That would be the on going freeway construction that makes for an extra long detour to head west on the 91. Going to Disneyland should have been a short 15 to 20 minute trip, but we always had to add 7 or 8 more minutes because of the detour. All in all though, I highly recommend this property to anyone whether business or vacation. Oh, they also shipped two mexican poncho's we had accidently left behind free of charge. Actually we should have been the ones paying the freight, but because the first person we talked to on the phone said they could ship it for free (he's new) they honored it. Like I said, they go the extra mile to make you happy!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here March 26 for 5 nights. There was a little confusion while checking in because of the promo rate I was using, but it was quickly resolved in a way that left both sides happy.  The rooms are very clean, the hotel is a little dated but kept up very nicely, and the proximatety to stores, restaurants, movie theatre, and gym is unbeatable. All literally in walking distance!  All of the staff are very friendly and seem to go the extra mile to make you happy.  My only complaint is one that's out of their control. That would be the on going freeway construction that makes for an extra long detour to head west on the 91. Going to Disneyland should have been a short 15 to 20 minute trip, but we always had to add 7 or 8 more minutes because of the detour. All in all though, I highly recommend this property to anyone whether business or vacation. Oh, they also shipped two mexican poncho's we had accidently left behind free of charge. Actually we should have been the ones paying the freight, but because the first person we talked to on the phone said they could ship it for free (he's new) they honored it. Like I said, they go the extra mile to make you happy!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r124693617-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>124693617</t>
+  </si>
+  <si>
+    <t>02/16/2012</t>
+  </si>
+  <si>
+    <t>Very comfortable</t>
+  </si>
+  <si>
+    <t>I stayed there for 2 nights in February on a business trip. The room was extra large with fully equipped kitchen. I really enjoyed extra space and extra comfort and a nice view from 2 windows in my 4th floor room. Breakfast was good too. The only thing I did not like was a noisy AC/heater unit. I had to turn it off and used an extra blanket. Otherwise, it was a very comfortable stay.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r124319420-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>124319420</t>
+  </si>
+  <si>
+    <t>02/08/2012</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>Our team stayed there for the weekend.  The parents raved about the rooms.  We will definitely stay there again when we play in Anaheim.  The staff was nice and welcoming.  The group sales director did a great job arranging for our group stay.  The check in was efficient.  The rooms were clean and the location is perfect next to shopping and restaurants.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r122417684-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>122417684</t>
+  </si>
+  <si>
+    <t>01/02/2012</t>
+  </si>
+  <si>
+    <t>Great Value and Location</t>
+  </si>
+  <si>
+    <t>I am a frequent business traveler and use the Marriott brands almost exclusively. I was happy to book this hotel from December 26-30, 2011 during my family vacation to Southern California. As expected, the staff was friendly and efficient at check in and room 1402 (one bedroom suite) was clean and perfect for our needs. The kitchen was helpful in keeping the family fed throughout our stay, while the pool, spa, and sport court were perfect for the kids to expend energy after dinner each night. The free breakfast was nice and facilitated a quick start to each day, and the hide-a-bed was comfortable for our daughters each night. The hotel is located about 20 minutes from Knotts or Disneyland and has excellent restaurants nearby. I was very disappointed to see that the Anaheim Hills Chevy's had recently closed however. Great hotel and great brand. You'll never go wrong!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>I am a frequent business traveler and use the Marriott brands almost exclusively. I was happy to book this hotel from December 26-30, 2011 during my family vacation to Southern California. As expected, the staff was friendly and efficient at check in and room 1402 (one bedroom suite) was clean and perfect for our needs. The kitchen was helpful in keeping the family fed throughout our stay, while the pool, spa, and sport court were perfect for the kids to expend energy after dinner each night. The free breakfast was nice and facilitated a quick start to each day, and the hide-a-bed was comfortable for our daughters each night. The hotel is located about 20 minutes from Knotts or Disneyland and has excellent restaurants nearby. I was very disappointed to see that the Anaheim Hills Chevy's had recently closed however. Great hotel and great brand. You'll never go wrong!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r117101823-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>117101823</t>
+  </si>
+  <si>
+    <t>08/22/2011</t>
+  </si>
+  <si>
+    <t>Very good for our needs</t>
+  </si>
+  <si>
+    <t>My kids and I stayed here last week and overall were very satisfied with our stay. The suite was spacious and well equipped, with two double bedrooms, two bathrooms, kitchen/diner and lounge area. The kids loved the fact that there was a tv in each of the three main rooms! Plenty of closet and drawer space and plenty of hangers which is always a good thing. Fridge, oven, microwave, dishwasher, etc for easy living with good, efficient maid service daily. The pool area is relatively small but very clean and well maintained, with a nice little jacuzzi as an added bonus. Very convenient mall right across the street with cinema, fantastic supermarket, petrol station, restaurants, and clothes shops.Beware though, this is not a Disney location and that part of Anaheim is a $40 taxi ride away if you haven't got a car.The only thing that disappointed us was the breakfast selection. The hot food was very average, so I would suggest either making your own waffle or sticking to the fruit, cereal or pastries.All in all, a very pleasant stay,MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>My kids and I stayed here last week and overall were very satisfied with our stay. The suite was spacious and well equipped, with two double bedrooms, two bathrooms, kitchen/diner and lounge area. The kids loved the fact that there was a tv in each of the three main rooms! Plenty of closet and drawer space and plenty of hangers which is always a good thing. Fridge, oven, microwave, dishwasher, etc for easy living with good, efficient maid service daily. The pool area is relatively small but very clean and well maintained, with a nice little jacuzzi as an added bonus. Very convenient mall right across the street with cinema, fantastic supermarket, petrol station, restaurants, and clothes shops.Beware though, this is not a Disney location and that part of Anaheim is a $40 taxi ride away if you haven't got a car.The only thing that disappointed us was the breakfast selection. The hot food was very average, so I would suggest either making your own waffle or sticking to the fruit, cereal or pastries.All in all, a very pleasant stay,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r117086945-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>117086945</t>
+  </si>
+  <si>
+    <t>NiceStayInOrangeCounty</t>
+  </si>
+  <si>
+    <t>We (my wife, daughter and myself) just returned from a week’s stay (vacation) at the Residence Inn  Anaheim Hills-Yorba Linda. Stayed in a two bedroom unit+sitting area + kitchenette, comfortable &amp; relatively spacious for 3 people (had two bathrooms)Overall the property is clean, staff was helpful &amp; friendly, good breakfast in the morning with hot items, nice pool, plenty of parking.. Hotel is right off 91 freeway and is about 20 minute drive to Disneyland or Knott’s Berry.L.A. city (we drove in 3 times) was an hour and a half each way, not so much the distance but due to the terrible road congestion in the L.A.area. Be mindful of that if you’re planning to go into the cityWould recommend this property for stays in Orange County.MoreShow less</t>
+  </si>
+  <si>
+    <t>We (my wife, daughter and myself) just returned from a week’s stay (vacation) at the Residence Inn  Anaheim Hills-Yorba Linda. Stayed in a two bedroom unit+sitting area + kitchenette, comfortable &amp; relatively spacious for 3 people (had two bathrooms)Overall the property is clean, staff was helpful &amp; friendly, good breakfast in the morning with hot items, nice pool, plenty of parking.. Hotel is right off 91 freeway and is about 20 minute drive to Disneyland or Knott’s Berry.L.A. city (we drove in 3 times) was an hour and a half each way, not so much the distance but due to the terrible road congestion in the L.A.area. Be mindful of that if you’re planning to go into the cityWould recommend this property for stays in Orange County.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r116594422-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>116594422</t>
+  </si>
+  <si>
+    <t>08/11/2011</t>
+  </si>
+  <si>
+    <t>Awesome retail next door, but not close to Disneyland if that's what you want</t>
+  </si>
+  <si>
+    <t>Good for an extended stay as it is cheaper that the other Residence Inns in the area.  It is located about 20 minutes from Disneyland and you definitely need a car to be out here.  There is a huge shopping center next door including a Pavilion grocery store, a Petco, a Target, many restaurants including a Macaroni Grill and a fantastic burger restaurant called Islands.   The complex has a small, busy pool.  The included breakfast is OK but stops early on the nose at 9:30.  Most people came and carried stuff back to their rooms since they have kitchenettes.  The staff was very nice and the rooms were generally quiet and comfortable plus it is pet friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>Good for an extended stay as it is cheaper that the other Residence Inns in the area.  It is located about 20 minutes from Disneyland and you definitely need a car to be out here.  There is a huge shopping center next door including a Pavilion grocery store, a Petco, a Target, many restaurants including a Macaroni Grill and a fantastic burger restaurant called Islands.   The complex has a small, busy pool.  The included breakfast is OK but stops early on the nose at 9:30.  Most people came and carried stuff back to their rooms since they have kitchenettes.  The staff was very nice and the rooms were generally quiet and comfortable plus it is pet friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r115466956-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>115466956</t>
+  </si>
+  <si>
+    <t>07/17/2011</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>Pros:Large suitesGreat pool areaGood serviceCons:Food was not that greatRooms are not as nice as some other suite hotelsWalls are thin</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r115357083-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>115357083</t>
+  </si>
+  <si>
+    <t>07/14/2011</t>
+  </si>
+  <si>
+    <t>Perfect accommodations for family</t>
+  </si>
+  <si>
+    <t>We chose this hotel while visiting Disneyland for 2 days and were pleasantly surprised at the location, layout of rooms, and cleanliness.  Would highly recommnend.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r115170963-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>115170963</t>
+  </si>
+  <si>
+    <t>07/08/2011</t>
+  </si>
+  <si>
+    <t>Absolutely satisfied with this hotel!</t>
+  </si>
+  <si>
+    <t>Our family of four stayed here for four nights during the first week of July and were completely satisfied.  The one bedroom suite provided separate space for the teenagers and the parents and both the bed and sofa-sleeper were comfortable.  The kitchen was well-stocked with dishes and we appreciated that convenience for simple breakfasts and late-night snacks.  Having a clean guest laundry facility was a bonus.  The facility was very clean and the pool area was comfortable and relaxing.  Everyone on staff  was very friendly and polite, and housekeeping was excellent.  This hotel was, for us, well-situated as on different days we went to Corona in Riverside county, to Diamond Bar, Los Angeles and Anaheim - sometimes two in the same day!  There were good restaurants and a shopping center nearby and we took advantage of the nearby movie theater as well.   We'd definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our family of four stayed here for four nights during the first week of July and were completely satisfied.  The one bedroom suite provided separate space for the teenagers and the parents and both the bed and sofa-sleeper were comfortable.  The kitchen was well-stocked with dishes and we appreciated that convenience for simple breakfasts and late-night snacks.  Having a clean guest laundry facility was a bonus.  The facility was very clean and the pool area was comfortable and relaxing.  Everyone on staff  was very friendly and polite, and housekeeping was excellent.  This hotel was, for us, well-situated as on different days we went to Corona in Riverside county, to Diamond Bar, Los Angeles and Anaheim - sometimes two in the same day!  There were good restaurants and a shopping center nearby and we took advantage of the nearby movie theater as well.   We'd definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r110920270-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>110920270</t>
+  </si>
+  <si>
+    <t>06/01/2011</t>
+  </si>
+  <si>
+    <t>great customer service</t>
+  </si>
+  <si>
+    <t>nice hotel, not so good location, great customer service, lowest room rate in LA area</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r109409135-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>109409135</t>
+  </si>
+  <si>
+    <t>05/22/2011</t>
+  </si>
+  <si>
+    <t>Excellent Accommodations and Customer Service</t>
+  </si>
+  <si>
+    <t>Recently my brother and his extended family came out to Anaheim Hills for my daughter's wedding.  Jason Robinson, the Property Sales Manager at the Anaheim Hills Residence Inn,  was a great help in finding the best room reservations possible for this large group.  The rooms were great for the family; clean and spacious with a kitchen and living area.   The family really enjoyed the pool and breakfast.  They also found the hotel conveniently located to the shopping center and restaurants nearby.   My family said that they would love to stay there again on their next visit.I personally would like to thank Jason for all his help with my family's stay, his warm attitude and great customer support.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>Recently my brother and his extended family came out to Anaheim Hills for my daughter's wedding.  Jason Robinson, the Property Sales Manager at the Anaheim Hills Residence Inn,  was a great help in finding the best room reservations possible for this large group.  The rooms were great for the family; clean and spacious with a kitchen and living area.   The family really enjoyed the pool and breakfast.  They also found the hotel conveniently located to the shopping center and restaurants nearby.   My family said that they would love to stay there again on their next visit.I personally would like to thank Jason for all his help with my family's stay, his warm attitude and great customer support.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r101544204-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>101544204</t>
+  </si>
+  <si>
+    <t>03/25/2011</t>
+  </si>
+  <si>
+    <t>Great with emergency reservations</t>
+  </si>
+  <si>
+    <t>A medical emergency in the middle of a move necesitated finding a handicapped room for 2 adults and 2 cats for a long term stay. Not an easy task during spring break.  Jason went out of his way to watch for a cancellation so we could move in when needed.</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r87066029-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>87066029</t>
+  </si>
+  <si>
+    <t>11/14/2010</t>
+  </si>
+  <si>
+    <t>Excellent Choice in Anaheim Hills</t>
+  </si>
+  <si>
+    <t>I have stayed here twice on business in Corona, and will return again. Against traffic, it was an easy 10 mi commute. The rooms are spacious (with full kitchen), clean, recently renovated with flat screen TV's, and the location can't be beat - next to a Pavillions (Safeway) grocery, Target, and numerous good restaurants nearby (Wood Grill, Rosines, Wild Artichoke, Yves). Plenty of parking.  Free internet was slow. Complimentary breakfast was good, but area is small so may have to take it back to room.  The location is pet-friendly, but did not notice any typical pet problems. It is non-smoking, but people were smoking just outside the main lobby. The only negative is you have to go outside to get to the clubhouse, where front desk and breakfast is located,MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>I have stayed here twice on business in Corona, and will return again. Against traffic, it was an easy 10 mi commute. The rooms are spacious (with full kitchen), clean, recently renovated with flat screen TV's, and the location can't be beat - next to a Pavillions (Safeway) grocery, Target, and numerous good restaurants nearby (Wood Grill, Rosines, Wild Artichoke, Yves). Plenty of parking.  Free internet was slow. Complimentary breakfast was good, but area is small so may have to take it back to room.  The location is pet-friendly, but did not notice any typical pet problems. It is non-smoking, but people were smoking just outside the main lobby. The only negative is you have to go outside to get to the clubhouse, where front desk and breakfast is located,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r77692569-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>77692569</t>
+  </si>
+  <si>
+    <t>08/31/2010</t>
+  </si>
+  <si>
+    <t>Tremendous Bang for the Buck- Great front desk help</t>
+  </si>
+  <si>
+    <t>When you only pay $100 a night, you don't expect the Westin, but I was pleasantly surprised at what we did get for $100: clean relatively new room, firm comfortable bed, full kitchen, full size fridge, free parking, free internet, free breakfast, pool, jacuzzi, basketball court, and a very pleasant and helpful staff (particularly, Michelle &amp; Courtney). And none of those awful resort fee charges I just paid somewhere else (I will take every opportunity to complain about resort fee charges). This was the perfect location for my son's tennis tournament with easy access to shopping, Starbucks, movies and restaurants.  Two complaints: (1)  that there were no pool towels at the pool either night and the pool towels were pretty smal and threadbare; (2) while watching CNN in the breakfast lounge with other guests, a hotel "engineer" came in and turned the channel (to ABC) without asking. When I complained he said he was putting on the local news (ABC wasn't showing the local news- it was showing This Week). He also turned off the volume over our objection. His rudeness surprised me and we left. But, other than that, this hote was a great deal.  I still gave the hotel 5 stars (on a sliding scale) despite my complaints beacuse of the tremendous bang for the buck and because of  Michelle &amp; Courtney at the front desk. I rarely go wrong with Marriot. Thanks for a great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>When you only pay $100 a night, you don't expect the Westin, but I was pleasantly surprised at what we did get for $100: clean relatively new room, firm comfortable bed, full kitchen, full size fridge, free parking, free internet, free breakfast, pool, jacuzzi, basketball court, and a very pleasant and helpful staff (particularly, Michelle &amp; Courtney). And none of those awful resort fee charges I just paid somewhere else (I will take every opportunity to complain about resort fee charges). This was the perfect location for my son's tennis tournament with easy access to shopping, Starbucks, movies and restaurants.  Two complaints: (1)  that there were no pool towels at the pool either night and the pool towels were pretty smal and threadbare; (2) while watching CNN in the breakfast lounge with other guests, a hotel "engineer" came in and turned the channel (to ABC) without asking. When I complained he said he was putting on the local news (ABC wasn't showing the local news- it was showing This Week). He also turned off the volume over our objection. His rudeness surprised me and we left. But, other than that, this hote was a great deal.  I still gave the hotel 5 stars (on a sliding scale) despite my complaints beacuse of the tremendous bang for the buck and because of  Michelle &amp; Courtney at the front desk. I rarely go wrong with Marriot. Thanks for a great stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r69582680-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>69582680</t>
+  </si>
+  <si>
+    <t>07/03/2010</t>
+  </si>
+  <si>
+    <t>great hotel</t>
+  </si>
+  <si>
+    <t>A great hotel in a great pretty location with a mountain view right out side your wimdow .great shopping at the Brea mall a few miles away and dont forget to visit the Richard Nixon Libray.front desk very friendly and helpful makes you feel like family.Free breakfast better then most.very quiet I didnt use the kitchen but having a little living room was very nice.</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r11292949-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>11292949</t>
+  </si>
+  <si>
+    <t>12/06/2007</t>
+  </si>
+  <si>
+    <t>Not good for business travel</t>
+  </si>
+  <si>
+    <t>It's OK property, a typical Residence Inn.  My biggest complaint is that their slow web access.  Can't expect business people to work effectively when you have dial up speed "high speed" internet access.  I had complained to management last time I stayed here, and no change has been made.And, their soap is so difficult to open up!</t>
+  </si>
+  <si>
+    <t>December 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r10443536-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>10443536</t>
+  </si>
+  <si>
+    <t>10/30/2007</t>
+  </si>
+  <si>
+    <t>Quality hotel, great for business or leisure</t>
+  </si>
+  <si>
+    <t>The Marriott Residence Inn in Anaheim Hills is a nice property.  It is newer and while the rooms are not lavish, they are quality Residence Inn style.  Lanscaping is nice and the staff is very friendly and helpful.   
+I booked through Marriott's website and requested an upgrade if it was available.  I booked a Studio unit and they upgraded us to a 2 bedroom unit which had a living, dining room, full kitchen, two bedrooms and two baths.  The rooms were clean, had the normal in-room amenites (ironing board, hairdryer, dataport, etc) as well as coffee/tea, popcorn.  The Kitchen had a full size fridge, dishwasher, stove, microwave and the necessary utensils.  
+They serve a full breakfast in the morning (7am-10am), consisting of eggs, bacon, potatoes, oatmeal, waffles, fruits, yogurt, cereals, donuts, pastries, juices, coffee, etc.   Makes for a great start in the morning.
+At the center of the complex is a sports court and pool.  
+The hotel is next to several restaurants, a movie theater and retail stores if you need anything (Mervyn's, Tuesday Morning, Target, etc).  It's about a mile from highway with easy on/off access.
+I have stayed at this hotel several times while visiting nearby family.  I thought about trying something new (Ayres), but saw mixed reviews.  I am glad I stayed at the Residence Inn and they have won my repeat business with this last stay.  The friendly and responsive staff,  service, location,  family friendly rooms...The Marriott Residence Inn in Anaheim Hills is a nice property.  It is newer and while the rooms are not lavish, they are quality Residence Inn style.  Lanscaping is nice and the staff is very friendly and helpful.   I booked through Marriott's website and requested an upgrade if it was available.  I booked a Studio unit and they upgraded us to a 2 bedroom unit which had a living, dining room, full kitchen, two bedrooms and two baths.  The rooms were clean, had the normal in-room amenites (ironing board, hairdryer, dataport, etc) as well as coffee/tea, popcorn.  The Kitchen had a full size fridge, dishwasher, stove, microwave and the necessary utensils.  They serve a full breakfast in the morning (7am-10am), consisting of eggs, bacon, potatoes, oatmeal, waffles, fruits, yogurt, cereals, donuts, pastries, juices, coffee, etc.   Makes for a great start in the morning.At the center of the complex is a sports court and pool.  The hotel is next to several restaurants, a movie theater and retail stores if you need anything (Mervyn's, Tuesday Morning, Target, etc).  It's about a mile from highway with easy on/off access.I have stayed at this hotel several times while visiting nearby family.  I thought about trying something new (Ayres), but saw mixed reviews.  I am glad I stayed at the Residence Inn and they have won my repeat business with this last stay.  The friendly and responsive staff,  service, location,  family friendly rooms and atmosphere make this a hotel worth staying at!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2007</t>
+  </si>
+  <si>
+    <t>The Marriott Residence Inn in Anaheim Hills is a nice property.  It is newer and while the rooms are not lavish, they are quality Residence Inn style.  Lanscaping is nice and the staff is very friendly and helpful.   
+I booked through Marriott's website and requested an upgrade if it was available.  I booked a Studio unit and they upgraded us to a 2 bedroom unit which had a living, dining room, full kitchen, two bedrooms and two baths.  The rooms were clean, had the normal in-room amenites (ironing board, hairdryer, dataport, etc) as well as coffee/tea, popcorn.  The Kitchen had a full size fridge, dishwasher, stove, microwave and the necessary utensils.  
+They serve a full breakfast in the morning (7am-10am), consisting of eggs, bacon, potatoes, oatmeal, waffles, fruits, yogurt, cereals, donuts, pastries, juices, coffee, etc.   Makes for a great start in the morning.
+At the center of the complex is a sports court and pool.  
+The hotel is next to several restaurants, a movie theater and retail stores if you need anything (Mervyn's, Tuesday Morning, Target, etc).  It's about a mile from highway with easy on/off access.
+I have stayed at this hotel several times while visiting nearby family.  I thought about trying something new (Ayres), but saw mixed reviews.  I am glad I stayed at the Residence Inn and they have won my repeat business with this last stay.  The friendly and responsive staff,  service, location,  family friendly rooms...The Marriott Residence Inn in Anaheim Hills is a nice property.  It is newer and while the rooms are not lavish, they are quality Residence Inn style.  Lanscaping is nice and the staff is very friendly and helpful.   I booked through Marriott's website and requested an upgrade if it was available.  I booked a Studio unit and they upgraded us to a 2 bedroom unit which had a living, dining room, full kitchen, two bedrooms and two baths.  The rooms were clean, had the normal in-room amenites (ironing board, hairdryer, dataport, etc) as well as coffee/tea, popcorn.  The Kitchen had a full size fridge, dishwasher, stove, microwave and the necessary utensils.  They serve a full breakfast in the morning (7am-10am), consisting of eggs, bacon, potatoes, oatmeal, waffles, fruits, yogurt, cereals, donuts, pastries, juices, coffee, etc.   Makes for a great start in the morning.At the center of the complex is a sports court and pool.  The hotel is next to several restaurants, a movie theater and retail stores if you need anything (Mervyn's, Tuesday Morning, Target, etc).  It's about a mile from highway with easy on/off access.I have stayed at this hotel several times while visiting nearby family.  I thought about trying something new (Ayres), but saw mixed reviews.  I am glad I stayed at the Residence Inn and they have won my repeat business with this last stay.  The friendly and responsive staff,  service, location,  family friendly rooms and atmosphere make this a hotel worth staying at!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r8022940-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>8022940</t>
+  </si>
+  <si>
+    <t>06/27/2007</t>
+  </si>
+  <si>
+    <t>Neat hotel</t>
+  </si>
+  <si>
+    <t>Very neat hotel, pleasant staff, not too much room though for the breakfast area.the room was a good size, and a very very comfortable bed, like with any other Marriotts...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r1364297-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>1364297</t>
+  </si>
+  <si>
+    <t>09/23/2003</t>
+  </si>
+  <si>
+    <t>Nice hotel, things to do nearby</t>
+  </si>
+  <si>
+    <t>We were visiting family in Yorba Linda, CA and found the Residence Inn a very nice place to stay. Unlike the older Residence Inns, this newer property has interior rooms without compromising the Studio/Suite space. -They have the standard Residence Inn amenities, pool, sports court, social hour, breakfast. Rooms have kitchens, separate living and sleeping areas. Pets are allowed at the hotel. The staff was very nice, they extended early check in to us and did their best to accomodate our requests. When we asked for extra pillows they made sure we were taken care of. The hotel is in a nice area, there are movie theatres, a small shopping area (Target, Pier One, Mervyns, etc) and restaurants across the street. While our stay was short we thought the hotel was very nice, the staff was friendly, the rates were reasonable, the breakfast was very abundant and we would definitely return there when visiting family again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were visiting family in Yorba Linda, CA and found the Residence Inn a very nice place to stay. Unlike the older Residence Inns, this newer property has interior rooms without compromising the Studio/Suite space. -They have the standard Residence Inn amenities, pool, sports court, social hour, breakfast. Rooms have kitchens, separate living and sleeping areas. Pets are allowed at the hotel. The staff was very nice, they extended early check in to us and did their best to accomodate our requests. When we asked for extra pillows they made sure we were taken care of. The hotel is in a nice area, there are movie theatres, a small shopping area (Target, Pier One, Mervyns, etc) and restaurants across the street. While our stay was short we thought the hotel was very nice, the staff was friendly, the rates were reasonable, the breakfast was very abundant and we would definitely return there when visiting family again.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2975,7051 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>100</v>
+      </c>
+      <c r="X8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" t="s">
+        <v>117</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>118</v>
+      </c>
+      <c r="X10" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>126</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>127</v>
+      </c>
+      <c r="X11" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L12" t="s">
+        <v>134</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>135</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" t="s">
+        <v>140</v>
+      </c>
+      <c r="L13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>142</v>
+      </c>
+      <c r="O13" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>143</v>
+      </c>
+      <c r="X13" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" t="s">
+        <v>149</v>
+      </c>
+      <c r="L14" t="s">
+        <v>150</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>142</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>151</v>
+      </c>
+      <c r="X14" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" t="s">
+        <v>156</v>
+      </c>
+      <c r="K15" t="s">
+        <v>157</v>
+      </c>
+      <c r="L15" t="s">
+        <v>158</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>99</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>151</v>
+      </c>
+      <c r="X15" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>161</v>
+      </c>
+      <c r="J16" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" t="s">
+        <v>164</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>99</v>
+      </c>
+      <c r="O16" t="s">
+        <v>165</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>151</v>
+      </c>
+      <c r="X16" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" t="s">
+        <v>169</v>
+      </c>
+      <c r="K17" t="s">
+        <v>170</v>
+      </c>
+      <c r="L17" t="s">
+        <v>171</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>172</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>151</v>
+      </c>
+      <c r="X17" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>175</v>
+      </c>
+      <c r="J18" t="s">
+        <v>176</v>
+      </c>
+      <c r="K18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L18" t="s">
+        <v>178</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>179</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>151</v>
+      </c>
+      <c r="X18" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>181</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>182</v>
+      </c>
+      <c r="J19" t="s">
+        <v>183</v>
+      </c>
+      <c r="K19" t="s">
+        <v>184</v>
+      </c>
+      <c r="L19" t="s">
+        <v>185</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>186</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>151</v>
+      </c>
+      <c r="X19" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>189</v>
+      </c>
+      <c r="J20" t="s">
+        <v>190</v>
+      </c>
+      <c r="K20" t="s">
+        <v>191</v>
+      </c>
+      <c r="L20" t="s">
+        <v>192</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>193</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>195</v>
+      </c>
+      <c r="J21" t="s">
+        <v>196</v>
+      </c>
+      <c r="K21" t="s">
+        <v>197</v>
+      </c>
+      <c r="L21" t="s">
+        <v>198</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>199</v>
+      </c>
+      <c r="O21" t="s">
+        <v>117</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>200</v>
+      </c>
+      <c r="X21" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>203</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>204</v>
+      </c>
+      <c r="J22" t="s">
+        <v>205</v>
+      </c>
+      <c r="K22" t="s">
+        <v>206</v>
+      </c>
+      <c r="L22" t="s">
+        <v>207</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>193</v>
+      </c>
+      <c r="O22" t="s">
+        <v>117</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>200</v>
+      </c>
+      <c r="X22" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>210</v>
+      </c>
+      <c r="J23" t="s">
+        <v>211</v>
+      </c>
+      <c r="K23" t="s">
+        <v>212</v>
+      </c>
+      <c r="L23" t="s">
+        <v>213</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>214</v>
+      </c>
+      <c r="O23" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>151</v>
+      </c>
+      <c r="X23" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>217</v>
+      </c>
+      <c r="J24" t="s">
+        <v>218</v>
+      </c>
+      <c r="K24" t="s">
+        <v>219</v>
+      </c>
+      <c r="L24" t="s">
+        <v>220</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>214</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>151</v>
+      </c>
+      <c r="X24" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>222</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>223</v>
+      </c>
+      <c r="J25" t="s">
+        <v>224</v>
+      </c>
+      <c r="K25" t="s">
+        <v>225</v>
+      </c>
+      <c r="L25" t="s">
+        <v>226</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>227</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>151</v>
+      </c>
+      <c r="X25" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>229</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>230</v>
+      </c>
+      <c r="J26" t="s">
+        <v>231</v>
+      </c>
+      <c r="K26" t="s">
+        <v>232</v>
+      </c>
+      <c r="L26" t="s">
+        <v>233</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>234</v>
+      </c>
+      <c r="O26" t="s">
+        <v>117</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>236</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>237</v>
+      </c>
+      <c r="J27" t="s">
+        <v>238</v>
+      </c>
+      <c r="K27" t="s">
+        <v>239</v>
+      </c>
+      <c r="L27" t="s">
+        <v>240</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>241</v>
+      </c>
+      <c r="O27" t="s">
+        <v>165</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>243</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>244</v>
+      </c>
+      <c r="J28" t="s">
+        <v>245</v>
+      </c>
+      <c r="K28" t="s">
+        <v>246</v>
+      </c>
+      <c r="L28" t="s">
+        <v>247</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>241</v>
+      </c>
+      <c r="O28" t="s">
+        <v>63</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>248</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>249</v>
+      </c>
+      <c r="J29" t="s">
+        <v>250</v>
+      </c>
+      <c r="K29" t="s">
+        <v>251</v>
+      </c>
+      <c r="L29" t="s">
+        <v>252</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>253</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>254</v>
+      </c>
+      <c r="X29" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>257</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>258</v>
+      </c>
+      <c r="J30" t="s">
+        <v>259</v>
+      </c>
+      <c r="K30" t="s">
+        <v>260</v>
+      </c>
+      <c r="L30" t="s">
+        <v>261</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>253</v>
+      </c>
+      <c r="O30" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>262</v>
+      </c>
+      <c r="X30" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>265</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>266</v>
+      </c>
+      <c r="J31" t="s">
+        <v>267</v>
+      </c>
+      <c r="K31" t="s">
+        <v>268</v>
+      </c>
+      <c r="L31" t="s">
+        <v>269</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>253</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>270</v>
+      </c>
+      <c r="X31" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>273</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>274</v>
+      </c>
+      <c r="J32" t="s">
+        <v>275</v>
+      </c>
+      <c r="K32" t="s">
+        <v>276</v>
+      </c>
+      <c r="L32" t="s">
+        <v>277</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>199</v>
+      </c>
+      <c r="O32" t="s">
+        <v>63</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>278</v>
+      </c>
+      <c r="X32" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>281</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>282</v>
+      </c>
+      <c r="J33" t="s">
+        <v>283</v>
+      </c>
+      <c r="K33" t="s">
+        <v>284</v>
+      </c>
+      <c r="L33" t="s">
+        <v>285</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>286</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>287</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>288</v>
+      </c>
+      <c r="J34" t="s">
+        <v>289</v>
+      </c>
+      <c r="K34" t="s">
+        <v>290</v>
+      </c>
+      <c r="L34" t="s">
+        <v>291</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>286</v>
+      </c>
+      <c r="O34" t="s">
+        <v>63</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>292</v>
+      </c>
+      <c r="X34" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>295</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>296</v>
+      </c>
+      <c r="J35" t="s">
+        <v>297</v>
+      </c>
+      <c r="K35" t="s">
+        <v>298</v>
+      </c>
+      <c r="L35" t="s">
+        <v>299</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>300</v>
+      </c>
+      <c r="O35" t="s">
+        <v>117</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>301</v>
+      </c>
+      <c r="X35" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>304</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>305</v>
+      </c>
+      <c r="J36" t="s">
+        <v>306</v>
+      </c>
+      <c r="K36" t="s">
+        <v>307</v>
+      </c>
+      <c r="L36" t="s">
+        <v>308</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>300</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>309</v>
+      </c>
+      <c r="X36" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>312</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>313</v>
+      </c>
+      <c r="J37" t="s">
+        <v>314</v>
+      </c>
+      <c r="K37" t="s">
+        <v>315</v>
+      </c>
+      <c r="L37" t="s">
+        <v>316</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>300</v>
+      </c>
+      <c r="O37" t="s">
+        <v>63</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>309</v>
+      </c>
+      <c r="X37" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>318</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>319</v>
+      </c>
+      <c r="J38" t="s">
+        <v>320</v>
+      </c>
+      <c r="K38" t="s">
+        <v>321</v>
+      </c>
+      <c r="L38" t="s">
+        <v>322</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>323</v>
+      </c>
+      <c r="O38" t="s">
+        <v>79</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>309</v>
+      </c>
+      <c r="X38" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>325</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>326</v>
+      </c>
+      <c r="J39" t="s">
+        <v>327</v>
+      </c>
+      <c r="K39" t="s">
+        <v>328</v>
+      </c>
+      <c r="L39" t="s">
+        <v>329</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>330</v>
+      </c>
+      <c r="O39" t="s">
+        <v>117</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>331</v>
+      </c>
+      <c r="X39" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>334</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>335</v>
+      </c>
+      <c r="J40" t="s">
+        <v>336</v>
+      </c>
+      <c r="K40" t="s">
+        <v>337</v>
+      </c>
+      <c r="L40" t="s">
+        <v>338</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>330</v>
+      </c>
+      <c r="O40" t="s">
+        <v>63</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>340</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>341</v>
+      </c>
+      <c r="J41" t="s">
+        <v>342</v>
+      </c>
+      <c r="K41" t="s">
+        <v>343</v>
+      </c>
+      <c r="L41" t="s">
+        <v>344</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>345</v>
+      </c>
+      <c r="O41" t="s">
+        <v>63</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>346</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>347</v>
+      </c>
+      <c r="J42" t="s">
+        <v>348</v>
+      </c>
+      <c r="K42" t="s">
+        <v>349</v>
+      </c>
+      <c r="L42" t="s">
+        <v>350</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>345</v>
+      </c>
+      <c r="O42" t="s">
+        <v>63</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>351</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>352</v>
+      </c>
+      <c r="J43" t="s">
+        <v>353</v>
+      </c>
+      <c r="K43" t="s">
+        <v>354</v>
+      </c>
+      <c r="L43" t="s">
+        <v>355</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>356</v>
+      </c>
+      <c r="O43" t="s">
+        <v>63</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>358</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>359</v>
+      </c>
+      <c r="J44" t="s">
+        <v>360</v>
+      </c>
+      <c r="K44" t="s">
+        <v>361</v>
+      </c>
+      <c r="L44" t="s">
+        <v>362</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>356</v>
+      </c>
+      <c r="O44" t="s">
+        <v>79</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>363</v>
+      </c>
+      <c r="X44" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>366</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>367</v>
+      </c>
+      <c r="J45" t="s">
+        <v>368</v>
+      </c>
+      <c r="K45" t="s">
+        <v>369</v>
+      </c>
+      <c r="L45" t="s">
+        <v>370</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>372</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>373</v>
+      </c>
+      <c r="J46" t="s">
+        <v>374</v>
+      </c>
+      <c r="K46" t="s">
+        <v>375</v>
+      </c>
+      <c r="L46" t="s">
+        <v>376</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>377</v>
+      </c>
+      <c r="O46" t="s">
+        <v>117</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>378</v>
+      </c>
+      <c r="X46" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>381</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>382</v>
+      </c>
+      <c r="J47" t="s">
+        <v>383</v>
+      </c>
+      <c r="K47" t="s">
+        <v>384</v>
+      </c>
+      <c r="L47" t="s">
+        <v>385</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>386</v>
+      </c>
+      <c r="O47" t="s">
+        <v>117</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>378</v>
+      </c>
+      <c r="X47" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>388</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>389</v>
+      </c>
+      <c r="J48" t="s">
+        <v>390</v>
+      </c>
+      <c r="K48" t="s">
+        <v>391</v>
+      </c>
+      <c r="L48" t="s">
+        <v>392</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>386</v>
+      </c>
+      <c r="O48" t="s">
+        <v>117</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>393</v>
+      </c>
+      <c r="X48" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>396</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>397</v>
+      </c>
+      <c r="J49" t="s">
+        <v>398</v>
+      </c>
+      <c r="K49" t="s">
+        <v>399</v>
+      </c>
+      <c r="L49" t="s">
+        <v>400</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>386</v>
+      </c>
+      <c r="O49" t="s">
+        <v>63</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>2</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>393</v>
+      </c>
+      <c r="X49" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>402</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>403</v>
+      </c>
+      <c r="J50" t="s">
+        <v>404</v>
+      </c>
+      <c r="K50" t="s">
+        <v>405</v>
+      </c>
+      <c r="L50" t="s">
+        <v>406</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>407</v>
+      </c>
+      <c r="X50" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>410</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>411</v>
+      </c>
+      <c r="J51" t="s">
+        <v>412</v>
+      </c>
+      <c r="K51" t="s">
+        <v>413</v>
+      </c>
+      <c r="L51" t="s">
+        <v>414</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>386</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>407</v>
+      </c>
+      <c r="X51" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>416</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>417</v>
+      </c>
+      <c r="J52" t="s">
+        <v>418</v>
+      </c>
+      <c r="K52" t="s">
+        <v>419</v>
+      </c>
+      <c r="L52" t="s">
+        <v>420</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>421</v>
+      </c>
+      <c r="O52" t="s">
+        <v>63</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>407</v>
+      </c>
+      <c r="X52" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>423</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>424</v>
+      </c>
+      <c r="J53" t="s">
+        <v>425</v>
+      </c>
+      <c r="K53" t="s">
+        <v>426</v>
+      </c>
+      <c r="L53" t="s">
+        <v>427</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>428</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>429</v>
+      </c>
+      <c r="X53" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>432</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>433</v>
+      </c>
+      <c r="J54" t="s">
+        <v>434</v>
+      </c>
+      <c r="K54" t="s">
+        <v>435</v>
+      </c>
+      <c r="L54" t="s">
+        <v>436</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>437</v>
+      </c>
+      <c r="X54" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>440</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>441</v>
+      </c>
+      <c r="J55" t="s">
+        <v>442</v>
+      </c>
+      <c r="K55" t="s">
+        <v>443</v>
+      </c>
+      <c r="L55" t="s">
+        <v>444</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>445</v>
+      </c>
+      <c r="O55" t="s">
+        <v>63</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>437</v>
+      </c>
+      <c r="X55" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>447</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>448</v>
+      </c>
+      <c r="J56" t="s">
+        <v>449</v>
+      </c>
+      <c r="K56" t="s">
+        <v>450</v>
+      </c>
+      <c r="L56" t="s">
+        <v>451</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>437</v>
+      </c>
+      <c r="X56" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>453</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>454</v>
+      </c>
+      <c r="J57" t="s">
+        <v>449</v>
+      </c>
+      <c r="K57" t="s">
+        <v>455</v>
+      </c>
+      <c r="L57" t="s">
+        <v>456</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>457</v>
+      </c>
+      <c r="O57" t="s">
+        <v>63</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>437</v>
+      </c>
+      <c r="X57" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>459</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>460</v>
+      </c>
+      <c r="J58" t="s">
+        <v>461</v>
+      </c>
+      <c r="K58" t="s">
+        <v>462</v>
+      </c>
+      <c r="L58" t="s">
+        <v>463</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>457</v>
+      </c>
+      <c r="O58" t="s">
+        <v>63</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>465</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>466</v>
+      </c>
+      <c r="J59" t="s">
+        <v>467</v>
+      </c>
+      <c r="K59" t="s">
+        <v>468</v>
+      </c>
+      <c r="L59" t="s">
+        <v>469</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>470</v>
+      </c>
+      <c r="O59" t="s">
+        <v>63</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>471</v>
+      </c>
+      <c r="X59" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>474</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>475</v>
+      </c>
+      <c r="J60" t="s">
+        <v>476</v>
+      </c>
+      <c r="K60" t="s">
+        <v>477</v>
+      </c>
+      <c r="L60" t="s">
+        <v>478</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>479</v>
+      </c>
+      <c r="O60" t="s">
+        <v>63</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>480</v>
+      </c>
+      <c r="X60" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>483</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>484</v>
+      </c>
+      <c r="J61" t="s">
+        <v>485</v>
+      </c>
+      <c r="K61" t="s">
+        <v>486</v>
+      </c>
+      <c r="L61" t="s">
+        <v>487</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>488</v>
+      </c>
+      <c r="O61" t="s">
+        <v>63</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>489</v>
+      </c>
+      <c r="X61" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>492</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>493</v>
+      </c>
+      <c r="J62" t="s">
+        <v>494</v>
+      </c>
+      <c r="K62" t="s">
+        <v>495</v>
+      </c>
+      <c r="L62" t="s">
+        <v>496</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>497</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>498</v>
+      </c>
+      <c r="J63" t="s">
+        <v>499</v>
+      </c>
+      <c r="K63" t="s">
+        <v>500</v>
+      </c>
+      <c r="L63" t="s">
+        <v>501</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>502</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>503</v>
+      </c>
+      <c r="J64" t="s">
+        <v>504</v>
+      </c>
+      <c r="K64" t="s">
+        <v>505</v>
+      </c>
+      <c r="L64" t="s">
+        <v>506</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>507</v>
+      </c>
+      <c r="O64" t="s">
+        <v>117</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>508</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>509</v>
+      </c>
+      <c r="J65" t="s">
+        <v>510</v>
+      </c>
+      <c r="K65" t="s">
+        <v>511</v>
+      </c>
+      <c r="L65" t="s">
+        <v>512</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>513</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>514</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>515</v>
+      </c>
+      <c r="J66" t="s">
+        <v>516</v>
+      </c>
+      <c r="K66" t="s">
+        <v>517</v>
+      </c>
+      <c r="L66" t="s">
+        <v>518</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>519</v>
+      </c>
+      <c r="O66" t="s">
+        <v>79</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>520</v>
+      </c>
+      <c r="X66" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>523</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>524</v>
+      </c>
+      <c r="J67" t="s">
+        <v>525</v>
+      </c>
+      <c r="K67" t="s">
+        <v>526</v>
+      </c>
+      <c r="L67" t="s">
+        <v>527</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>528</v>
+      </c>
+      <c r="O67" t="s">
+        <v>63</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>530</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>531</v>
+      </c>
+      <c r="J68" t="s">
+        <v>532</v>
+      </c>
+      <c r="K68" t="s">
+        <v>533</v>
+      </c>
+      <c r="L68" t="s">
+        <v>534</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>519</v>
+      </c>
+      <c r="O68" t="s">
+        <v>79</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>535</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>536</v>
+      </c>
+      <c r="J69" t="s">
+        <v>532</v>
+      </c>
+      <c r="K69" t="s">
+        <v>537</v>
+      </c>
+      <c r="L69" t="s">
+        <v>538</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>539</v>
+      </c>
+      <c r="O69" t="s">
+        <v>165</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>541</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>542</v>
+      </c>
+      <c r="J70" t="s">
+        <v>543</v>
+      </c>
+      <c r="K70" t="s">
+        <v>544</v>
+      </c>
+      <c r="L70" t="s">
+        <v>545</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>546</v>
+      </c>
+      <c r="O70" t="s">
+        <v>63</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>548</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>549</v>
+      </c>
+      <c r="J71" t="s">
+        <v>550</v>
+      </c>
+      <c r="K71" t="s">
+        <v>551</v>
+      </c>
+      <c r="L71" t="s">
+        <v>552</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>528</v>
+      </c>
+      <c r="O71" t="s">
+        <v>63</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>554</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>555</v>
+      </c>
+      <c r="J72" t="s">
+        <v>556</v>
+      </c>
+      <c r="K72" t="s">
+        <v>557</v>
+      </c>
+      <c r="L72" t="s">
+        <v>558</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>559</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>561</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>562</v>
+      </c>
+      <c r="J73" t="s">
+        <v>563</v>
+      </c>
+      <c r="K73" t="s">
+        <v>564</v>
+      </c>
+      <c r="L73" t="s">
+        <v>565</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>539</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>567</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>568</v>
+      </c>
+      <c r="J74" t="s">
+        <v>569</v>
+      </c>
+      <c r="K74" t="s">
+        <v>570</v>
+      </c>
+      <c r="L74" t="s">
+        <v>571</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>572</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>573</v>
+      </c>
+      <c r="J75" t="s">
+        <v>574</v>
+      </c>
+      <c r="K75" t="s">
+        <v>575</v>
+      </c>
+      <c r="L75" t="s">
+        <v>576</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>559</v>
+      </c>
+      <c r="O75" t="s">
+        <v>63</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>578</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>579</v>
+      </c>
+      <c r="J76" t="s">
+        <v>580</v>
+      </c>
+      <c r="K76" t="s">
+        <v>581</v>
+      </c>
+      <c r="L76" t="s">
+        <v>582</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>559</v>
+      </c>
+      <c r="O76" t="s">
+        <v>63</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>584</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>585</v>
+      </c>
+      <c r="J77" t="s">
+        <v>586</v>
+      </c>
+      <c r="K77" t="s">
+        <v>587</v>
+      </c>
+      <c r="L77" t="s">
+        <v>588</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>589</v>
+      </c>
+      <c r="O77" t="s">
+        <v>63</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>591</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>592</v>
+      </c>
+      <c r="J78" t="s">
+        <v>593</v>
+      </c>
+      <c r="K78" t="s">
+        <v>594</v>
+      </c>
+      <c r="L78" t="s">
+        <v>595</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>589</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>597</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>598</v>
+      </c>
+      <c r="J79" t="s">
+        <v>599</v>
+      </c>
+      <c r="K79" t="s">
+        <v>600</v>
+      </c>
+      <c r="L79" t="s">
+        <v>601</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>589</v>
+      </c>
+      <c r="O79" t="s">
+        <v>63</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>603</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>604</v>
+      </c>
+      <c r="J80" t="s">
+        <v>605</v>
+      </c>
+      <c r="K80" t="s">
+        <v>606</v>
+      </c>
+      <c r="L80" t="s">
+        <v>607</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>608</v>
+      </c>
+      <c r="O80" t="s">
+        <v>63</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>609</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>610</v>
+      </c>
+      <c r="J81" t="s">
+        <v>611</v>
+      </c>
+      <c r="K81" t="s">
+        <v>612</v>
+      </c>
+      <c r="L81" t="s">
+        <v>613</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>614</v>
+      </c>
+      <c r="O81" t="s">
+        <v>63</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>616</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>617</v>
+      </c>
+      <c r="J82" t="s">
+        <v>618</v>
+      </c>
+      <c r="K82" t="s">
+        <v>619</v>
+      </c>
+      <c r="L82" t="s">
+        <v>620</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>614</v>
+      </c>
+      <c r="O82" t="s">
+        <v>63</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>621</v>
+      </c>
+      <c r="X82" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>624</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>625</v>
+      </c>
+      <c r="J83" t="s">
+        <v>626</v>
+      </c>
+      <c r="K83" t="s">
+        <v>627</v>
+      </c>
+      <c r="L83" t="s">
+        <v>628</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>629</v>
+      </c>
+      <c r="O83" t="s">
+        <v>63</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>630</v>
+      </c>
+      <c r="X83" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>633</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>634</v>
+      </c>
+      <c r="J84" t="s">
+        <v>635</v>
+      </c>
+      <c r="K84" t="s">
+        <v>636</v>
+      </c>
+      <c r="L84" t="s">
+        <v>637</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>638</v>
+      </c>
+      <c r="O84" t="s">
+        <v>63</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>639</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>640</v>
+      </c>
+      <c r="J85" t="s">
+        <v>641</v>
+      </c>
+      <c r="K85" t="s">
+        <v>642</v>
+      </c>
+      <c r="L85" t="s">
+        <v>643</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>638</v>
+      </c>
+      <c r="O85" t="s">
+        <v>63</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>644</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>645</v>
+      </c>
+      <c r="J86" t="s">
+        <v>646</v>
+      </c>
+      <c r="K86" t="s">
+        <v>647</v>
+      </c>
+      <c r="L86" t="s">
+        <v>648</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>649</v>
+      </c>
+      <c r="O86" t="s">
+        <v>63</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>650</v>
+      </c>
+      <c r="X86" t="s">
+        <v>651</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>653</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>654</v>
+      </c>
+      <c r="J87" t="s">
+        <v>646</v>
+      </c>
+      <c r="K87" t="s">
+        <v>655</v>
+      </c>
+      <c r="L87" t="s">
+        <v>656</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>649</v>
+      </c>
+      <c r="O87" t="s">
+        <v>117</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>657</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>658</v>
+      </c>
+      <c r="J88" t="s">
+        <v>659</v>
+      </c>
+      <c r="K88" t="s">
+        <v>660</v>
+      </c>
+      <c r="L88" t="s">
+        <v>661</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>662</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>663</v>
+      </c>
+      <c r="X88" t="s">
+        <v>664</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>666</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>667</v>
+      </c>
+      <c r="J89" t="s">
+        <v>668</v>
+      </c>
+      <c r="K89" t="s">
+        <v>669</v>
+      </c>
+      <c r="L89" t="s">
+        <v>670</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="s">
+        <v>662</v>
+      </c>
+      <c r="O89" t="s">
+        <v>63</v>
+      </c>
+      <c r="P89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>671</v>
+      </c>
+      <c r="X89" t="s">
+        <v>672</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>674</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>675</v>
+      </c>
+      <c r="J90" t="s">
+        <v>676</v>
+      </c>
+      <c r="K90" t="s">
+        <v>677</v>
+      </c>
+      <c r="L90" t="s">
+        <v>678</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>679</v>
+      </c>
+      <c r="O90" t="s">
+        <v>63</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>680</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>681</v>
+      </c>
+      <c r="J91" t="s">
+        <v>682</v>
+      </c>
+      <c r="K91" t="s">
+        <v>683</v>
+      </c>
+      <c r="L91" t="s">
+        <v>684</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>679</v>
+      </c>
+      <c r="O91" t="s">
+        <v>63</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>686</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>687</v>
+      </c>
+      <c r="J92" t="s">
+        <v>688</v>
+      </c>
+      <c r="K92" t="s">
+        <v>689</v>
+      </c>
+      <c r="L92" t="s">
+        <v>690</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>691</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>692</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>693</v>
+      </c>
+      <c r="J93" t="s">
+        <v>694</v>
+      </c>
+      <c r="K93" t="s">
+        <v>695</v>
+      </c>
+      <c r="L93" t="s">
+        <v>696</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>697</v>
+      </c>
+      <c r="O93" t="s">
+        <v>63</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>698</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>699</v>
+      </c>
+      <c r="J94" t="s">
+        <v>700</v>
+      </c>
+      <c r="K94" t="s">
+        <v>701</v>
+      </c>
+      <c r="L94" t="s">
+        <v>702</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>703</v>
+      </c>
+      <c r="O94" t="s">
+        <v>63</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>705</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>706</v>
+      </c>
+      <c r="J95" t="s">
+        <v>707</v>
+      </c>
+      <c r="K95" t="s">
+        <v>708</v>
+      </c>
+      <c r="L95" t="s">
+        <v>709</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>710</v>
+      </c>
+      <c r="O95" t="s">
+        <v>63</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>712</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>713</v>
+      </c>
+      <c r="J96" t="s">
+        <v>707</v>
+      </c>
+      <c r="K96" t="s">
+        <v>714</v>
+      </c>
+      <c r="L96" t="s">
+        <v>715</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>710</v>
+      </c>
+      <c r="O96" t="s">
+        <v>63</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>717</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>718</v>
+      </c>
+      <c r="J97" t="s">
+        <v>719</v>
+      </c>
+      <c r="K97" t="s">
+        <v>720</v>
+      </c>
+      <c r="L97" t="s">
+        <v>721</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>710</v>
+      </c>
+      <c r="O97" t="s">
+        <v>63</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="n">
+        <v>3</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>723</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>724</v>
+      </c>
+      <c r="J98" t="s">
+        <v>725</v>
+      </c>
+      <c r="K98" t="s">
+        <v>726</v>
+      </c>
+      <c r="L98" t="s">
+        <v>727</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s"/>
+      <c r="O98" t="s"/>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>4</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>4</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>728</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>729</v>
+      </c>
+      <c r="J99" t="s">
+        <v>730</v>
+      </c>
+      <c r="K99" t="s">
+        <v>731</v>
+      </c>
+      <c r="L99" t="s">
+        <v>732</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>733</v>
+      </c>
+      <c r="O99" t="s">
+        <v>63</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="s"/>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>734</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>735</v>
+      </c>
+      <c r="J100" t="s">
+        <v>736</v>
+      </c>
+      <c r="K100" t="s">
+        <v>737</v>
+      </c>
+      <c r="L100" t="s">
+        <v>738</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>733</v>
+      </c>
+      <c r="O100" t="s">
+        <v>63</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="s"/>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>740</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>741</v>
+      </c>
+      <c r="J101" t="s">
+        <v>742</v>
+      </c>
+      <c r="K101" t="s">
+        <v>743</v>
+      </c>
+      <c r="L101" t="s">
+        <v>744</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>745</v>
+      </c>
+      <c r="O101" t="s">
+        <v>63</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="s"/>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>746</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>747</v>
+      </c>
+      <c r="J102" t="s">
+        <v>748</v>
+      </c>
+      <c r="K102" t="s">
+        <v>749</v>
+      </c>
+      <c r="L102" t="s">
+        <v>750</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>751</v>
+      </c>
+      <c r="O102" t="s">
+        <v>63</v>
+      </c>
+      <c r="P102" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>753</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>754</v>
+      </c>
+      <c r="J103" t="s">
+        <v>755</v>
+      </c>
+      <c r="K103" t="s">
+        <v>756</v>
+      </c>
+      <c r="L103" t="s">
+        <v>757</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>758</v>
+      </c>
+      <c r="O103" t="s">
+        <v>117</v>
+      </c>
+      <c r="P103" t="s"/>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="s"/>
+      <c r="S103" t="s"/>
+      <c r="T103" t="s"/>
+      <c r="U103" t="s"/>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>759</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>760</v>
+      </c>
+      <c r="J104" t="s">
+        <v>761</v>
+      </c>
+      <c r="K104" t="s">
+        <v>762</v>
+      </c>
+      <c r="L104" t="s">
+        <v>763</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s">
+        <v>764</v>
+      </c>
+      <c r="O104" t="s">
+        <v>53</v>
+      </c>
+      <c r="P104" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>4</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>4</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>4</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>766</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>767</v>
+      </c>
+      <c r="J105" t="s">
+        <v>768</v>
+      </c>
+      <c r="K105" t="s">
+        <v>769</v>
+      </c>
+      <c r="L105" t="s">
+        <v>770</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>771</v>
+      </c>
+      <c r="O105" t="s">
+        <v>63</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>773</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>774</v>
+      </c>
+      <c r="J106" t="s">
+        <v>775</v>
+      </c>
+      <c r="K106" t="s">
+        <v>776</v>
+      </c>
+      <c r="L106" t="s">
+        <v>777</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>778</v>
+      </c>
+      <c r="O106" t="s">
+        <v>53</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>779</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>780</v>
+      </c>
+      <c r="J107" t="s">
+        <v>781</v>
+      </c>
+      <c r="K107" t="s">
+        <v>782</v>
+      </c>
+      <c r="L107" t="s">
+        <v>783</v>
+      </c>
+      <c r="M107" t="n">
+        <v>2</v>
+      </c>
+      <c r="N107" t="s">
+        <v>784</v>
+      </c>
+      <c r="O107" t="s">
+        <v>53</v>
+      </c>
+      <c r="P107" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>2</v>
+      </c>
+      <c r="R107" t="n">
+        <v>3</v>
+      </c>
+      <c r="S107" t="n">
+        <v>3</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>3</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>785</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>786</v>
+      </c>
+      <c r="J108" t="s">
+        <v>787</v>
+      </c>
+      <c r="K108" t="s">
+        <v>788</v>
+      </c>
+      <c r="L108" t="s">
+        <v>789</v>
+      </c>
+      <c r="M108" t="n">
+        <v>5</v>
+      </c>
+      <c r="N108" t="s">
+        <v>790</v>
+      </c>
+      <c r="O108" t="s">
+        <v>63</v>
+      </c>
+      <c r="P108" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>3</v>
+      </c>
+      <c r="R108" t="n">
+        <v>4</v>
+      </c>
+      <c r="S108" t="n">
+        <v>4</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>792</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>793</v>
+      </c>
+      <c r="J109" t="s">
+        <v>794</v>
+      </c>
+      <c r="K109" t="s">
+        <v>795</v>
+      </c>
+      <c r="L109" t="s">
+        <v>796</v>
+      </c>
+      <c r="M109" t="n">
+        <v>5</v>
+      </c>
+      <c r="N109" t="s"/>
+      <c r="O109" t="s"/>
+      <c r="P109" t="s"/>
+      <c r="Q109" t="s"/>
+      <c r="R109" t="s"/>
+      <c r="S109" t="s"/>
+      <c r="T109" t="s"/>
+      <c r="U109" t="s"/>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>42526</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>797</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>798</v>
+      </c>
+      <c r="J110" t="s">
+        <v>799</v>
+      </c>
+      <c r="K110" t="s">
+        <v>800</v>
+      </c>
+      <c r="L110" t="s">
+        <v>801</v>
+      </c>
+      <c r="M110" t="n">
+        <v>5</v>
+      </c>
+      <c r="N110" t="s"/>
+      <c r="O110" t="s"/>
+      <c r="P110" t="s"/>
+      <c r="Q110" t="s"/>
+      <c r="R110" t="s"/>
+      <c r="S110" t="s"/>
+      <c r="T110" t="s"/>
+      <c r="U110" t="s"/>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>802</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_634.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_634.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="904">
   <si>
     <t>STR#</t>
   </si>
@@ -189,6 +189,9 @@
     <t>Yet another visit here and yet another pleasant experience thanks to the wonderful staff, especially Joseph....been in countless hotels across Southern California....despite the cheap price, best staff resides hereMore</t>
   </si>
   <si>
+    <t>Joanne T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r581107332-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -210,6 +213,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Bridgetpianos</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r566866404-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -237,6 +243,9 @@
     <t>I always stay here when I work in the area. The front desk staff are the best and make me feel like family. My room is spacious clean and it has a kitchen and sofa area. They are renovating the breakfast room. The breakfast is average like most complimentary breakfasts but the location is great and many restaurants within walking distance. More</t>
   </si>
   <si>
+    <t>Robert D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r553609387-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -267,6 +276,9 @@
     <t>I've stayed here many times but the previous time things seemed to be in need of a renovation.  I debated staying this last time, but I am very happy I did.  The rooms are newly renovated and painted and everything looks much better.The breakfasts are nothing special and I tend to stock up on my own breakfast items in the refrigerator and skip on hotel breakfasts.Overall the staff is very helpful and I will definitely be back.  One of the best values around...More</t>
   </si>
   <si>
+    <t>Deroney</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r540521375-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -288,6 +300,9 @@
     <t>Just returned from a two night stay here. The location is great , right next to a mall with about everything close at hand, (pharmacy, grocery , restaurants, etc), all close at hand. The two very helpful and courteous front desk attendants assured us the area was ,"one of the safest in California", so we walked to wherever we needed to go. The facility was well kept and seemed to have been recently renovated. My room was clean, with good air conditioning. The shower, bed, fridge, FREE WiFi, etc were all in good condition and functioned properly. The breakfast was standard "free breakfast" fare, served in a clean area. Overall a good, solid , predictable stay, which is just what you need when you're on the road: no surprises.   NOTE: the pool - hot tub area appeared immaculate and there's a Sport Court onsiteMore</t>
   </si>
   <si>
+    <t>Terronda N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r540456068-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -300,6 +315,9 @@
     <t xml:space="preserve">Traveled for work, am a Marriott rewards member and this hotel met ALL of my expectations!  Great customer Care and the location is so convenient to restaurants and many amenities!!  Will stay here every time I travel to the area! </t>
   </si>
   <si>
+    <t>better_beer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r504253035-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -327,6 +345,9 @@
     <t>Some staff were friendly and others not so much.  Second time through on business so I held off to be sure what I experienced was not a one time thing.  Airco is noisy.  Wifi, slow, drops a lot free and paid (yes, high status person) both were about the same.  Slowness actually meant to get much done I had to find the local Starbucks instead of cozy up in my room or on their pool patio (which does look good).  Breakfast is not so appetizing as it looks really.  I don't think the eggs are actually real eggs, but more likely a reconstituted package type thing.  Has a dated look / feel.  Some bad looking (not so legally minded) people wandering through finished the picture.  Nice looking BBQ.  Oh, and the local tax rates tend to make me go elsewhere even if it's a bit of a drive.More</t>
   </si>
   <si>
+    <t>kellithetaz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r503682121-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -354,6 +375,9 @@
     <t>Typical property but I decided to review it because people who are into fitness need to know that the "workout facility " here is laughable. No weights, mats, medicine balls, kettle bells. Total equipment = 2 treadmills &amp; 1 elliptical. Pitiful. The pros were friendly staff &amp; clean roomMore</t>
   </si>
   <si>
+    <t>OutdoorSteveNH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r501892349-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -381,6 +405,9 @@
     <t>First time at a Residence Inn.  Excellent!! Very positive experience. Rates reasonable.Rooms neat, staff very accommodating, breakfast delicious.  Used pool and exercise room.  Impressed that exercise room available 24 hrs.  USA today in morningMore</t>
   </si>
   <si>
+    <t>MichaelTUS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r495214483-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -408,6 +435,9 @@
     <t>Another great stay at the Marriott Residence Inn in Anaheim Hills. We have stayed at this property multiple times over several years and always had a very pleasant experience. The past year stays have been excellent. The rooms have been recently upgraded with new furnishings and decor. The hotel is always very clean and well maintained. The location is very convenient to freeways, stores, restaurants and entertainment. The hotel provides breakfast in the morning and snacks are available several evenings during the week. Susan the front desk supervisor is excellent. She goes out of her way to ensure a pleasant stay and provide the best accommodations available. The entire front desk staff is excellent. They are friendly and very helpful. We will be staying here often in the future.More</t>
   </si>
   <si>
+    <t>Ed S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r488303909-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -429,6 +459,9 @@
     <t>Here is my favorite thing about this hotel.  It is right next to a major mall.  Yet, there is hardly any car traffic.  Reason being is that the hotel is located behind the mall and close to major roads.  The mall is only 0.2 miles from the hotel.Starbucks, Panera Bread, BJ's, a grocery store and many more options.  Restaurants for breakfast, lunch and dinner.  You can literally walk to the mall since it is so close to the hotel.Residence Inn provided me with a very nice size suite.  This suite had a refrigerator, stove, sink and cabinets.  A fairly large living area with a large desk for work.  The bedroom was also very suitable.  The bathroom contained one sink, closet for hanging up your clothes and of course a shower.This hotel seems to be recently built which means what is in your room is not old per the kitchen and bedroom.I would definitely stay here again!More</t>
   </si>
   <si>
+    <t>Allison S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r481355723-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -456,6 +489,9 @@
     <t>WE have been here for a month already- have another month and half to go. Sold our house sooner than we expected! We were first put into an older room, but no complaints! We had a studio on the 2nd floor corner since we have a big golden retriever. Great perk of a full-size oven! They just moved us to the remodeled building-same type room but beautiful! We are so pleased with the housekeeping services. And, the staff, in general is just amazing and very accommodating. They are so quick to serve!! Susan, Gee and Trevor have been great. Maria and Yolanda service us up great breakfasts in the morning! And, there is always a free appetizer or dinner night. GREAT place to stay!! And, a park about 7/10 mile to walk the dog!More</t>
   </si>
   <si>
+    <t>MLRtravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r475693785-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -480,6 +516,9 @@
     <t>While the rooms and hotel overall needs some updating, the reason we keep coming back are the staff and convenience of location of this Residence Inn. It is walking distance to a grocery store, shops, many restaurants etc. very close to the freeway. But more importantly the staff are AMAZING.  Greta, Guia in particular they are so genuine and customer centric. We stay at this hotel probably 30 nights a year and we do because of the staff.  Thank you and we will be back later this year again. Please keep up the great service. More</t>
   </si>
   <si>
+    <t>PA_Denizen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r470432299-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -498,6 +537,9 @@
     <t>Stayed at the hotel for 2 nights in a king suite. Room was clean and well maintained. There were some issues having to do with the age of the hotel. First, the A/C unit was on the older side and was loud when it ran. Given the configuration of the room, the noise from the AC unit could easily keep a light sleeper awake. The room seemed like it was either too hot or too cold at times. Lastly, the breakfast was not as good as other Residence Inns. The quality of the items could use a little improvement. The staff was nice and accommodated our preferred room cleaning time. And check-in and check-out were handled smoothly.More</t>
   </si>
   <si>
+    <t>Alice D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r467006118-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -519,6 +561,9 @@
     <t>Great place to stay, comfy beds, clean rooms, and amazing breakfast!!!  Every thing you need is in the immediate area.  We stayed in a 2 bedroom suite with friends.  The only complaint is that there could have been more light in the bedrooms.  Everything else was amazing.  Best Breakfast I have ever had in a hotel. The other guests were a little inconsiderate and noisy.More</t>
   </si>
   <si>
+    <t>AnilGupta70</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r455386258-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -540,6 +585,9 @@
     <t>Stayed here for two nights in January. Approach to the hotel is easy. The rooms are separate from the reception area and you have to walk to the rooms from the courtyard which has a small outdoor pool. It was drizzling, so no protection. The room was on the ground floor, so a lot of noise from outside. Not very good for rest after a long haul flight The room size is good with kitchen facility. The furnishing is basic. The mattress was good for sleepThe breakfast area is next to the reception area. Very limited choice for breakfast. Scrambled eggs did bot taste like eggs. There was no water at the breakfast bar. The crockery and cutlery is all plastic disposable. If you do not mind that, then it is fineThe hotel does provide free wifi but it takes a bit of time to connect but then it is OK for most of the things except streaming for which there is a choice of paid connection.More</t>
   </si>
   <si>
+    <t>pitter22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r437946426-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -561,6 +609,9 @@
     <t>I used points here and I'm glad I did. Location is back off the the 91 freeway, so nice and quiet. Rooms were spacious, free breakfast was good. Customer service was also outstanding. I will stay here again, with or without points.More</t>
   </si>
   <si>
+    <t>expressoparking</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r422677968-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -582,6 +633,9 @@
     <t>What can I say? I happened to be in a corner room which is situated right next to an exit door. Any time someone goes in and out, I hear the door. I hear my neighbors doors when they come and go too. And day 2 of my 4 day stay, ants started to crawl in. They invaded the dining table and the kitchen sink. I don't even know why because I'm a super neat freak. Although there WAS a freak rain shower and I DID have a corner room. But still. Come on!More</t>
   </si>
   <si>
+    <t>merceede</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r398325977-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -600,6 +654,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>RafaelCFerreira</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r394152171-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -627,6 +684,9 @@
     <t>Good: - We got a family room on the first floor with full kitchen - 30 minutes from Disney - They offered some kind of happy hour - Good mattressBad: - Outdated bathrooms - Poor breakfast - Disorganized staff - Parking lot was full and I need to park in some place elseMore</t>
   </si>
   <si>
+    <t>Lynn D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r390665961-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -645,6 +705,9 @@
     <t>Where to start?  Met by a rather unhelpful (seemed put out and talked down to us) lady who said she was the assistant manager.  Lots of confusion regarding the reservation, the room rate.  If it wasn't so late and if there was something else of a similar name close we would have left.  Wish we had left anyway!  Room stank of smoke, opened the windows and ran the airco at full cold - not our power bill.  Hotel is way overdue renovation.  Staff seemed to have a laissez faire attitude about everything.  Breakfast was disgusting.  Eggs are reconstituted, and the spiced potato cakes instead of hash browns were, green, stinky and not tasty to boot.  Coffee is so weak tea was better.  Dirty Towels and spotty, worn out sheets.  Overheard some apparently long term guests, who were very intoxicated, discussing life at the hotel.  Based on what we heard, not at all good.  Apparently drugs are suspected and so is prostitution.  There was joking??? overheard that the staff is in on it.  NEVER HERE EVER AGAIN.  Hey Marriott brand, this place needs close and personal attention!!!  Value for the money is not evident.More</t>
   </si>
   <si>
+    <t>Rosemary C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r376410620-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -666,6 +729,9 @@
     <t>We stayed for 3 nights in a spacious room with a queen bed and sofa bed.  We could have used a cot (they don't have them) for the second teen but he was comfortable on the floor. His sister had the sofa bed.  They loved the pool (water was warm even in cool weather) and basketball court.  Breakfast was outstanding with plenty of very pleasant service people keeping it well stocked with hot food and coffee.  They more than met our every need.  Even prom goers didn't disturb our sleep.  Room was very clean and well set up for a family with vanity sink separate from shower and toilet.  This is our third stay here since we have family in the area and will definitely continue to use this hotel whenever in the area.More</t>
   </si>
   <si>
+    <t>Ashraf W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r375514631-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -705,6 +771,9 @@
     <t>The front desk staff are the best. Very helpful with directions etc. The rooms are spacious very clean every thing looks new. The breakfast is good nothing special same as most hotels. The location is great plenty if restaurants within walking distance.More</t>
   </si>
   <si>
+    <t>MoneyMakerOhYeah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r350429324-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -726,6 +795,9 @@
     <t>After a 4 hour drive from Las Vegas, my wife and I checked in to this hotel. We were told that we were "upgraded". We happily went to our room and were stunned to find that we were placed in a handicapped room! I am extremely tall and the shower comes up to my chest. Not practical or comfortable to take a shower. We immediately asked to switch rooms and were told that there was no vacancy. The person at the front desk did not notify us that this was a handicapped room before hand, nor did she offer to find us another room at another location that we would be comfortable in. Not very good customer service, if you ask me. We are reward members that travel often and we stay at a Marriott location EACH and EVERY time. We checked in using the associate pleasure rate because my wife's mother works for a Courtyard location back home. It begs the question: Were we placed in a crappy/uncomfortable room because we are getting a discounted rate? If this is the case, then Marriott and this location should be ashamed of themselves. We are trying to get the hell out of this location ASAP and never looking back!More</t>
   </si>
   <si>
+    <t>GGStl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r346414842-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -747,6 +819,9 @@
     <t>Clean comfortable rooms friendly staff (for the most part) and just about everything needed for an very nice extended stay. I loved the full kitchen, and the fact that there is a huge supermarket within walking distance! The free breakfast was good one morning, but lacking the next. The food prep staff seemed oblivious to the needs of the diners. One stepped in front of me (I was the only person in line at the time) and took her time straitening up and refilling the paper plates napkins and plastic utensils. Another staff member removed the half full container sausage links just before I could get one. Since there was no other protein selection on the food bar, I had to wait until she brought it back. It was a little strange.More</t>
   </si>
   <si>
+    <t>JoeBP</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r342966653-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -789,6 +864,9 @@
     <t>My wife and I travel to this area at least two times a year and we always choose to stay at this Residence Inn because of the wonderful service that you get from the staff. In particular for our most recent stay, the assistant manager Gretel was very accommodating in holding my luggages for us while we temporarily had to travel to another part of the country.  While I can see the other reviews talk about the place being dated, and yes the place is due for remodeling, the place is always immaculately clean.  The residence rooms feel very much like home complete with a kitchen, and appliances. My wife and I would always call this our place away from home.More</t>
   </si>
   <si>
+    <t>melodym53</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r326245806-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -813,6 +891,9 @@
     <t>This is our second stay at this hotel. The rooms are large and well equipped. Daily maid service is very efficient. Daily breakfast is awesome with different types of egg dishes each day. They also offer oatmeal, cereal, waffles, bagels and such, assorted fruit and muffins. And of course, fresh, hot coffee. The front desk staff  are very accommodating and friendly. This hotel is our home away from home when we are in CA. Very comfortable beds!! We will return again and again when we visit our children in CA.More</t>
   </si>
   <si>
+    <t>EAN_Diver</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r324756489-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -861,6 +942,9 @@
     <t>Stay here 3-4 x per year, 5 nights at a pop on visits to So Cal.  This place is a great location close to stores, restaurants, shopping....walking distance!  the staff is super friendly AND they have free breakfast AND free wifi!!  AND a kitchenette!More</t>
   </si>
   <si>
+    <t>John D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r309835391-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -879,6 +963,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>MissLomeli</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r307112666-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -903,6 +990,9 @@
     <t>This is a very nice hotel. Check in was quick &amp; parking wasn't crowded like at most hotels. Rooms are nice and clean! They supply you with everything for the kitchen which is great!! Movie theater, dining &amp; shopping within walking distance! Very nice hotel. Would definitely recommend! More</t>
   </si>
   <si>
+    <t>Doug s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r284579613-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -930,6 +1020,9 @@
     <t>As the name suggests, you could literally live here. Full kitchen with refrigerator, cabinets, dishwasher (!) and sink. There's a full sized couch and sizable bathroom.Everything else is pretty minimalist. The pool is pretty small, the lounge chairs suck, and the pool towels are half-sized. I guess it's designed for consultants spending time here for work, but I saw a bunch of little kids at the pool, probably post-Disneyland. There's basically no lobby nor any service staff.We stayed here due to the affordability and proximity to Angel Stadium, which worked out pretty well. The room was clean and we experienced no problems. Free parking. Free breakfast buffet, which was okay.More</t>
   </si>
   <si>
+    <t>LMK01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r281708818-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -954,6 +1047,9 @@
     <t>We love this Residence Inn. We've stayed here on a few other trips to SoCal. It's a friendly, clean, well maintained hotel. With a Pavillion's grocery store (Von's/Safeway chain) just across the street - it's perfect.I cannot thank Kimberly (Ops Manager)enough  for her help during this stay! She was so incredibly kind and helpful as we were dealing with a death in our immediate family. I will never look for another place to stay when in SoCal and in need of a hotel.More</t>
   </si>
   <si>
+    <t>Jo95829</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r281418143-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -972,6 +1068,9 @@
     <t>We booked a two bedroom, two bath accommodation.  It was plenty of roomy for four of us.  While the location was in a busy area, it was surprisingly quiet.  A short walk across the street found several eating opportunities and a large (Pavillions) grocery store if needed for an extended stay.  The facility was well kept.  We stayed two nights but were busy with family events so did not use any of the facilities (ie. swimming pool).  It looked very nice and well kept.  If you are visiting the Yorba Linda area (i.e. Nixon Library)  this is a very convenient location.More</t>
   </si>
   <si>
+    <t>CheapSleeps</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r271019487-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -993,6 +1092,9 @@
     <t>This was my first stay at the Residence Inn Anaheim Hills and I would recommend it to business travelers or families for its great location and roomy accommodations. Lots of dining and retail options very close by. The property is not new but is well-maintained and housekeeping does a very good job. My check-in and check-out were efficient and staff was friendly and helpful. Bedding was comfortable and linens were clean and fresh. I stayed in a king bedroom suite that was spacious with a separate seating area and two TVs. The morning breakfast offering is varied enough to satisfy most travelers with hot and cold items and beverages. Free parking was a plus and the pool and exercise areas were in good condition. Standard wifi was free and fast enough for me to keep in touch with my office and family. An upgraded option is available for $4.95 per day. The kitchen area featured a full-size fridge, microwave, coffeemaker, dishwasher, two-burner cook top, and lots of utensils and dishes. It was odd that no liquid dish soap nor dishwasher soap was provided - this may have been a restocking oversight, but I'm not sure. Overall, I enjoyed my stay at this property very much and will return on my next trip through Anaheim Hills.More</t>
   </si>
   <si>
+    <t>Austin H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r268310384-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -1020,6 +1122,9 @@
     <t>We stayed at this inn for about 4 days. The staff was friendly, rooms immaculate, and location great for daily trips into Anaheim. Wifi never really worked, but otherwise no complaints at all in the stay. there are lots of stores and restaurants right around the Inn, so shopping and getting food is very easy- all within walking distance.More</t>
   </si>
   <si>
+    <t>alling2003</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r267908870-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -1038,6 +1143,9 @@
     <t>We stayed here on our last minute trip to Disneyland. Since there wasn't any properties nearby, we stayed here. It was only 20 minutes away. So it wasn't bad. The rooms were clean and the breakfast is your typical free hotel breakfast. We didn't use the pool since our plans were strictly Disney but it seemed clean as we walked by it to breakfast. Their pet policy was reasonable compared to other hotels. We paid $75 for our entire stay. We had our 3 small dogs, and this was the best. If we travel with our lets again, we will definitely stay here. It's near lots of shops and restaurants and easy to get to off the freeway.More</t>
   </si>
   <si>
+    <t>Stacey J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r260456326-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -1056,6 +1164,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>beavertontim</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r259502359-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -1071,6 +1182,9 @@
     <t>Evening staff was OK on arrival.  Rooms were nice.  Plenty of restaurants and a decent grocery store nearby.  Internet service was so-so.  Beds were comfy.  In room kitchen worked well.  Breakfast was good, but staff struggled a bit keeping it full.  About a 30 minute ride to Disneyland.  Yorba Linda seems like a nice area.  TV channel choice was well above average.</t>
   </si>
   <si>
+    <t>Steve D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r255889713-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -1090,6 +1204,9 @@
   </si>
   <si>
     <t>This is the second time I have stayed at this hotel and will continue to when I come down to Southern California.  I stayed in the 2-bedroom suite both times as it has 2 separate bedrooms and each has its own bathroom. The bedrooms are located on the sides and then joined in the middle is a spacious kitchen, dinning room table and comfortable couch with a fire place.  Our family went to Disneyland for 2 days and I wanted to keep an eye on my 76 year old mom with out getting in her way or having her in mine.  This suite worked out so well. The free breakfast for each morning was great and the service was wonderful. The hotel is currently working on remodeling all their bathrooms, so you might want to check when this will be done but the stay was WAY less expensive than staying anywhere close to Disneyland; yet it only took us 10 minutes to get to the parking lot.  Well worth it.More</t>
+  </si>
+  <si>
+    <t>swamp92825</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r252494631-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
@@ -1124,6 +1241,9 @@
 It is well maintained and the staff is cordial.  That all having been said if you are a light sleeper  you will have a problem with the constant hum in the building and the noise of cycling on and off air conditioners all nite.  After the first night I asked at the front desk for a quiet room and was told that all of the rooms are the same  noise-wise so I used wax ear plugs....A good hotel for a family with a limited budget.  A simple but filling breakfast comes with the room. The hotel offers free news papers each morning.  If you are looking for a relaxing breakfast you will not get it here.  There a groups of children and parents getting ready for their day at Disney and the children are excited and loud.  The room itself has an array of dishes and utensils, a two burner stove, microwave, full refrigerator, toaster, coffee pot and full dishwasher.  My room, which was very large, had a hide-a-bed and a queen size bed.  there is a play court outside for children.Just across the street is a shopping center with a major chain's grocery store, at least a half dozen eating places , a Target,  several apparel stores and three banks.   The freeway on/off ramp for the 91 freeway is almost at the front door for ease of access to Los Angeles, Anaheim's attractions and the Inland Empire.It is well maintained and the staff is cordial.  That all having been said if you are a light sleeper  you will have a problem with the constant hum in the building and the noise of cycling on and off air conditioners all nite.  After the first night I asked at the front desk for a quiet room and was told that all of the rooms are the same  noise-wise so I used wax ear plugs..More</t>
   </si>
   <si>
+    <t>bay_area_3333</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r246856819-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -1142,6 +1262,9 @@
     <t>We stayed here for a week in December. First night there was a plumbing problem which caused a gross backup into the bathtub. Front desk moved us to a room which turned out to be "out of service" according to maintenance staff due to air conditioning malfunction. Poor communication between front desk and maintenance. Front desk moved us to another room. The next day, the disposal machine broke down and caused another backup and leaks. Maintenance was good about fixing and replacing quickly.This hotel seems to get a lot of business and needs to go on an accelerated maintenance schedule. It's ridiculous three items broke down in three separate rooms during our stay.More</t>
   </si>
   <si>
+    <t>lainey3718</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r240875465-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -1169,6 +1292,9 @@
     <t>We stayed here for two nights while visiting Disneyland, nice hotel and only about 25mins to get to Disneyland! Was nice to have a relaxing hotel away from the madness of Disney! Room was very big and spacious, had a separate bedroom and living room. Staff very friendly and got us all checked in nice and early! Would recommend to anyone wanting to be near to disney but to still be able to escape the madness.More</t>
   </si>
   <si>
+    <t>Christine H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r228272957-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -1190,6 +1316,9 @@
     <t>While visiting our family in Yorba Linda and participating in the Disneyland Half Marathon we stayed at this Residence Inn.  We found it very nice! It has a great location (across from Target, and Pavilion grocery store, plus many restaurants) and included a very good breakfast each morning.  It is only about 20 minutes from Disneyland which made our drive in for the race very convenient! We also saw others at the hotel who ran in the races and they agreed!The pool was refreshing after a day of sightseeing! They do even offer a light dinner on Mon, Tues, Wed evenings, but we were out and about on these nights so didn't get a chance to take advantage.The price was a great value, our room was very spacious and clean. It also came with free wifi. It also has a workout room, and coin operated washer/dryer, which came in handy for our workout clothes.It is pet friendly, although we did not have our pet with us, there were approx. 6  other dogs staying during the timeframe we were there. They were no problem and fun to pet :)The front desk was very accommodating with extra towels,and helping us scan some items that we needed to email etc.  We will be back again for our next trip!More</t>
   </si>
   <si>
+    <t>Wino2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r226500993-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -1214,6 +1343,9 @@
     <t>Very comfy bed,nice size room,played games with my family.....fun time had by all.....liked the coffee pot and kitchen......the fact that we could order groceries was interesting but way cool.........More</t>
   </si>
   <si>
+    <t>Nitin H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r226178346-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -1232,6 +1364,9 @@
     <t>My expectations were more because it was Marriott and I had stayed earlier in other Marriott hotels which were really good but this is very poor hotel so dont go by the name.First, In my room A/C was very noisy, noise was so harsh and loud that I woke up many times in night. After paying high prices at least I expect peaceful sleep. Second, breakfast quality was very poor - had very few options so don't expect much when you book this hotel.Third, plates in the kitchen were not clean properly.Marriott hotels are now out of my list and will not recommend this hotel to anyone.More</t>
   </si>
   <si>
+    <t>tolket</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r220997545-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -1256,6 +1391,9 @@
     <t>My family stayed here for a wedding weekend. It's a great location and next to a Pavilions which is great for groceries. Lots of kids here for summer, and we heard then running through hallways and in the room above us. Try to get a top floor, but beware the painfully slow elevator or take the stairs.  We loved the one bedroom with door for baby to sleep. There was some hair in the bathroom and the shower did not drain fast which is always a little disgusting, but tolerable. More</t>
   </si>
   <si>
+    <t>KEE_12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r219347572-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -1272,6 +1410,9 @@
   </si>
   <si>
     <t>I just spent four nights at this hotel and was very pleased. I arrived and couldn't get my requested room on the top floor. Ray, the front desk clerk, made it happen for me. I had to wait 10 minutes, and give up my suite for a studio, but I much prefer the top floor at any hotel. The room was plenty spacious, with a kitchen and king sized bed. The breakfast was pretty good...the selections were a bit limited but I didn't go hungry. I didn't partake in the night social hour foods but did check it out and again, the selection was limited but you wouldn't go hungry. The hotel also had a great location within walking distance of BJ's, Target, Chipotle, and the grocery store Pavillions. The pool was small but it was in the 90s and it felt great! Ray also helped me out when I couldn't get my Disneyland ticket to print on their computer and actually printed it out on his business email.Overall, I would definitely stay here again and hope to get the chance!More</t>
+  </si>
+  <si>
+    <t>pyctravellingman</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r218528992-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
@@ -1307,6 +1448,9 @@
 Our suite was a bit tired...Stayed 7 nights in July 2014.We always try to stay at Residence Inns because of their consistent standard of family friendly spacious two bedroom suites and hotel facilities.  This hotel is located in a quiet residential area with numerous restaurants and various stores within the immediate area.  Ask reception for a copy of their detailed (8 pages printed on both sides) list of local restaurants that also includes directions to/from the restaurants.We found this Residence Inn significantly cheaper than hotels that are within walking distance of Disneyland.  In our case we saved over $125 per night (two bedroom suite) compared with the Residence Inn Maingate.  Disneyland is an easy 20-25 minutes drive away.  We also visited Santa Monica and the Aquarium by the Pacific at Long Beach.  Both were an hour away.  Check-in/out was quick and easy.  The reception staff were extremely friendly and helpful.The two bedroom suite is ideal for families and includes two full sized bedrooms, each with full shower/bath bathroom, separated by an open plan living/dining/kitchen area.  The kitchen has a full sized fridge, stove, microwave and dishwasher.  Ample dishes, glassware, cutlery, cooking dishes etc. are provided.  Each bedroom and the living area has a flat screen TV.  There is also an in-room safe large enough for several iPads/laptops, cameras, passports, etc.  Each suite has individual air con/heating controls.  The free WiFi is good but occasionally dropped out.Our suite was a bit tired and there were a number of minor maintenance issues (both bath faucets would not completely turn off, the inside suite door handle fell off but just needed the screw found on the floor screwed back in, the dish rack in the dishwasher was missing a wheel).  The suite was serviced daily and was reasonably clean.Being located in a residential area, there was no external noise.  However we often heard our upstairs neighbours which sometimes sounded like they were moving all of the furniture around.The kids enjoyed the outside pool.  There is a coin operated guest laundry room ($1.25 per wash and per dry).  There is ample free off street parking.Buffet style breakfast is included in the room rate.  Guests are allowed to take food back to their rooms but on most days there was a shortage of trays which made this a bit of a challenge.  There is a wide choice of hot and cold food and beverages.  The dining area is really too small for the number of rooms.  Weekdays were not too bad but on weekends breakfast was total chaos with staff struggling to keep up replenishing food etc. and long queues.Overall, we were satisfied with our stay and would certainly consider staying here again.  Recommended based upon value for money, convenient location and standard Residence Inn suites and facilities.More</t>
   </si>
   <si>
+    <t>Estev0</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r213781187-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -1334,6 +1478,9 @@
     <t>This was very suitable for our needs. The room was nice and the setting good. it is within walking distance of some shops and eating places and a cinema.The room was clean and nice. The only disappointment was breakfast. I like a healthy breakfast and was not able to find this here.More</t>
   </si>
   <si>
+    <t>familyoffourlovetrav</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r204284918-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -1358,6 +1505,9 @@
     <t>Convenient restaurants and grocery within walking distance. Beds very comfortable.Furniture and baths were worn and dated. Smoke detector hung from ceiling. Disappointed for a $195/nt Marriott. But breakfast was good, staff was friendly and location was convenient.More</t>
   </si>
   <si>
+    <t>nara_NY</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r201987390-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -1379,6 +1529,9 @@
     <t>This hotel served as our base for our Disney trip.  Compared to the  hotels in the immediate vicinity of Disney land- this had a few pluses -(1) it was 25-30$ cheaper (2) No Parking fees (3) No Fees for wifi. Plus a breakfast buffet is included. The hotel comes with the usual Residence inn facilities- Pool/Gym/Laundry. There is a Complimentary dinner on some days- but we did not use that. Great Location - there is a nearby Mall with some good stores. Safe neighborhood. Drive to Disney and other attractions was about 15 min.More</t>
   </si>
   <si>
+    <t>Stitch7264</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r199722096-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -1397,6 +1550,9 @@
     <t>My husband and I stayed here for a couple of nights in a studio.  The room is small but good enough for two people.  We liked the area very much because it is in a very quiet neighborhood and it has a very nice view.  Next to the hotel is Pavilion to buy groceries or Chinese food.  You can also do a little shopping.  The location is convenient to the theme parks.The breakfast was okay.  There were bagels, muffins, oatmeal, bread, waffles, scrambled eggs, croissantwich one day and toasted muffins with Canadian bacon and egg another day.  There were also fresh bananas and apples as well as canned fruits.More</t>
   </si>
   <si>
+    <t>357LauraS357</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r199673801-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -1415,6 +1571,9 @@
     <t>The room was clean and close to Disney. The description of the room said fireplace but there was not one in my room and after a plane flight and a day at Disney was not going to switch rooms. Also the free breakfast did not have much to choose from but there was some type of youth basketball team staying there and only one person trying to keep up on bringing out food so you can imagine there was nothing left. Free Wi Fi and parking make it a good deal.More</t>
   </si>
   <si>
+    <t>Jillian J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r199161433-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -1431,6 +1590,9 @@
   </si>
   <si>
     <t>First off let me say I have never written a bad review for anything.  Usually I am pretty easy to please, so when we checked into our room at this hotel we were so impressed at how clean everything "looked".  The next morning when we woke up I had a few bites on my sides and stomach.  We thought it was weird but didn't give it much thought.  The second morning my kids and husband woke up with a few bites and I woke up with even more.  We had no idea what it would be and just wondered if it was due to climate change or something?  On the final morning, the morning we checked out, I looked like I had been attacked by something all over my stomach, back, sides and arms!  We were excited to get to Disneyland that morning and didn't have much time to do research.  That night after a busy day and being extremely itchy and sore where the bites were, I decided to start doing some research on what it might be.  Bed bugs.  It kept coming up again and again with pictures that looked extremely similar to ours.  My husband called the Manager the following morning and he informed us that there was already a new family checked into our room, and wouldn't be leaving for 3 more days. He wasn't going to ruin their vacation by asking them to move..... um...First off let me say I have never written a bad review for anything.  Usually I am pretty easy to please, so when we checked into our room at this hotel we were so impressed at how clean everything "looked".  The next morning when we woke up I had a few bites on my sides and stomach.  We thought it was weird but didn't give it much thought.  The second morning my kids and husband woke up with a few bites and I woke up with even more.  We had no idea what it would be and just wondered if it was due to climate change or something?  On the final morning, the morning we checked out, I looked like I had been attacked by something all over my stomach, back, sides and arms!  We were excited to get to Disneyland that morning and didn't have much time to do research.  That night after a busy day and being extremely itchy and sore where the bites were, I decided to start doing some research on what it might be.  Bed bugs.  It kept coming up again and again with pictures that looked extremely similar to ours.  My husband called the Manager the following morning and he informed us that there was already a new family checked into our room, and wouldn't be leaving for 3 more days. He wasn't going to ruin their vacation by asking them to move..... um pretty sure their vacation will be ruined if they get bit all over!  But for some reason...??? the family decided to check out 3 days early, and he had the room inspected all in the same day.  Which of course found no bed bugs.  I was never offered any compensation for the nights we spent there.  The whole thing was a nightmare.  I am glad we found out what it was before we got home.  We had to throw away pillows and suitcases, as well as clean all our clothes that might have brought them home with us.  In our absolute opinion these were indeed bed bugs.  But of course no hotel will admit to that right? I have included a photo of one of my arms.  This spot had the least amount of bites but didn't want to put an inappropriate photo up :)More</t>
+  </si>
+  <si>
+    <t>TravelJem</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r195840039-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
@@ -1470,6 +1632,9 @@
 We spent a lot of time on the out door couches or entertaining in the breakfast room. The manager was...We just got home from a week stay in Southern California. We were in town to visit my dad and wanted to spend time at Disneyland as well. We usually stay in the resort area but chose this place for two reasons, the price for a two bedroom suite and the proximity to Yorba Linda. It was about a 20 minute drive to Disneyland and is situated by a great shopping center with Target, an upscale grocery store and several great restaurants.The rooms are almost as nice as the photos. Although my daughter is in a wheelchair we don't require a handicap accessible room. We were so tired when we checked in that we just went with it.We had the two bedroom, two bath suite. It has a full kitchen and a pull out sofa bed between the two rooms. Our youngest daughter slept in the middle room while our daughter and her husband had their own area. The breakfast wasn't spectacular but there was variety. Basic scrambled eggs, breakfast meat. potatoes, waffles and a rotating choice each day of breakfast burritos or sandwiches as well as the usual continental fare. We were able to get a decent meal before starting the day.We made use of the kitchen as well as the community grill by the pool. We spent a lot of time on the out door couches or entertaining in the breakfast room. The manager was very accommodating. We caught up with friends and family over a meal.The housekeepers were very good. Everything was really clean. They ran our dishwasher everyday and even put our dishes away a couple of times.I wouldn't hesitate staying here again. It was nice to stay out of the hustle and bustle of the parks. It was close enough but far enough away to get a good deal.More</t>
   </si>
   <si>
+    <t>yvrtravelguy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r194133869-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -1497,6 +1662,9 @@
     <t>Second stay in just over a year, but likely would not stay here again. The beds are not up to par with other Marriott properties. Woke up with a achy back each day we stayed. Rooms are quiet from other rooms in the property. Two bedrooms per large suite separated by a living room with electric fireplace, kitchen and eating area. TV's in each bedroom and in living area. Pool is heated. Hottub, while small, is good. Free breakfast is ample but seems small size for the amount of rooms and guests. Staff is very friendly and helpful. Location is close to shopping, restaurants, and major freeways. Rate was not discounted like first stay. Given the price I would not stay here again.More</t>
   </si>
   <si>
+    <t>ColoradoDesperado</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r191143160-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -1524,6 +1692,9 @@
     <t>We were impressed with this Inn in every way. The location is convenient to the freeway, yet positioned on a quiet street and backed by a canyon open space. There is a nice shopping mall adjacent for shopping and dining. The staff is consistently very friendly from housekeeping to front office to breakfast service. And speaking of breakfast, our experience was just great. Great choices of fresh food and a hot selection rotated daily. We loved it! The 2 BR suite was well appointed with fireplace and full kitchen. Great to have an icemaker handy for our cold beverages. Beds were excellent, shower heads were perfect and the broadband speeds were outstanding. This Inn is well managed. Highly recommended.More</t>
   </si>
   <si>
+    <t>LVnana16</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r186374522-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -1539,6 +1710,9 @@
     <t xml:space="preserve">The usual great Marriott service and comfort. The breakfast is wonderful and seems to accommodate everyone. You can walk to Disneyland, although there is a shuttle that runs every 20 minutes. There is a fee, and you can buy passes at the hotel. There are also several good restaurants within walking distance. A Disney desk is located on property, where you can buy tickets and get all kinds of information. The perfect place to stay when visiting Disneyland. </t>
   </si>
   <si>
+    <t>RM T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r185648899-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -1554,6 +1728,9 @@
     <t xml:space="preserve">This hotel was clean and family friendly. Located only a short drive from Disneyland. Serves a good breakfast both hot and cold choices. Shopping center with grocery market directly across from the hotel. Staff make you feel welcome and tend to your needs. Would highly recommend for a family looking for a nice, clean close to Disneyland without breaking the bank to stay. </t>
   </si>
   <si>
+    <t>Simon W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r183750637-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -1572,6 +1749,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>Jagwave</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r180118151-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -1590,6 +1770,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>seaver41</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r177450240-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -1617,6 +1800,9 @@
     <t>Stayed here in August for a baseball trip.  Booked based on TA reviews.  Location reminds me of the Brady Bunch neighborhood...beautiful and in the hills.  Nice rooms and staff was fabulous.  About a 20 minute ride to Anaheim Stadium without traffic.  Has all the basics you need.  Looked like a great family hotel (I did not travel with kids) with pool and basketball courts.  Restaurants within a short drive.  Would stay again if in the areaMore</t>
   </si>
   <si>
+    <t>ScottyJD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r175281113-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -1638,6 +1824,9 @@
     <t>This Residence Inn is on the newer side of this particular sub-chain.  I've stayed in several RI's over the past few years with varying "ages" of the buildings, but this is newer and certainly worthy of the Marriott name, though it still can't be confused with a "new" building.The room was comfortable and the service was great.The location is great, it's near everything you could need and is also a great place to stay if you're playing in a soccer tournament.The internet however was terrible.  I couldn't get above .2 Mbps and management kept telling me it was working just fine.  It wasn't fine, I ran several speedtests on several different devices and computers and it was consistently terrible.  Management couldn't do anything about it and said it was just fine.  I also kept losing any slow connection I could connect to.I'd say that I've not been impressed with Marriott internet overall, when I pay for access, it's usually poor and when I get it free...it's not much better.  Marriott is a great chain, but needs to commit resources to better internet.I loved the hotel, but was very disappointed in not having internet - with two kids on devices and no internet...it's not good.More</t>
   </si>
   <si>
+    <t>Sail2fun</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r170773976-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -1653,6 +1842,9 @@
     <t>The hotel is getting a little run down and needs a face lift.  The included breakfast could use some healthier options.  I checked in at midnight, and the clerk on duty was excellent, I am sorry I did not get his name.  He provided me with all of the information that I needed to plan my visit in the local area.  All of the staff that I interacted with were excellent.</t>
   </si>
   <si>
+    <t>willis2005</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r170707035-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -1671,6 +1863,9 @@
     <t>I stayed at this particular Residence Inn at the end of May this year.  I had come down with my best friend to attend a concert in Anaheim.  I am a Marriott gold member and am 99% faithful to the chain unless there is not a Marriott where I am staying.  I was really impressed with this particular property.  My best friend and I are shoppers so the location was amazing.  You just had to walk across the side street and there was T.J Maxx, Tuesday Morning, Target and several others.  LOVED the fact that there was at least 4 restaurants there as well.  I reserved a 1 bedroom suite.  It was great.  We were on the top floor which I always request. I try to eliminate the noise factor as much as possible.  It was very clean and perfect for the two of us.  There is a sofa bed in the living room and queen size bed in the bedroom with a flat screen T.V.  Bathroom wasn't huge but a nice vanity area and for two girls it was fine.  I like these R.I properties because of the full kitchen.  Love having a full size fridge especially.  There was a huge Pavilions grocery store across the street and I always stock up on water and other snack type foods.  Great if you have kids or traveling with pets.  The girls at the front check in desk were very nice...I stayed at this particular Residence Inn at the end of May this year.  I had come down with my best friend to attend a concert in Anaheim.  I am a Marriott gold member and am 99% faithful to the chain unless there is not a Marriott where I am staying.  I was really impressed with this particular property.  My best friend and I are shoppers so the location was amazing.  You just had to walk across the side street and there was T.J Maxx, Tuesday Morning, Target and several others.  LOVED the fact that there was at least 4 restaurants there as well.  I reserved a 1 bedroom suite.  It was great.  We were on the top floor which I always request. I try to eliminate the noise factor as much as possible.  It was very clean and perfect for the two of us.  There is a sofa bed in the living room and queen size bed in the bedroom with a flat screen T.V.  Bathroom wasn't huge but a nice vanity area and for two girls it was fine.  I like these R.I properties because of the full kitchen.  Love having a full size fridge especially.  There was a huge Pavilions grocery store across the street and I always stock up on water and other snack type foods.  Great if you have kids or traveling with pets.  The girls at the front check in desk were very nice and the breakfast was typical for the Residence inn.  I don't agree with one of the previous reviewers comment about the breakfast being different from other Residence Inns.  I have stayed at a lot of R.I properties and this breakfast was exactly the same as any other one I have stayed at. They do change the menu up a little bit daily where one day they might have breakfast burritos and the next egg mcmuffin type sandwiches.  They all have the scrambled eggs, bacon or sausage or ham, potatoes of some sort, bagels, pastries, oatmeal, cold cereal, fruit, yogurt, waffles etc.  I will definitely stay here again!More</t>
   </si>
   <si>
+    <t>dee2673</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r169977133-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -1690,6 +1885,9 @@
   </si>
   <si>
     <t>We stayed here in June for 2 nights in order to attend a high school graduation. The room was fine, not much of a view but we weren't looking for anything special. Staff was nice enough. I found the breakfast to be a cut below that of other Residence Inns but again, it was Free. We had 2 issues. One, the door does not shut automatcally, so you need to grab the handle upon exiting the room and make sure it closes! Two- We were out for most of the second day and returned about 3-ish. Our room had not been serviced. The maid knocked on our door about 30 minutes later but we were getting ready to go out again and so we told her no. For us, it didn't matter but it may be an issue for others. To be fair, they had a TON of kids staying there for some sports thing. I imagne that caused alot of extra work for the poor maids. Oftentimes, the kids are not closely supervised and leave a godawful mess.We did not complain because that's not how we roll.More</t>
+  </si>
+  <si>
+    <t>Anna C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r167438778-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
@@ -1714,6 +1912,9 @@
 The room was clean...We arrived at around 9:15pm. There were 4 people ahead of us at the front desk, but no front desk personnel to help us. We all looked at each other and waited for another 15 mins, still no one. I decided to call the hotel from the lobby and the phone rang and still no one came out to answer. I let the call rolled to the operator hoping someone would answer. No one did. But right after I hung up two young employees walked out and started checking us in, with no reason why there was no one attending to the front desk. The young lady who checked us in gave us a handicapped accessible room which would have been fine if not for the bathroom.  There was no tub shower enclosure, just one big room with the toilet right next to the shower. So you can imagine the toilet seat getting wet each time some one takes a shower. There was no place to put the toiletries, no place to put the soap. So we had to improvise and put the handicap seat/bench down and use it to put our shampoos, conditioner etc. We had to use the soap dish from the sink to put the bath soap since there was no soap holder in the shower. Breakfast was not impressive but since it's free, I can't complain. At least the coffee was decent. The room was clean but linens were very thin. Full size fridge, dishwasher and microwave in the room. Wifi access was great. Nice outdoor basketball court and pool. A little noisy if your room is on the first floor next to the court.Very convenient location with access to restaurants and grocery stores. Ample parking.More</t>
   </si>
   <si>
+    <t>Nitza_G_721</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r166363950-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -1733,6 +1934,9 @@
   </si>
   <si>
     <t>I have stayed at the Anaheim Hills Residence Inn for three months in the spring of 2013, on an academic sabbatical. The hotel was perfect for my needs. I had a one bedroom suite, fully equipped, a comfortable desk and chair, with a nice view from the fourth floor window. The high-speed Wi-Fi connection (have used multiple devices simultaneously) was excellent, both in the suite and throughout the hotel. There were two new computers with printers in the lobby, which I have used occasionally for printing. The hotel staff was proficient, friendly, and helpful. The rooms and public areas were kept very clean. There was a laundry room with two washing machines and four driers in my building. The shopping center, within five minutes walking distance, opposite the hotel was very convenient, with a Target store, a supermarket, a few restaurants, and more. The hot breakfast buffet was excellent, and the staff was doing their most to answer every request. They refilled the items constantly, kept the dining room clean and neat. During occasional busier times, I would take a tray to my suite. There were also complementary light dinners on Mondays, Tuesdays, and Wednesdays, which were not fancy, but adequate, and were always served with a friendly smile. My husband and son have stayed a short while with me, and both have enjoyed the hotel tremendously. I would definitely stay in this hotel on my next visits to the...I have stayed at the Anaheim Hills Residence Inn for three months in the spring of 2013, on an academic sabbatical. The hotel was perfect for my needs. I had a one bedroom suite, fully equipped, a comfortable desk and chair, with a nice view from the fourth floor window. The high-speed Wi-Fi connection (have used multiple devices simultaneously) was excellent, both in the suite and throughout the hotel. There were two new computers with printers in the lobby, which I have used occasionally for printing. The hotel staff was proficient, friendly, and helpful. The rooms and public areas were kept very clean. There was a laundry room with two washing machines and four driers in my building. The shopping center, within five minutes walking distance, opposite the hotel was very convenient, with a Target store, a supermarket, a few restaurants, and more. The hot breakfast buffet was excellent, and the staff was doing their most to answer every request. They refilled the items constantly, kept the dining room clean and neat. During occasional busier times, I would take a tray to my suite. There were also complementary light dinners on Mondays, Tuesdays, and Wednesdays, which were not fancy, but adequate, and were always served with a friendly smile. My husband and son have stayed a short while with me, and both have enjoyed the hotel tremendously. I would definitely stay in this hotel on my next visits to the Orange County area, and recommend it to my friends.More</t>
+  </si>
+  <si>
+    <t>BaconBurger</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r165721708-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
@@ -1757,6 +1961,9 @@
 The Bad: While close to all main LA freeways, immediate entrance is via the nasty 91 freeway which at certain times of the day is probably the most congested one in LA. LAX Airport is not very close, so if you have an...I've stayed about 3-4 days every two months since June of 2012 until summer of 2013 so far:The Good: Great location, close to stores, business office complexes I mostly go to when in the area, restaurants, attractions (Disney, etc), convention center, etc. Is next to the main LA freeways but far enough not to hear their noise, good but average breakfast, intelligent and friendly staff, spacious rooms, within walking distance of movie theaters, grocery store, restaurants (Islands, Maccarronni Grill, steak houses, etc.) and many more. A Costco and a Home Depot are just 5 min by car as well as a TGIF and others, couple of gas stations, etc. etc. Great location I must say. Even if on business, could bring the family along so they go to the amusement parks while you get work done to pay for their bills. For being in So-Cal and LA area parking is free (though not covered or not plenty of spots). Rooms as expected have a refrigerator, microwave, etc so you can simply buy stuff at the grocery store and keep it in the room or bring food to go and eat while you work in your room.The Bad: While close to all main LA freeways, immediate entrance is via the nasty 91 freeway which at certain times of the day is probably the most congested one in LA. LAX Airport is not very close, so if you have an early AM flight you'd rather stay by the airport the night before. Breakfast is average but the breakfast area is waaay to small, specially considering this hotel mixes business travelers (where we eat alone) and families (who take 2-3 tables if not more) so not only the area gets very crowded (and dirty) in the morning but also if you do meet colleagues over breakfast you'll have to deal with background noise of kids and parents arguments over typical breakfast family disputes, not to mention prompt depletion of certain foods when big parties come in and take over the breakfast area.The Ugly: None that I can think ofMore</t>
   </si>
   <si>
+    <t>lalmgren</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r159575991-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -1772,6 +1979,9 @@
     <t>My stay was very enjoyable. I had a 1 bedroom suite which included a kitchen/livingroom. There was a small dining table and good sized desk table. The room came with a sofa that folded out and a living room chair. It was spacious and comfortable for my 2 large dogs and I. Every morning there was a great breakfast buffet which was included. On Mondays, Tuesdays and Wednesdays the also had a light dinner. In walking distance (5-10 minutes) there were restraunts and a movie theater, it is located close to the fwy and is very convient . I highly recommend this hotel.</t>
   </si>
   <si>
+    <t>Carol C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r158871133-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -1790,6 +2000,9 @@
     <t>All my family members who attended the Reunion all agreed that I could not have picked a more perfect place.  The rooms were clean and spacious with full size fridges and stoves so we could pick up food - store it -  then we cooked it on the hotel's grill -- having a nice relaxing day at the pool.  Later in the evening we used the hotel's conference room to display our family tree and watch some old movies.  The manager, Mitchell Fern, even popped up some popcorn for us for the event.  I am from Wyoming so planning this event in California was a gamble.  I talked to over 20 hotels in Anaheim area and found Mitchell Fern to be the most helpful, patient and cooperative and that is why I picked this place. Other hotels gave me a better price but it is not about price it is about getting a place that makes you feel welcome.  It is not housing but hospitality. Mitchell understands this...Mitchell worked with me in telling me about the area and attractions in a truthful and honest way. He spend countless hours answering calls and email messages to get to know me and my family and it meant so much.  Thank you Thank you Thank you Mitchell Fern to helping make my family's reunion a success.  Carol &amp; All 50 of us Coccia'sMore</t>
   </si>
   <si>
+    <t>AnneCody</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r157946988-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -1808,6 +2021,9 @@
     <t>I had never stayed at a Residence Inn before but will certainly look into booking one in the future.  We had six rooms reserved for out-of-town family and friends for our son's wedding.  Not only did the rooms work great for us (having 2 BR, 2 bath rooms available at an affordable rate was really helpful), but the location is really convenient--we walked to Target, the Pavilions supermarket, and a few restaurants!  We also enjoyed using the pool and hot tub and the staff was great about letting our large group congregate in the breakfast room at odd times of day.  Best of all was the staff:  Mitchell Fern and the desk and housekeeping staff were all outstanding.  They bent over backwards to take care of our many needs (even odds and ends such as a bowl for ice to borrow for the wedding reception!).  They upgraded a room and waived the banquet room fee when one of our party had to be moved to a new room--without any request for compensation on our part at all!  We couldn't have had a better stay or been more impressed by the hotel staff.  To me, great customer service counts for a lot--it makes even a less comfortable room much more bearable--but the Residence Inn in Anaheim Hills/Yorba Linda combines wonderful location, incredibly comfortable and pleasant rooms, AND an outstanding staff for one of the best hotel stays I've ever experienced!  THANK...I had never stayed at a Residence Inn before but will certainly look into booking one in the future.  We had six rooms reserved for out-of-town family and friends for our son's wedding.  Not only did the rooms work great for us (having 2 BR, 2 bath rooms available at an affordable rate was really helpful), but the location is really convenient--we walked to Target, the Pavilions supermarket, and a few restaurants!  We also enjoyed using the pool and hot tub and the staff was great about letting our large group congregate in the breakfast room at odd times of day.  Best of all was the staff:  Mitchell Fern and the desk and housekeeping staff were all outstanding.  They bent over backwards to take care of our many needs (even odds and ends such as a bowl for ice to borrow for the wedding reception!).  They upgraded a room and waived the banquet room fee when one of our party had to be moved to a new room--without any request for compensation on our part at all!  We couldn't have had a better stay or been more impressed by the hotel staff.  To me, great customer service counts for a lot--it makes even a less comfortable room much more bearable--but the Residence Inn in Anaheim Hills/Yorba Linda combines wonderful location, incredibly comfortable and pleasant rooms, AND an outstanding staff for one of the best hotel stays I've ever experienced!  THANK YOU, Mitchell, Samantha, Brooke, and the others at the Residence Inn!More</t>
   </si>
   <si>
+    <t>varoom39m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r155743020-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -1829,6 +2045,9 @@
     <t>Was a little concerned at first we checked in, 4 people, was going to use the sofa bed, it was terrible, nothing but a sheet over springs,  but when notified in the morning, they instantly offered to move us, chose not to but asked for comforters to build it up, they bent over backwards for us, all we needed, ice maker broke in fridge, once again the staff said, just ask and we will bring it up for you ( and they did ), now for breakfast,  ordinary breakfast, was good, but the staff jumped when you would ask for something low, they RUSHED to fill it, and even delivered to your table, Best staff ever for breakfast, not to mention main staffMore</t>
   </si>
   <si>
+    <t>Carol B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r155068341-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -1847,6 +2066,9 @@
     <t>Enjoyed a pleasant stay at the hotel and found everything to our liking even though we are very picky travelers. The spacious suite with full kitchenette was excellent and the night manager was most helpful in directing us to some great local restaurants. All was well until I returned home and could not locate my small jewelry bag which I immediately reported to the hotel. I promptly received a return call from the Manager, Fern Mitchell, who listened patiently and took my charges seriously while I was jumping to conclusions and making accusations. Although he had the utmost confidence in his staff, he also expressed genuine concern for my loss and offered to conduct a thorough investigation. As a result, there was no evidence or reason to implicate any hotel staff but he proposed a generous good will gesture which I readily accepted. He went above and beyone anything I had expected. However, I was humbled and embarrassed the next day when I found the jewelry safely tucked away in my travel bag! And, of course, Mr. Mitchell was magnanimous in accepting my deepest apologies (lesson learned!). Both the hotel and management score a perfect ten in my book!  Carol NBMore</t>
   </si>
   <si>
+    <t>MummyC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r154555868-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -1865,6 +2087,9 @@
     <t>My boys and I have just returned from a week visiting family in Anaheim Hills. This is the second time we have stayed at this hotel, and once again we were more than satisfied. Our rooms were spotlessly clean and spacious. The beds were extremely comfortable and the sheets crisp and snowy white. All employees around the hotel are friendly and polite, and all (minor) issues were resolved quickly. The pool and hot tub are great for the kids, although not kept as clean off season as they were when we visited in the summer. Breakfast offers a good selection of items, both hot and cold, and snacks are available for sale at reception. The hotel offers a grocery shopping service and coin-operated laundry facilities which are very handy. All in all, a very good stay.More</t>
   </si>
   <si>
+    <t>dennis h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r147446799-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -1926,6 +2151,9 @@
   </si>
   <si>
     <t>I booked the room on 9-2-2012 for a stay on 9-23 (3 weeks later) using Marriott Rewards points. When we checked in and got to our room it was very hot (90 degree temperature the previous days which is very rare for that area.  I used to live less than a mile away so know this is unusual). There was a portable AC in the room.  I turned it on and set it to 60 degrees and high fan and then went to turn on the thermostat for the regular AC and it was dead.  I asked an employee in the hallway what was wrong with the hotel air conditioning and he said it was out, leading me to believe this was true for the entire building. I noticed the temperature on the thermostat in the hallway read 81 degrees.  Later I noticed that none of the other rooms were vented for portable AC units and concluded that it was only for that room.  Asking for another room at the front desk I was told that the hotel was full and there were none available.  Had I not been using Rewards points I would have gone elsewhere but you can't just take your Marriott points to another brand hotel so we were stuck.  I'm sure the General Manager wanted money from "Paying Guests" and knew he would be paid by Marriott for the points.  The room never got below the...I booked the room on 9-2-2012 for a stay on 9-23 (3 weeks later) using Marriott Rewards points. When we checked in and got to our room it was very hot (90 degree temperature the previous days which is very rare for that area.  I used to live less than a mile away so know this is unusual). There was a portable AC in the room.  I turned it on and set it to 60 degrees and high fan and then went to turn on the thermostat for the regular AC and it was dead.  I asked an employee in the hallway what was wrong with the hotel air conditioning and he said it was out, leading me to believe this was true for the entire building. I noticed the temperature on the thermostat in the hallway read 81 degrees.  Later I noticed that none of the other rooms were vented for portable AC units and concluded that it was only for that room.  Asking for another room at the front desk I was told that the hotel was full and there were none available.  Had I not been using Rewards points I would have gone elsewhere but you can't just take your Marriott points to another brand hotel so we were stuck.  I'm sure the General Manager wanted money from "Paying Guests" and knew he would be paid by Marriott for the points.  The room never got below the high eighties and the unit was noisy. I did an internet search and learned that it was designed to a single room up to 300 square feet.  It was not suited for a two room suite.The next morning, just before checking out, I met Mr. Lee, the head of engineering, he said, and he informed me that the AC unit had to be ordered from Texas and it would take 8 weeks to replace it.  I told him that the AC had been on all night set at 60 degrees and it was much hotter than in the hallway.  I asked him to verify that by coming to the room with me.  He said he was late to a meeting and it would have to wait.  I didn't believe him because if you are late to a meeting you aren't carrying a gallon jug of some chemical.I registered my complaint at the desk when I checked out and asked why they hadn't closed the room because of the heat.  She said it was closed but they opened it that night because the hotel was full.  Yeah, right!  The closed room has a portable AC in it?  But they only opened it that night?  I didn't believe her either.  I told her I had booked 3 weeks prior to arrival and was sure they weren't completely booked then, so why was I put in that room.  Her reply was she didn't block the rooms.The hotel is quite nice.  Employees are friendly, but obfuscate and deceive. I'm sure that is at the direction of the GM.  It would have been a very nice stay except one spends most time sleeping at a hotel and we couldn't do that with the AC making a racket and heat in the high eighties.If you are using Marriott Reward points go someplace else.  If you are charging to a credit card or paying cash and you get treated like this, tell them you are leaving and go someplace else.More</t>
+  </si>
+  <si>
+    <t>Dave E</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r137118659-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
@@ -1957,6 +2185,9 @@
 Mgmt conducted an investigation and concluded that the employee was in the wrong room to fix a drain problem.  She had no plumbing tools, though, only the filter.  We know she was caught in the middle of stealing from our property, but since we could not prove it, no action was taken by the manager.  Our biggest regret is that we did not call the police on the spot.  The DISHONEST EMPLOYEE is...On 8/3/2012 we checked into the Marriott Residence Inn Anaheim Hills @ 3:30pm.  At 4:00pm we went out front to meet relatives arriving from LAX.  Approx 25 min later we returned to our our room to find a female maintenance worker in the bedroom area.  Startled, she began rambling on about the drain needing fixed, while holding an air conditioning filter.  As she continued trying to convince us that the drain was backed up, I noticed my purse was not how I had left it.  My wallet was sticking half out and then I saw $30.00 lying atop our suitcase.  My purse had been left zippered shut when I left the room.  I called this to the attention of my husband, who then ordered the worker out of our room.  Checking the drain to find it working properly, we then called the front desk to complain.  Next my husband went down to speak to a mgr, who was surprised because this employee had been there 10 yrs.Mgmt conducted an investigation and concluded that the employee was in the wrong room to fix a drain problem.  She had no plumbing tools, though, only the filter.  We know she was caught in the middle of stealing from our property, but since we could not prove it, no action was taken by the manager.  Our biggest regret is that we did not call the police on the spot.  The DISHONEST EMPLOYEE is still STILL EMPLOYED there.More</t>
   </si>
   <si>
+    <t>NomadicGrl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r136783561-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -1975,6 +2206,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>Kathleen M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r136003482-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -1990,6 +2224,9 @@
     <t>Thank you for your attentive customer service in accomodating so many family members and all our children for the most memborable week of family reunion that we could have hoped for.  Your staff was great, your rooms clean and comfortable, your breakfast was delicious and bountiful.   We all had a blast and big kudos to your great hotel!</t>
   </si>
   <si>
+    <t>gary8860</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r132415966-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -2017,6 +2254,9 @@
     <t>We decided to get away from the disney corridor hotels so we looked a little further out and we struck gold with this hotel . Its only 10 minutes to Disney and the parking at the hotel is free . The property is clean , the free internet worked great for us on the first floor , the staff were great . There is ample shopping and restaurants within walking distance . The free breakfast was Ok nothing special , but hey its free. The general area around the hotel is very nice and we felt safe enough to walk to the store at night . Overall a great place to stay for a family of four . We will be back .More</t>
   </si>
   <si>
+    <t>lrcInlandEmpire_CA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r132370208-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -2029,6 +2269,9 @@
     <t>Nice suite and grounds with great location, excellent service and good rates. Enjoyed stay with grounds well kept, staff helpful.  Fantastic convenience to restaurants, shops, market, gas stations, etc. Wifi reliable, nice kitchen. All around nice stay.</t>
   </si>
   <si>
+    <t>MarylandTraveler75</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r131165590-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -2056,6 +2299,9 @@
     <t>As with essentially every other hotel within the Marriott family in which I have stayed, the room was very clean and the staff was generally professional.  But the wifi didn't work during my stay.  From the desk clerk's reaction to my inquiry, I surmised that this was a common occurrence.  Because my room had no hardwire service, there was little the desk clerk could do for me.  Without internet service, it was difficult to accomplish what I needed for the business purpose of my trip.  The rooms seem dated and worn, especially the kitchen.  The breakfast, however, was very good.  This hotel is in a good location, just off the 91 freeway and adjacent to a shopping center with a wide range of restaurant choicesMore</t>
   </si>
   <si>
+    <t>SazS123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r130412008-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -2080,6 +2326,9 @@
     <t>Nice location, but the hotel is a little tired and the rooms could do with a deep clean rather than just a surface clean. The clock radio was broken in one room and the shower and toilet were blocked in one of the bathrooms. Having said that, when we called up reception to tell them, someone came up straight away to sort it. Breakfast was virtually the same every day (except the hot items which were swapped sausage for bacon, etc.), and could have done with a lot more variety re cereals (does anyone really eat Fruit Loops still?!), and breads / pastries. Pool area was nice. Rooms are a good size and beds were comfortable.I would stay here again, if only not to be in the chaos of the theme park areas.More</t>
   </si>
   <si>
+    <t>Ojemba</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r129535396-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -2098,6 +2347,9 @@
     <t>March 2012</t>
   </si>
   <si>
+    <t>calforniakid</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r127479331-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -2116,6 +2368,9 @@
     <t>We stayed here March 26 for 5 nights. There was a little confusion while checking in because of the promo rate I was using, but it was quickly resolved in a way that left both sides happy.  The rooms are very clean, the hotel is a little dated but kept up very nicely, and the proximatety to stores, restaurants, movie theatre, and gym is unbeatable. All literally in walking distance!  All of the staff are very friendly and seem to go the extra mile to make you happy.  My only complaint is one that's out of their control. That would be the on going freeway construction that makes for an extra long detour to head west on the 91. Going to Disneyland should have been a short 15 to 20 minute trip, but we always had to add 7 or 8 more minutes because of the detour. All in all though, I highly recommend this property to anyone whether business or vacation. Oh, they also shipped two mexican poncho's we had accidently left behind free of charge. Actually we should have been the ones paying the freight, but because the first person we talked to on the phone said they could ship it for free (he's new) they honored it. Like I said, they go the extra mile to make you happy!More</t>
   </si>
   <si>
+    <t>OnBudgetTraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r124693617-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -2134,6 +2389,9 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>Tish T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r124319420-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -2152,6 +2410,9 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>Honerism</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r122417684-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -2194,6 +2455,9 @@
     <t>My kids and I stayed here last week and overall were very satisfied with our stay. The suite was spacious and well equipped, with two double bedrooms, two bathrooms, kitchen/diner and lounge area. The kids loved the fact that there was a tv in each of the three main rooms! Plenty of closet and drawer space and plenty of hangers which is always a good thing. Fridge, oven, microwave, dishwasher, etc for easy living with good, efficient maid service daily. The pool area is relatively small but very clean and well maintained, with a nice little jacuzzi as an added bonus. Very convenient mall right across the street with cinema, fantastic supermarket, petrol station, restaurants, and clothes shops.Beware though, this is not a Disney location and that part of Anaheim is a $40 taxi ride away if you haven't got a car.The only thing that disappointed us was the breakfast selection. The hot food was very average, so I would suggest either making your own waffle or sticking to the fruit, cereal or pastries.All in all, a very pleasant stay,More</t>
   </si>
   <si>
+    <t>richfromhaw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r117086945-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -2209,6 +2473,9 @@
     <t>We (my wife, daughter and myself) just returned from a week’s stay (vacation) at the Residence Inn  Anaheim Hills-Yorba Linda. Stayed in a two bedroom unit+sitting area + kitchenette, comfortable &amp; relatively spacious for 3 people (had two bathrooms)Overall the property is clean, staff was helpful &amp; friendly, good breakfast in the morning with hot items, nice pool, plenty of parking.. Hotel is right off 91 freeway and is about 20 minute drive to Disneyland or Knott’s Berry.L.A. city (we drove in 3 times) was an hour and a half each way, not so much the distance but due to the terrible road congestion in the L.A.area. Be mindful of that if you’re planning to go into the cityWould recommend this property for stays in Orange County.More</t>
   </si>
   <si>
+    <t>Gwen88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r116594422-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -2227,6 +2494,9 @@
     <t>Good for an extended stay as it is cheaper that the other Residence Inns in the area.  It is located about 20 minutes from Disneyland and you definitely need a car to be out here.  There is a huge shopping center next door including a Pavilion grocery store, a Petco, a Target, many restaurants including a Macaroni Grill and a fantastic burger restaurant called Islands.   The complex has a small, busy pool.  The included breakfast is OK but stops early on the nose at 9:30.  Most people came and carried stuff back to their rooms since they have kitchenettes.  The staff was very nice and the rooms were generally quiet and comfortable plus it is pet friendly.More</t>
   </si>
   <si>
+    <t>Jason_Tinley_Park</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r115466956-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -2242,6 +2512,9 @@
     <t>Pros:Large suitesGreat pool areaGood serviceCons:Food was not that greatRooms are not as nice as some other suite hotelsWalls are thin</t>
   </si>
   <si>
+    <t>LindaJane80</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r115357083-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -2260,6 +2533,9 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>Kayann</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r115170963-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -2278,6 +2554,9 @@
     <t>Our family of four stayed here for four nights during the first week of July and were completely satisfied.  The one bedroom suite provided separate space for the teenagers and the parents and both the bed and sofa-sleeper were comfortable.  The kitchen was well-stocked with dishes and we appreciated that convenience for simple breakfasts and late-night snacks.  Having a clean guest laundry facility was a bonus.  The facility was very clean and the pool area was comfortable and relaxing.  Everyone on staff  was very friendly and polite, and housekeeping was excellent.  This hotel was, for us, well-situated as on different days we went to Corona in Riverside county, to Diamond Bar, Los Angeles and Anaheim - sometimes two in the same day!  There were good restaurants and a shopping center nearby and we took advantage of the nearby movie theater as well.   We'd definitely stay here again.More</t>
   </si>
   <si>
+    <t>solyuyitung</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r110920270-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -2296,6 +2575,9 @@
     <t>April 2011</t>
   </si>
   <si>
+    <t>mmnjcn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r109409135-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -2317,6 +2599,9 @@
     <t>Recently my brother and his extended family came out to Anaheim Hills for my daughter's wedding.  Jason Robinson, the Property Sales Manager at the Anaheim Hills Residence Inn,  was a great help in finding the best room reservations possible for this large group.  The rooms were great for the family; clean and spacious with a kitchen and living area.   The family really enjoyed the pool and breakfast.  They also found the hotel conveniently located to the shopping center and restaurants nearby.   My family said that they would love to stay there again on their next visit.I personally would like to thank Jason for all his help with my family's stay, his warm attitude and great customer support.More</t>
   </si>
   <si>
+    <t>RVgal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r101544204-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -2335,6 +2620,9 @@
     <t>March 2011</t>
   </si>
   <si>
+    <t>drichrx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r87066029-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -2356,6 +2644,9 @@
     <t>I have stayed here twice on business in Corona, and will return again. Against traffic, it was an easy 10 mi commute. The rooms are spacious (with full kitchen), clean, recently renovated with flat screen TV's, and the location can't be beat - next to a Pavillions (Safeway) grocery, Target, and numerous good restaurants nearby (Wood Grill, Rosines, Wild Artichoke, Yves). Plenty of parking.  Free internet was slow. Complimentary breakfast was good, but area is small so may have to take it back to room.  The location is pet-friendly, but did not notice any typical pet problems. It is non-smoking, but people were smoking just outside the main lobby. The only negative is you have to go outside to get to the clubhouse, where front desk and breakfast is located,More</t>
   </si>
   <si>
+    <t>CarpLawyer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r77692569-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -2395,6 +2686,9 @@
     <t>June 2010</t>
   </si>
   <si>
+    <t>MohDoh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r11292949-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -2411,6 +2705,9 @@
   </si>
   <si>
     <t>December 2007</t>
+  </si>
+  <si>
+    <t>lidar</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r10443536-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
@@ -2444,6 +2741,9 @@
 I have stayed at this hotel several times while visiting nearby family.  I thought about trying something new (Ayres), but saw mixed reviews.  I am glad I stayed at the Residence Inn and they have won my repeat business with this last stay.  The friendly and responsive staff,  service, location,  family friendly rooms...The Marriott Residence Inn in Anaheim Hills is a nice property.  It is newer and while the rooms are not lavish, they are quality Residence Inn style.  Lanscaping is nice and the staff is very friendly and helpful.   I booked through Marriott's website and requested an upgrade if it was available.  I booked a Studio unit and they upgraded us to a 2 bedroom unit which had a living, dining room, full kitchen, two bedrooms and two baths.  The rooms were clean, had the normal in-room amenites (ironing board, hairdryer, dataport, etc) as well as coffee/tea, popcorn.  The Kitchen had a full size fridge, dishwasher, stove, microwave and the necessary utensils.  They serve a full breakfast in the morning (7am-10am), consisting of eggs, bacon, potatoes, oatmeal, waffles, fruits, yogurt, cereals, donuts, pastries, juices, coffee, etc.   Makes for a great start in the morning.At the center of the complex is a sports court and pool.  The hotel is next to several restaurants, a movie theater and retail stores if you need anything (Mervyn's, Tuesday Morning, Target, etc).  It's about a mile from highway with easy on/off access.I have stayed at this hotel several times while visiting nearby family.  I thought about trying something new (Ayres), but saw mixed reviews.  I am glad I stayed at the Residence Inn and they have won my repeat business with this last stay.  The friendly and responsive staff,  service, location,  family friendly rooms and atmosphere make this a hotel worth staying at!More</t>
   </si>
   <si>
+    <t>yam1978</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r8022940-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
   </si>
   <si>
@@ -2457,6 +2757,9 @@
   </si>
   <si>
     <t>Very neat hotel, pleasant staff, not too much room though for the breakfast area.the room was a good size, and a very very comfortable bed, like with any other Marriotts...</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d249726-r1364297-Residence_Inn_Anaheim_Hills_Yorba_Linda-Anaheim_California.html</t>
@@ -3040,8 +3343,12 @@
       <c r="A3" t="n">
         <v>42526</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
@@ -3049,7 +3356,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -3058,25 +3365,25 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3090,15 +3397,19 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>42526</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
@@ -3106,7 +3417,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -3115,22 +3426,22 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
         <v>53</v>
@@ -3145,21 +3456,25 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>42526</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
@@ -3167,7 +3482,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -3176,25 +3491,25 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -3212,21 +3527,25 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>42526</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
@@ -3234,7 +3553,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -3243,22 +3562,22 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="O6" t="s">
         <v>53</v>
@@ -3281,15 +3600,19 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>42526</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
@@ -3297,7 +3620,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -3306,22 +3629,22 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>92</v>
-      </c>
-      <c r="L7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>88</v>
       </c>
       <c r="O7" t="s">
         <v>53</v>
@@ -3338,15 +3661,19 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>42526</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
@@ -3354,7 +3681,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -3363,22 +3690,22 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="O8" t="s">
         <v>53</v>
@@ -3399,21 +3726,25 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="X8" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>42526</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
@@ -3421,7 +3752,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -3430,22 +3761,22 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="O9" t="s">
         <v>53</v>
@@ -3460,21 +3791,25 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="X9" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Y9" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>42526</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>119</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
@@ -3482,7 +3817,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -3491,25 +3826,25 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="K10" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>115</v>
       </c>
-      <c r="L10" t="s">
-        <v>116</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>108</v>
-      </c>
       <c r="O10" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -3527,21 +3862,25 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="X10" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="Y10" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>42526</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
@@ -3549,7 +3888,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -3558,25 +3897,25 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="K11" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -3594,21 +3933,25 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="X11" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="Y11" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>42526</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>139</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
@@ -3616,7 +3959,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -3625,22 +3968,22 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="J12" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="L12" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="O12" t="s">
         <v>53</v>
@@ -3663,15 +4006,19 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>42526</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
@@ -3679,7 +4026,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -3688,25 +4035,25 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="J13" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K13" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="L13" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="O13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -3724,21 +4071,25 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="X13" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="Y13" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>42526</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>157</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
@@ -3746,7 +4097,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -3755,22 +4106,22 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="J14" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="K14" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="O14" t="s">
         <v>53</v>
@@ -3785,21 +4136,25 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="X14" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="Y14" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>42526</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>166</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
@@ -3807,7 +4162,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -3816,25 +4171,25 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="J15" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="K15" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="O15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
@@ -3852,21 +4207,25 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="X15" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="Y15" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>42526</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>173</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
@@ -3874,7 +4233,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -3883,25 +4242,25 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="J16" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="K16" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="L16" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="O16" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -3919,21 +4278,25 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="X16" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="Y16" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>42526</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>181</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
@@ -3941,7 +4304,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -3950,22 +4313,22 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="J17" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="K17" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="O17" t="s">
         <v>53</v>
@@ -3986,21 +4349,25 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="X17" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="Y17" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>42526</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>189</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
@@ -4008,7 +4375,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -4017,22 +4384,22 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J18" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="K18" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="O18" t="s">
         <v>53</v>
@@ -4051,21 +4418,25 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="X18" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="Y18" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>42526</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>197</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
@@ -4073,7 +4444,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -4082,22 +4453,22 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="J19" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K19" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="L19" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="O19" t="s">
         <v>53</v>
@@ -4118,21 +4489,25 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="X19" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="Y19" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>42526</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>205</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
@@ -4140,7 +4515,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -4149,22 +4524,22 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="J20" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="K20" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="L20" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="O20" t="s">
         <v>53</v>
@@ -4187,15 +4562,19 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>42526</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>212</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
@@ -4203,7 +4582,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -4212,25 +4591,25 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="J21" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="K21" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="O21" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -4246,21 +4625,25 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="X21" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="Y21" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>42526</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>222</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
@@ -4268,7 +4651,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -4277,25 +4660,25 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="J22" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="K22" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="L22" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="O22" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -4311,21 +4694,25 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="X22" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="Y22" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>42526</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>229</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
@@ -4333,7 +4720,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -4342,25 +4729,25 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="J23" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="K23" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="L23" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="O23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -4376,21 +4763,25 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="X23" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="Y23" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>42526</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>237</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
@@ -4398,7 +4789,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -4407,22 +4798,22 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="J24" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="K24" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="O24" t="s">
         <v>53</v>
@@ -4437,21 +4828,25 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="X24" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="Y24" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>42526</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
@@ -4459,7 +4854,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -4468,22 +4863,22 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="J25" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="K25" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="L25" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="O25" t="s">
         <v>53</v>
@@ -4498,21 +4893,25 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="X25" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="Y25" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>42526</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>251</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
@@ -4520,7 +4919,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -4529,25 +4928,25 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="J26" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="K26" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="L26" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="O26" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4561,15 +4960,19 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>42526</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>259</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
@@ -4577,7 +4980,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -4586,25 +4989,25 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="J27" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="K27" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="L27" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="O27" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -4624,15 +5027,19 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>42526</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>267</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
@@ -4640,7 +5047,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -4649,25 +5056,25 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="J28" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="K28" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="L28" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="O28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4685,15 +5092,19 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>42526</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>157</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
@@ -4701,7 +5112,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -4710,22 +5121,22 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="J29" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="K29" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="O29" t="s">
         <v>53</v>
@@ -4744,21 +5155,25 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="X29" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="Y29" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>42526</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>282</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
@@ -4766,7 +5181,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -4775,25 +5190,25 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="J30" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="K30" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="L30" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="O30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -4809,21 +5224,25 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="X30" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="Y30" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>42526</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>291</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
@@ -4831,7 +5250,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -4840,22 +5259,22 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="J31" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="K31" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="L31" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="O31" t="s">
         <v>53</v>
@@ -4870,21 +5289,25 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="X31" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="Y31" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>42526</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>267</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
@@ -4892,7 +5315,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -4901,25 +5324,25 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="J32" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="K32" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="L32" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="O32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4935,21 +5358,25 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="X32" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="Y32" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>42526</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>308</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
@@ -4957,7 +5384,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -4966,22 +5393,22 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="J33" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="K33" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="L33" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="O33" t="s">
         <v>53</v>
@@ -5002,15 +5429,19 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>42526</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>315</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
@@ -5018,7 +5449,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -5027,25 +5458,25 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="J34" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="K34" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="L34" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="O34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -5057,21 +5488,25 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="X34" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="Y34" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>42526</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>324</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
@@ -5079,7 +5514,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -5088,25 +5523,25 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="J35" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="K35" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="L35" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="O35" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -5124,21 +5559,25 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="X35" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="Y35" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>42526</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>334</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
@@ -5146,7 +5585,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -5155,25 +5594,25 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="J36" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="K36" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="L36" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="O36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -5189,21 +5628,25 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="X36" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="Y36" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>42526</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>343</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
@@ -5211,7 +5654,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -5220,25 +5663,25 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="J37" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="K37" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="L37" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="O37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -5256,21 +5699,25 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="X37" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="Y37" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>42526</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>350</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
@@ -5278,7 +5725,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -5287,25 +5734,25 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="J38" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="K38" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="L38" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="O38" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -5323,21 +5770,25 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="X38" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="Y38" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>42526</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>358</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
@@ -5345,7 +5796,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -5354,25 +5805,25 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="J39" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="K39" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="L39" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="O39" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
@@ -5390,21 +5841,25 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="X39" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="Y39" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>42526</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>368</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
@@ -5412,7 +5867,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -5421,25 +5876,25 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="J40" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="K40" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="L40" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="O40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5453,15 +5908,19 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>42526</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>375</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
@@ -5469,7 +5928,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -5478,25 +5937,25 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="J41" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="K41" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="L41" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="O41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -5514,15 +5973,19 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>42526</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>382</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
@@ -5530,7 +5993,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -5539,25 +6002,25 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="J42" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="K42" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="L42" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="O42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -5577,15 +6040,19 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>42526</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>388</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
@@ -5593,7 +6060,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -5602,25 +6069,25 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="J43" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="K43" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="L43" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="O43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -5640,15 +6107,19 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>42526</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>396</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
@@ -5656,7 +6127,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -5665,25 +6136,25 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="J44" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="K44" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="L44" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="O44" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P44" t="n">
         <v>3</v>
@@ -5701,21 +6172,25 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="X44" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="Y44" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>42526</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>405</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
@@ -5723,7 +6198,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -5732,16 +6207,16 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="J45" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="K45" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="L45" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
@@ -5760,15 +6235,19 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>42526</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>412</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
@@ -5776,7 +6255,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -5785,25 +6264,25 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="J46" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="K46" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="L46" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="O46" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5815,21 +6294,25 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="X46" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="Y46" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>42526</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>422</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
@@ -5837,7 +6320,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -5846,25 +6329,25 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="J47" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="K47" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="L47" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="O47" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
@@ -5882,21 +6365,25 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="X47" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="Y47" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>42526</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>430</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
@@ -5904,7 +6391,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5913,25 +6400,25 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="J48" t="s">
-        <v>390</v>
+        <v>433</v>
       </c>
       <c r="K48" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="L48" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="O48" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5949,21 +6436,25 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="X48" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="Y48" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>42526</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>439</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
@@ -5971,7 +6462,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5980,25 +6471,25 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>397</v>
+        <v>441</v>
       </c>
       <c r="J49" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="K49" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
       <c r="L49" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="M49" t="n">
         <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="O49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -6016,21 +6507,25 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="X49" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="Y49" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>42526</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>446</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
@@ -6038,7 +6533,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>402</v>
+        <v>447</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -6047,16 +6542,16 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>403</v>
+        <v>448</v>
       </c>
       <c r="J50" t="s">
-        <v>404</v>
+        <v>449</v>
       </c>
       <c r="K50" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="L50" t="s">
-        <v>406</v>
+        <v>451</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
@@ -6073,21 +6568,25 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="X50" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="Y50" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>42526</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>455</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
@@ -6095,7 +6594,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>410</v>
+        <v>456</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -6104,22 +6603,22 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>411</v>
+        <v>457</v>
       </c>
       <c r="J51" t="s">
-        <v>412</v>
+        <v>458</v>
       </c>
       <c r="K51" t="s">
-        <v>413</v>
+        <v>459</v>
       </c>
       <c r="L51" t="s">
-        <v>414</v>
+        <v>460</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="O51" t="s">
         <v>53</v>
@@ -6138,21 +6637,25 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="X51" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="Y51" t="s">
-        <v>415</v>
+        <v>461</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>42526</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>462</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
@@ -6160,7 +6663,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>416</v>
+        <v>463</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -6169,25 +6672,25 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>417</v>
+        <v>464</v>
       </c>
       <c r="J52" t="s">
-        <v>418</v>
+        <v>465</v>
       </c>
       <c r="K52" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
       <c r="L52" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>421</v>
+        <v>468</v>
       </c>
       <c r="O52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -6205,21 +6708,25 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="X52" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="Y52" t="s">
-        <v>422</v>
+        <v>469</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>42526</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>470</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
@@ -6227,7 +6734,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>423</v>
+        <v>471</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -6236,22 +6743,22 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>424</v>
+        <v>472</v>
       </c>
       <c r="J53" t="s">
-        <v>425</v>
+        <v>473</v>
       </c>
       <c r="K53" t="s">
-        <v>426</v>
+        <v>474</v>
       </c>
       <c r="L53" t="s">
-        <v>427</v>
+        <v>475</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
       <c r="O53" t="s">
         <v>53</v>
@@ -6276,21 +6783,25 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
       <c r="X53" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
       <c r="Y53" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>42526</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>480</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
@@ -6298,7 +6809,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>432</v>
+        <v>481</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -6307,16 +6818,16 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
       <c r="J54" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="K54" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
       <c r="L54" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
@@ -6343,21 +6854,25 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="X54" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="Y54" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>42526</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>489</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
@@ -6365,7 +6880,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>440</v>
+        <v>490</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -6374,25 +6889,25 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>441</v>
+        <v>491</v>
       </c>
       <c r="J55" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
       <c r="K55" t="s">
-        <v>443</v>
+        <v>493</v>
       </c>
       <c r="L55" t="s">
-        <v>444</v>
+        <v>494</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>445</v>
+        <v>495</v>
       </c>
       <c r="O55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -6414,21 +6929,25 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="X55" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="Y55" t="s">
-        <v>446</v>
+        <v>496</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>42526</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>497</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
@@ -6436,7 +6955,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>447</v>
+        <v>498</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -6445,16 +6964,16 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>448</v>
+        <v>499</v>
       </c>
       <c r="J56" t="s">
-        <v>449</v>
+        <v>500</v>
       </c>
       <c r="K56" t="s">
-        <v>450</v>
+        <v>501</v>
       </c>
       <c r="L56" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
@@ -6481,21 +7000,25 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="X56" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="Y56" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>42526</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>504</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
@@ -6503,7 +7026,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>453</v>
+        <v>505</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -6512,25 +7035,25 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>454</v>
+        <v>506</v>
       </c>
       <c r="J57" t="s">
-        <v>449</v>
+        <v>500</v>
       </c>
       <c r="K57" t="s">
-        <v>455</v>
+        <v>507</v>
       </c>
       <c r="L57" t="s">
-        <v>456</v>
+        <v>508</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>457</v>
+        <v>509</v>
       </c>
       <c r="O57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6552,21 +7075,25 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="X57" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="Y57" t="s">
-        <v>458</v>
+        <v>510</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>42526</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>511</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
@@ -6574,7 +7101,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>459</v>
+        <v>512</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -6583,25 +7110,25 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>460</v>
+        <v>513</v>
       </c>
       <c r="J58" t="s">
-        <v>461</v>
+        <v>514</v>
       </c>
       <c r="K58" t="s">
-        <v>462</v>
+        <v>515</v>
       </c>
       <c r="L58" t="s">
-        <v>463</v>
+        <v>516</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>457</v>
+        <v>509</v>
       </c>
       <c r="O58" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6615,15 +7142,19 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>464</v>
+        <v>517</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>42526</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>518</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
@@ -6631,7 +7162,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -6640,25 +7171,25 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>466</v>
+        <v>520</v>
       </c>
       <c r="J59" t="s">
-        <v>467</v>
+        <v>521</v>
       </c>
       <c r="K59" t="s">
-        <v>468</v>
+        <v>522</v>
       </c>
       <c r="L59" t="s">
-        <v>469</v>
+        <v>523</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>470</v>
+        <v>524</v>
       </c>
       <c r="O59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -6680,21 +7211,25 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>471</v>
+        <v>525</v>
       </c>
       <c r="X59" t="s">
-        <v>472</v>
+        <v>526</v>
       </c>
       <c r="Y59" t="s">
-        <v>473</v>
+        <v>527</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>42526</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>528</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
@@ -6702,7 +7237,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>474</v>
+        <v>529</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -6711,25 +7246,25 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
       <c r="J60" t="s">
-        <v>476</v>
+        <v>531</v>
       </c>
       <c r="K60" t="s">
-        <v>477</v>
+        <v>532</v>
       </c>
       <c r="L60" t="s">
-        <v>478</v>
+        <v>533</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>479</v>
+        <v>534</v>
       </c>
       <c r="O60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P60" t="n">
         <v>3</v>
@@ -6751,21 +7286,25 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="X60" t="s">
-        <v>481</v>
+        <v>536</v>
       </c>
       <c r="Y60" t="s">
-        <v>482</v>
+        <v>537</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>42526</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>538</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
@@ -6773,7 +7312,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>483</v>
+        <v>539</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -6782,25 +7321,25 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>484</v>
+        <v>540</v>
       </c>
       <c r="J61" t="s">
-        <v>485</v>
+        <v>541</v>
       </c>
       <c r="K61" t="s">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="L61" t="s">
-        <v>487</v>
+        <v>543</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>488</v>
+        <v>544</v>
       </c>
       <c r="O61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6822,21 +7361,25 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>489</v>
+        <v>545</v>
       </c>
       <c r="X61" t="s">
-        <v>490</v>
+        <v>546</v>
       </c>
       <c r="Y61" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>42526</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>548</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
@@ -6844,7 +7387,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>492</v>
+        <v>549</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -6853,16 +7396,16 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>493</v>
+        <v>550</v>
       </c>
       <c r="J62" t="s">
-        <v>494</v>
+        <v>551</v>
       </c>
       <c r="K62" t="s">
-        <v>495</v>
+        <v>552</v>
       </c>
       <c r="L62" t="s">
-        <v>496</v>
+        <v>553</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
@@ -6881,15 +7424,19 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>496</v>
+        <v>553</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>42526</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>554</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
@@ -6897,7 +7444,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>497</v>
+        <v>555</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -6906,16 +7453,16 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>498</v>
+        <v>556</v>
       </c>
       <c r="J63" t="s">
-        <v>499</v>
+        <v>557</v>
       </c>
       <c r="K63" t="s">
-        <v>500</v>
+        <v>558</v>
       </c>
       <c r="L63" t="s">
-        <v>501</v>
+        <v>559</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
@@ -6934,15 +7481,19 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>501</v>
+        <v>559</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>42526</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>560</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
@@ -6950,7 +7501,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>502</v>
+        <v>561</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -6959,25 +7510,25 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>503</v>
+        <v>562</v>
       </c>
       <c r="J64" t="s">
-        <v>504</v>
+        <v>563</v>
       </c>
       <c r="K64" t="s">
-        <v>505</v>
+        <v>564</v>
       </c>
       <c r="L64" t="s">
-        <v>506</v>
+        <v>565</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>507</v>
+        <v>566</v>
       </c>
       <c r="O64" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -7001,15 +7552,19 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>506</v>
+        <v>565</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>42526</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>567</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
@@ -7017,7 +7572,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>508</v>
+        <v>568</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -7026,22 +7581,22 @@
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>509</v>
+        <v>569</v>
       </c>
       <c r="J65" t="s">
-        <v>510</v>
+        <v>570</v>
       </c>
       <c r="K65" t="s">
-        <v>511</v>
+        <v>571</v>
       </c>
       <c r="L65" t="s">
-        <v>512</v>
+        <v>572</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>513</v>
+        <v>573</v>
       </c>
       <c r="O65" t="s">
         <v>53</v>
@@ -7068,15 +7623,19 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>512</v>
+        <v>572</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>42526</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>574</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
@@ -7084,7 +7643,7 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>514</v>
+        <v>575</v>
       </c>
       <c r="G66" t="s">
         <v>46</v>
@@ -7093,25 +7652,25 @@
         <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>515</v>
+        <v>576</v>
       </c>
       <c r="J66" t="s">
-        <v>516</v>
+        <v>577</v>
       </c>
       <c r="K66" t="s">
-        <v>517</v>
+        <v>578</v>
       </c>
       <c r="L66" t="s">
-        <v>518</v>
+        <v>579</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>519</v>
+        <v>580</v>
       </c>
       <c r="O66" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -7123,21 +7682,25 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>520</v>
+        <v>581</v>
       </c>
       <c r="X66" t="s">
-        <v>521</v>
+        <v>582</v>
       </c>
       <c r="Y66" t="s">
-        <v>522</v>
+        <v>583</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>42526</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>584</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
@@ -7145,7 +7708,7 @@
         <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>523</v>
+        <v>585</v>
       </c>
       <c r="G67" t="s">
         <v>46</v>
@@ -7154,25 +7717,25 @@
         <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>524</v>
+        <v>586</v>
       </c>
       <c r="J67" t="s">
-        <v>525</v>
+        <v>587</v>
       </c>
       <c r="K67" t="s">
-        <v>526</v>
+        <v>588</v>
       </c>
       <c r="L67" t="s">
-        <v>527</v>
+        <v>589</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>528</v>
+        <v>590</v>
       </c>
       <c r="O67" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -7196,15 +7759,19 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>529</v>
+        <v>591</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>42526</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>592</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
@@ -7212,7 +7779,7 @@
         <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>530</v>
+        <v>593</v>
       </c>
       <c r="G68" t="s">
         <v>46</v>
@@ -7221,25 +7788,25 @@
         <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="J68" t="s">
-        <v>532</v>
+        <v>595</v>
       </c>
       <c r="K68" t="s">
-        <v>533</v>
+        <v>596</v>
       </c>
       <c r="L68" t="s">
-        <v>534</v>
+        <v>597</v>
       </c>
       <c r="M68" t="n">
         <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>519</v>
+        <v>580</v>
       </c>
       <c r="O68" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P68" t="n">
         <v>3</v>
@@ -7263,15 +7830,19 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>534</v>
+        <v>597</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>42526</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>598</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
@@ -7279,7 +7850,7 @@
         <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>535</v>
+        <v>599</v>
       </c>
       <c r="G69" t="s">
         <v>46</v>
@@ -7288,25 +7859,25 @@
         <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>536</v>
+        <v>600</v>
       </c>
       <c r="J69" t="s">
-        <v>532</v>
+        <v>595</v>
       </c>
       <c r="K69" t="s">
-        <v>537</v>
+        <v>601</v>
       </c>
       <c r="L69" t="s">
-        <v>538</v>
+        <v>602</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>539</v>
+        <v>603</v>
       </c>
       <c r="O69" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="P69" t="n">
         <v>3</v>
@@ -7330,15 +7901,19 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>540</v>
+        <v>604</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>42526</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>605</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
@@ -7346,7 +7921,7 @@
         <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>541</v>
+        <v>606</v>
       </c>
       <c r="G70" t="s">
         <v>46</v>
@@ -7355,25 +7930,25 @@
         <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>542</v>
+        <v>607</v>
       </c>
       <c r="J70" t="s">
-        <v>543</v>
+        <v>608</v>
       </c>
       <c r="K70" t="s">
-        <v>544</v>
+        <v>609</v>
       </c>
       <c r="L70" t="s">
-        <v>545</v>
+        <v>610</v>
       </c>
       <c r="M70" t="n">
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>546</v>
+        <v>611</v>
       </c>
       <c r="O70" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7397,15 +7972,19 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>547</v>
+        <v>612</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>42526</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>613</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
@@ -7413,7 +7992,7 @@
         <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>548</v>
+        <v>614</v>
       </c>
       <c r="G71" t="s">
         <v>46</v>
@@ -7422,25 +8001,25 @@
         <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>549</v>
+        <v>615</v>
       </c>
       <c r="J71" t="s">
-        <v>550</v>
+        <v>616</v>
       </c>
       <c r="K71" t="s">
-        <v>551</v>
+        <v>617</v>
       </c>
       <c r="L71" t="s">
-        <v>552</v>
+        <v>618</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
       </c>
       <c r="N71" t="s">
-        <v>528</v>
+        <v>590</v>
       </c>
       <c r="O71" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P71" t="n">
         <v>3</v>
@@ -7464,15 +8043,19 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>553</v>
+        <v>619</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>42526</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>620</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
@@ -7480,7 +8063,7 @@
         <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>554</v>
+        <v>621</v>
       </c>
       <c r="G72" t="s">
         <v>46</v>
@@ -7489,22 +8072,22 @@
         <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>555</v>
+        <v>622</v>
       </c>
       <c r="J72" t="s">
-        <v>556</v>
+        <v>623</v>
       </c>
       <c r="K72" t="s">
-        <v>557</v>
+        <v>624</v>
       </c>
       <c r="L72" t="s">
-        <v>558</v>
+        <v>625</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>559</v>
+        <v>626</v>
       </c>
       <c r="O72" t="s">
         <v>53</v>
@@ -7531,15 +8114,19 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>560</v>
+        <v>627</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>42526</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>628</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
@@ -7547,7 +8134,7 @@
         <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>561</v>
+        <v>629</v>
       </c>
       <c r="G73" t="s">
         <v>46</v>
@@ -7556,22 +8143,22 @@
         <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>562</v>
+        <v>630</v>
       </c>
       <c r="J73" t="s">
-        <v>563</v>
+        <v>631</v>
       </c>
       <c r="K73" t="s">
-        <v>564</v>
+        <v>632</v>
       </c>
       <c r="L73" t="s">
-        <v>565</v>
+        <v>633</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>539</v>
+        <v>603</v>
       </c>
       <c r="O73" t="s">
         <v>53</v>
@@ -7598,15 +8185,19 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>566</v>
+        <v>634</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>42526</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>635</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
@@ -7614,7 +8205,7 @@
         <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>567</v>
+        <v>636</v>
       </c>
       <c r="G74" t="s">
         <v>46</v>
@@ -7623,16 +8214,16 @@
         <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>568</v>
+        <v>637</v>
       </c>
       <c r="J74" t="s">
-        <v>569</v>
+        <v>638</v>
       </c>
       <c r="K74" t="s">
-        <v>570</v>
+        <v>639</v>
       </c>
       <c r="L74" t="s">
-        <v>571</v>
+        <v>640</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
@@ -7661,15 +8252,19 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>571</v>
+        <v>640</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>42526</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>641</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
@@ -7677,7 +8272,7 @@
         <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>572</v>
+        <v>642</v>
       </c>
       <c r="G75" t="s">
         <v>46</v>
@@ -7686,25 +8281,25 @@
         <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>573</v>
+        <v>643</v>
       </c>
       <c r="J75" t="s">
-        <v>574</v>
+        <v>644</v>
       </c>
       <c r="K75" t="s">
-        <v>575</v>
+        <v>645</v>
       </c>
       <c r="L75" t="s">
-        <v>576</v>
+        <v>646</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>559</v>
+        <v>626</v>
       </c>
       <c r="O75" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7728,15 +8323,19 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>577</v>
+        <v>647</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>42526</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>648</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
@@ -7744,7 +8343,7 @@
         <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>578</v>
+        <v>649</v>
       </c>
       <c r="G76" t="s">
         <v>46</v>
@@ -7753,25 +8352,25 @@
         <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>579</v>
+        <v>650</v>
       </c>
       <c r="J76" t="s">
-        <v>580</v>
+        <v>651</v>
       </c>
       <c r="K76" t="s">
-        <v>581</v>
+        <v>652</v>
       </c>
       <c r="L76" t="s">
-        <v>582</v>
+        <v>653</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>559</v>
+        <v>626</v>
       </c>
       <c r="O76" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7795,15 +8394,19 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>583</v>
+        <v>654</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>42526</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>655</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
@@ -7811,7 +8414,7 @@
         <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>584</v>
+        <v>656</v>
       </c>
       <c r="G77" t="s">
         <v>46</v>
@@ -7820,25 +8423,25 @@
         <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>585</v>
+        <v>657</v>
       </c>
       <c r="J77" t="s">
-        <v>586</v>
+        <v>658</v>
       </c>
       <c r="K77" t="s">
-        <v>587</v>
+        <v>659</v>
       </c>
       <c r="L77" t="s">
-        <v>588</v>
+        <v>660</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>589</v>
+        <v>661</v>
       </c>
       <c r="O77" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -7862,15 +8465,19 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>590</v>
+        <v>662</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>42526</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>663</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
@@ -7878,7 +8485,7 @@
         <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>591</v>
+        <v>664</v>
       </c>
       <c r="G78" t="s">
         <v>46</v>
@@ -7887,22 +8494,22 @@
         <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>592</v>
+        <v>665</v>
       </c>
       <c r="J78" t="s">
-        <v>593</v>
+        <v>666</v>
       </c>
       <c r="K78" t="s">
-        <v>594</v>
+        <v>667</v>
       </c>
       <c r="L78" t="s">
-        <v>595</v>
+        <v>668</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>589</v>
+        <v>661</v>
       </c>
       <c r="O78" t="s">
         <v>53</v>
@@ -7929,15 +8536,19 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>596</v>
+        <v>669</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>42526</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>670</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
@@ -7945,7 +8556,7 @@
         <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>597</v>
+        <v>671</v>
       </c>
       <c r="G79" t="s">
         <v>46</v>
@@ -7954,25 +8565,25 @@
         <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>598</v>
+        <v>672</v>
       </c>
       <c r="J79" t="s">
-        <v>599</v>
+        <v>673</v>
       </c>
       <c r="K79" t="s">
-        <v>600</v>
+        <v>674</v>
       </c>
       <c r="L79" t="s">
-        <v>601</v>
+        <v>675</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>589</v>
+        <v>661</v>
       </c>
       <c r="O79" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7996,15 +8607,19 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>602</v>
+        <v>676</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>42526</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>677</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
@@ -8012,7 +8627,7 @@
         <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>603</v>
+        <v>678</v>
       </c>
       <c r="G80" t="s">
         <v>46</v>
@@ -8021,25 +8636,25 @@
         <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
       <c r="J80" t="s">
-        <v>605</v>
+        <v>680</v>
       </c>
       <c r="K80" t="s">
-        <v>606</v>
+        <v>681</v>
       </c>
       <c r="L80" t="s">
-        <v>607</v>
+        <v>682</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>608</v>
+        <v>683</v>
       </c>
       <c r="O80" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -8063,15 +8678,19 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>607</v>
+        <v>682</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>42526</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>528</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
@@ -8079,7 +8698,7 @@
         <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>609</v>
+        <v>684</v>
       </c>
       <c r="G81" t="s">
         <v>46</v>
@@ -8088,25 +8707,25 @@
         <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>610</v>
+        <v>685</v>
       </c>
       <c r="J81" t="s">
-        <v>611</v>
+        <v>686</v>
       </c>
       <c r="K81" t="s">
-        <v>612</v>
+        <v>687</v>
       </c>
       <c r="L81" t="s">
-        <v>613</v>
+        <v>688</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>614</v>
+        <v>689</v>
       </c>
       <c r="O81" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P81" t="n">
         <v>4</v>
@@ -8130,15 +8749,19 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>615</v>
+        <v>690</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>42526</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>13</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
@@ -8146,7 +8769,7 @@
         <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>616</v>
+        <v>691</v>
       </c>
       <c r="G82" t="s">
         <v>46</v>
@@ -8155,25 +8778,25 @@
         <v>47</v>
       </c>
       <c r="I82" t="s">
-        <v>617</v>
+        <v>692</v>
       </c>
       <c r="J82" t="s">
-        <v>618</v>
+        <v>693</v>
       </c>
       <c r="K82" t="s">
-        <v>619</v>
+        <v>694</v>
       </c>
       <c r="L82" t="s">
-        <v>620</v>
+        <v>695</v>
       </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
       <c r="N82" t="s">
-        <v>614</v>
+        <v>689</v>
       </c>
       <c r="O82" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P82" t="n">
         <v>1</v>
@@ -8195,21 +8818,25 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>621</v>
+        <v>696</v>
       </c>
       <c r="X82" t="s">
-        <v>622</v>
+        <v>697</v>
       </c>
       <c r="Y82" t="s">
-        <v>623</v>
+        <v>698</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>42526</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>699</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
@@ -8217,7 +8844,7 @@
         <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>624</v>
+        <v>700</v>
       </c>
       <c r="G83" t="s">
         <v>46</v>
@@ -8226,25 +8853,25 @@
         <v>47</v>
       </c>
       <c r="I83" t="s">
-        <v>625</v>
+        <v>701</v>
       </c>
       <c r="J83" t="s">
-        <v>626</v>
+        <v>702</v>
       </c>
       <c r="K83" t="s">
-        <v>627</v>
+        <v>703</v>
       </c>
       <c r="L83" t="s">
-        <v>628</v>
+        <v>704</v>
       </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
       <c r="N83" t="s">
-        <v>629</v>
+        <v>705</v>
       </c>
       <c r="O83" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P83" t="s"/>
       <c r="Q83" t="s"/>
@@ -8256,21 +8883,25 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>630</v>
+        <v>706</v>
       </c>
       <c r="X83" t="s">
-        <v>631</v>
+        <v>707</v>
       </c>
       <c r="Y83" t="s">
-        <v>632</v>
+        <v>708</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>42526</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>709</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
@@ -8278,7 +8909,7 @@
         <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>633</v>
+        <v>710</v>
       </c>
       <c r="G84" t="s">
         <v>46</v>
@@ -8287,25 +8918,25 @@
         <v>47</v>
       </c>
       <c r="I84" t="s">
-        <v>634</v>
+        <v>711</v>
       </c>
       <c r="J84" t="s">
-        <v>635</v>
+        <v>712</v>
       </c>
       <c r="K84" t="s">
-        <v>636</v>
+        <v>713</v>
       </c>
       <c r="L84" t="s">
-        <v>637</v>
+        <v>714</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>638</v>
+        <v>715</v>
       </c>
       <c r="O84" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8329,15 +8960,19 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>637</v>
+        <v>714</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>42526</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>716</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
@@ -8345,7 +8980,7 @@
         <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>639</v>
+        <v>717</v>
       </c>
       <c r="G85" t="s">
         <v>46</v>
@@ -8354,25 +8989,25 @@
         <v>47</v>
       </c>
       <c r="I85" t="s">
-        <v>640</v>
+        <v>718</v>
       </c>
       <c r="J85" t="s">
-        <v>641</v>
+        <v>719</v>
       </c>
       <c r="K85" t="s">
-        <v>642</v>
+        <v>720</v>
       </c>
       <c r="L85" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>638</v>
+        <v>715</v>
       </c>
       <c r="O85" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8396,15 +9031,19 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>42526</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>722</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
@@ -8412,7 +9051,7 @@
         <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>644</v>
+        <v>723</v>
       </c>
       <c r="G86" t="s">
         <v>46</v>
@@ -8421,25 +9060,25 @@
         <v>47</v>
       </c>
       <c r="I86" t="s">
-        <v>645</v>
+        <v>724</v>
       </c>
       <c r="J86" t="s">
-        <v>646</v>
+        <v>725</v>
       </c>
       <c r="K86" t="s">
-        <v>647</v>
+        <v>726</v>
       </c>
       <c r="L86" t="s">
-        <v>648</v>
+        <v>727</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>649</v>
+        <v>728</v>
       </c>
       <c r="O86" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8461,21 +9100,25 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>650</v>
+        <v>729</v>
       </c>
       <c r="X86" t="s">
-        <v>651</v>
+        <v>730</v>
       </c>
       <c r="Y86" t="s">
-        <v>652</v>
+        <v>731</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>42526</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>732</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
@@ -8483,7 +9126,7 @@
         <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>653</v>
+        <v>733</v>
       </c>
       <c r="G87" t="s">
         <v>46</v>
@@ -8492,25 +9135,25 @@
         <v>47</v>
       </c>
       <c r="I87" t="s">
-        <v>654</v>
+        <v>734</v>
       </c>
       <c r="J87" t="s">
-        <v>646</v>
+        <v>725</v>
       </c>
       <c r="K87" t="s">
-        <v>655</v>
+        <v>735</v>
       </c>
       <c r="L87" t="s">
-        <v>656</v>
+        <v>736</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
       </c>
       <c r="N87" t="s">
-        <v>649</v>
+        <v>728</v>
       </c>
       <c r="O87" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8534,15 +9177,19 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>656</v>
+        <v>736</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>42526</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>737</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
@@ -8550,7 +9197,7 @@
         <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>657</v>
+        <v>738</v>
       </c>
       <c r="G88" t="s">
         <v>46</v>
@@ -8559,22 +9206,22 @@
         <v>47</v>
       </c>
       <c r="I88" t="s">
-        <v>658</v>
+        <v>739</v>
       </c>
       <c r="J88" t="s">
-        <v>659</v>
+        <v>740</v>
       </c>
       <c r="K88" t="s">
-        <v>660</v>
+        <v>741</v>
       </c>
       <c r="L88" t="s">
-        <v>661</v>
+        <v>742</v>
       </c>
       <c r="M88" t="n">
         <v>3</v>
       </c>
       <c r="N88" t="s">
-        <v>662</v>
+        <v>743</v>
       </c>
       <c r="O88" t="s">
         <v>53</v>
@@ -8599,21 +9246,25 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>663</v>
+        <v>744</v>
       </c>
       <c r="X88" t="s">
-        <v>664</v>
+        <v>745</v>
       </c>
       <c r="Y88" t="s">
-        <v>665</v>
+        <v>746</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>42526</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>747</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
@@ -8621,7 +9272,7 @@
         <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>666</v>
+        <v>748</v>
       </c>
       <c r="G89" t="s">
         <v>46</v>
@@ -8630,25 +9281,25 @@
         <v>47</v>
       </c>
       <c r="I89" t="s">
-        <v>667</v>
+        <v>749</v>
       </c>
       <c r="J89" t="s">
-        <v>668</v>
+        <v>750</v>
       </c>
       <c r="K89" t="s">
-        <v>669</v>
+        <v>751</v>
       </c>
       <c r="L89" t="s">
-        <v>670</v>
+        <v>752</v>
       </c>
       <c r="M89" t="n">
         <v>3</v>
       </c>
       <c r="N89" t="s">
-        <v>662</v>
+        <v>743</v>
       </c>
       <c r="O89" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P89" t="n">
         <v>3</v>
@@ -8670,21 +9321,25 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>671</v>
+        <v>753</v>
       </c>
       <c r="X89" t="s">
-        <v>672</v>
+        <v>754</v>
       </c>
       <c r="Y89" t="s">
-        <v>673</v>
+        <v>755</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>42526</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>756</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
@@ -8692,7 +9347,7 @@
         <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>674</v>
+        <v>757</v>
       </c>
       <c r="G90" t="s">
         <v>46</v>
@@ -8701,25 +9356,25 @@
         <v>47</v>
       </c>
       <c r="I90" t="s">
-        <v>675</v>
+        <v>758</v>
       </c>
       <c r="J90" t="s">
-        <v>676</v>
+        <v>759</v>
       </c>
       <c r="K90" t="s">
-        <v>677</v>
+        <v>760</v>
       </c>
       <c r="L90" t="s">
-        <v>678</v>
+        <v>761</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>679</v>
+        <v>762</v>
       </c>
       <c r="O90" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -8743,15 +9398,19 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>678</v>
+        <v>761</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>42526</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>763</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
@@ -8759,7 +9418,7 @@
         <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>680</v>
+        <v>764</v>
       </c>
       <c r="G91" t="s">
         <v>46</v>
@@ -8768,25 +9427,25 @@
         <v>47</v>
       </c>
       <c r="I91" t="s">
-        <v>681</v>
+        <v>765</v>
       </c>
       <c r="J91" t="s">
-        <v>682</v>
+        <v>766</v>
       </c>
       <c r="K91" t="s">
-        <v>683</v>
+        <v>767</v>
       </c>
       <c r="L91" t="s">
-        <v>684</v>
+        <v>768</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>679</v>
+        <v>762</v>
       </c>
       <c r="O91" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -8810,15 +9469,19 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>685</v>
+        <v>769</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>42526</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>770</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
@@ -8826,7 +9489,7 @@
         <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>686</v>
+        <v>771</v>
       </c>
       <c r="G92" t="s">
         <v>46</v>
@@ -8835,22 +9498,22 @@
         <v>47</v>
       </c>
       <c r="I92" t="s">
-        <v>687</v>
+        <v>772</v>
       </c>
       <c r="J92" t="s">
-        <v>688</v>
+        <v>773</v>
       </c>
       <c r="K92" t="s">
-        <v>689</v>
+        <v>774</v>
       </c>
       <c r="L92" t="s">
-        <v>690</v>
+        <v>775</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>691</v>
+        <v>776</v>
       </c>
       <c r="O92" t="s">
         <v>53</v>
@@ -8877,15 +9540,19 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>690</v>
+        <v>775</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>42526</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>777</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
@@ -8893,7 +9560,7 @@
         <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>692</v>
+        <v>778</v>
       </c>
       <c r="G93" t="s">
         <v>46</v>
@@ -8902,25 +9569,25 @@
         <v>47</v>
       </c>
       <c r="I93" t="s">
-        <v>693</v>
+        <v>779</v>
       </c>
       <c r="J93" t="s">
-        <v>694</v>
+        <v>780</v>
       </c>
       <c r="K93" t="s">
-        <v>695</v>
+        <v>781</v>
       </c>
       <c r="L93" t="s">
-        <v>696</v>
+        <v>782</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>697</v>
+        <v>783</v>
       </c>
       <c r="O93" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -8944,15 +9611,19 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>696</v>
+        <v>782</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>42526</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>784</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
@@ -8960,7 +9631,7 @@
         <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>698</v>
+        <v>785</v>
       </c>
       <c r="G94" t="s">
         <v>46</v>
@@ -8969,25 +9640,25 @@
         <v>47</v>
       </c>
       <c r="I94" t="s">
-        <v>699</v>
+        <v>786</v>
       </c>
       <c r="J94" t="s">
-        <v>700</v>
+        <v>787</v>
       </c>
       <c r="K94" t="s">
-        <v>701</v>
+        <v>788</v>
       </c>
       <c r="L94" t="s">
-        <v>702</v>
+        <v>789</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>703</v>
+        <v>790</v>
       </c>
       <c r="O94" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -9011,15 +9682,19 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>704</v>
+        <v>791</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>42526</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>670</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
@@ -9027,7 +9702,7 @@
         <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>705</v>
+        <v>792</v>
       </c>
       <c r="G95" t="s">
         <v>46</v>
@@ -9036,25 +9711,25 @@
         <v>47</v>
       </c>
       <c r="I95" t="s">
-        <v>706</v>
+        <v>793</v>
       </c>
       <c r="J95" t="s">
-        <v>707</v>
+        <v>794</v>
       </c>
       <c r="K95" t="s">
-        <v>708</v>
+        <v>795</v>
       </c>
       <c r="L95" t="s">
-        <v>709</v>
+        <v>796</v>
       </c>
       <c r="M95" t="n">
         <v>4</v>
       </c>
       <c r="N95" t="s">
-        <v>710</v>
+        <v>797</v>
       </c>
       <c r="O95" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -9074,15 +9749,19 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>711</v>
+        <v>798</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>42526</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>799</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
@@ -9090,7 +9769,7 @@
         <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>712</v>
+        <v>800</v>
       </c>
       <c r="G96" t="s">
         <v>46</v>
@@ -9099,25 +9778,25 @@
         <v>47</v>
       </c>
       <c r="I96" t="s">
-        <v>713</v>
+        <v>801</v>
       </c>
       <c r="J96" t="s">
-        <v>707</v>
+        <v>794</v>
       </c>
       <c r="K96" t="s">
-        <v>714</v>
+        <v>802</v>
       </c>
       <c r="L96" t="s">
-        <v>715</v>
+        <v>803</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
       </c>
       <c r="N96" t="s">
-        <v>710</v>
+        <v>797</v>
       </c>
       <c r="O96" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P96" t="n">
         <v>4</v>
@@ -9137,15 +9816,19 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>716</v>
+        <v>804</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>42526</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>805</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
@@ -9153,7 +9836,7 @@
         <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>717</v>
+        <v>806</v>
       </c>
       <c r="G97" t="s">
         <v>46</v>
@@ -9162,25 +9845,25 @@
         <v>47</v>
       </c>
       <c r="I97" t="s">
-        <v>718</v>
+        <v>807</v>
       </c>
       <c r="J97" t="s">
-        <v>719</v>
+        <v>808</v>
       </c>
       <c r="K97" t="s">
-        <v>720</v>
+        <v>809</v>
       </c>
       <c r="L97" t="s">
-        <v>721</v>
+        <v>810</v>
       </c>
       <c r="M97" t="n">
         <v>4</v>
       </c>
       <c r="N97" t="s">
-        <v>710</v>
+        <v>797</v>
       </c>
       <c r="O97" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -9200,15 +9883,19 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>722</v>
+        <v>811</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>42526</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>812</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
@@ -9216,7 +9903,7 @@
         <v>44</v>
       </c>
       <c r="F98" t="s">
-        <v>723</v>
+        <v>813</v>
       </c>
       <c r="G98" t="s">
         <v>46</v>
@@ -9225,16 +9912,16 @@
         <v>47</v>
       </c>
       <c r="I98" t="s">
-        <v>724</v>
+        <v>814</v>
       </c>
       <c r="J98" t="s">
-        <v>725</v>
+        <v>815</v>
       </c>
       <c r="K98" t="s">
-        <v>726</v>
+        <v>816</v>
       </c>
       <c r="L98" t="s">
-        <v>727</v>
+        <v>817</v>
       </c>
       <c r="M98" t="n">
         <v>4</v>
@@ -9263,15 +9950,19 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>727</v>
+        <v>817</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>42526</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>818</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
@@ -9279,7 +9970,7 @@
         <v>44</v>
       </c>
       <c r="F99" t="s">
-        <v>728</v>
+        <v>819</v>
       </c>
       <c r="G99" t="s">
         <v>46</v>
@@ -9288,25 +9979,25 @@
         <v>47</v>
       </c>
       <c r="I99" t="s">
-        <v>729</v>
+        <v>820</v>
       </c>
       <c r="J99" t="s">
-        <v>730</v>
+        <v>821</v>
       </c>
       <c r="K99" t="s">
-        <v>731</v>
+        <v>822</v>
       </c>
       <c r="L99" t="s">
-        <v>732</v>
+        <v>823</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>733</v>
+        <v>824</v>
       </c>
       <c r="O99" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -9326,15 +10017,19 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>732</v>
+        <v>823</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>42526</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>825</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
@@ -9342,7 +10037,7 @@
         <v>44</v>
       </c>
       <c r="F100" t="s">
-        <v>734</v>
+        <v>826</v>
       </c>
       <c r="G100" t="s">
         <v>46</v>
@@ -9351,25 +10046,25 @@
         <v>47</v>
       </c>
       <c r="I100" t="s">
-        <v>735</v>
+        <v>827</v>
       </c>
       <c r="J100" t="s">
-        <v>736</v>
+        <v>828</v>
       </c>
       <c r="K100" t="s">
-        <v>737</v>
+        <v>829</v>
       </c>
       <c r="L100" t="s">
-        <v>738</v>
+        <v>830</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>733</v>
+        <v>824</v>
       </c>
       <c r="O100" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -9389,15 +10084,19 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>739</v>
+        <v>831</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>42526</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>832</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
@@ -9405,7 +10104,7 @@
         <v>44</v>
       </c>
       <c r="F101" t="s">
-        <v>740</v>
+        <v>833</v>
       </c>
       <c r="G101" t="s">
         <v>46</v>
@@ -9414,25 +10113,25 @@
         <v>47</v>
       </c>
       <c r="I101" t="s">
-        <v>741</v>
+        <v>834</v>
       </c>
       <c r="J101" t="s">
-        <v>742</v>
+        <v>835</v>
       </c>
       <c r="K101" t="s">
-        <v>743</v>
+        <v>836</v>
       </c>
       <c r="L101" t="s">
-        <v>744</v>
+        <v>837</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>745</v>
+        <v>838</v>
       </c>
       <c r="O101" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -9452,15 +10151,19 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>744</v>
+        <v>837</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>42526</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>839</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
@@ -9468,7 +10171,7 @@
         <v>44</v>
       </c>
       <c r="F102" t="s">
-        <v>746</v>
+        <v>840</v>
       </c>
       <c r="G102" t="s">
         <v>46</v>
@@ -9477,25 +10180,25 @@
         <v>47</v>
       </c>
       <c r="I102" t="s">
-        <v>747</v>
+        <v>841</v>
       </c>
       <c r="J102" t="s">
-        <v>748</v>
+        <v>842</v>
       </c>
       <c r="K102" t="s">
-        <v>749</v>
+        <v>843</v>
       </c>
       <c r="L102" t="s">
-        <v>750</v>
+        <v>844</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>751</v>
+        <v>845</v>
       </c>
       <c r="O102" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P102" t="n">
         <v>4</v>
@@ -9519,15 +10222,19 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>752</v>
+        <v>846</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>42526</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>847</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
@@ -9535,7 +10242,7 @@
         <v>44</v>
       </c>
       <c r="F103" t="s">
-        <v>753</v>
+        <v>848</v>
       </c>
       <c r="G103" t="s">
         <v>46</v>
@@ -9544,25 +10251,25 @@
         <v>47</v>
       </c>
       <c r="I103" t="s">
-        <v>754</v>
+        <v>849</v>
       </c>
       <c r="J103" t="s">
-        <v>755</v>
+        <v>850</v>
       </c>
       <c r="K103" t="s">
-        <v>756</v>
+        <v>851</v>
       </c>
       <c r="L103" t="s">
-        <v>757</v>
+        <v>852</v>
       </c>
       <c r="M103" t="n">
         <v>5</v>
       </c>
       <c r="N103" t="s">
-        <v>758</v>
+        <v>853</v>
       </c>
       <c r="O103" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P103" t="s"/>
       <c r="Q103" t="s"/>
@@ -9576,15 +10283,19 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>757</v>
+        <v>852</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>42526</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>854</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
@@ -9592,7 +10303,7 @@
         <v>44</v>
       </c>
       <c r="F104" t="s">
-        <v>759</v>
+        <v>855</v>
       </c>
       <c r="G104" t="s">
         <v>46</v>
@@ -9601,22 +10312,22 @@
         <v>47</v>
       </c>
       <c r="I104" t="s">
-        <v>760</v>
+        <v>856</v>
       </c>
       <c r="J104" t="s">
-        <v>761</v>
+        <v>857</v>
       </c>
       <c r="K104" t="s">
-        <v>762</v>
+        <v>858</v>
       </c>
       <c r="L104" t="s">
-        <v>763</v>
+        <v>859</v>
       </c>
       <c r="M104" t="n">
         <v>4</v>
       </c>
       <c r="N104" t="s">
-        <v>764</v>
+        <v>860</v>
       </c>
       <c r="O104" t="s">
         <v>53</v>
@@ -9643,15 +10354,19 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>765</v>
+        <v>861</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>42526</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>862</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
@@ -9659,7 +10374,7 @@
         <v>44</v>
       </c>
       <c r="F105" t="s">
-        <v>766</v>
+        <v>863</v>
       </c>
       <c r="G105" t="s">
         <v>46</v>
@@ -9668,25 +10383,25 @@
         <v>47</v>
       </c>
       <c r="I105" t="s">
-        <v>767</v>
+        <v>864</v>
       </c>
       <c r="J105" t="s">
-        <v>768</v>
+        <v>865</v>
       </c>
       <c r="K105" t="s">
-        <v>769</v>
+        <v>866</v>
       </c>
       <c r="L105" t="s">
-        <v>770</v>
+        <v>867</v>
       </c>
       <c r="M105" t="n">
         <v>5</v>
       </c>
       <c r="N105" t="s">
-        <v>771</v>
+        <v>868</v>
       </c>
       <c r="O105" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P105" t="n">
         <v>5</v>
@@ -9710,15 +10425,19 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>772</v>
+        <v>869</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>42526</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>65</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
@@ -9726,7 +10445,7 @@
         <v>44</v>
       </c>
       <c r="F106" t="s">
-        <v>773</v>
+        <v>870</v>
       </c>
       <c r="G106" t="s">
         <v>46</v>
@@ -9735,22 +10454,22 @@
         <v>47</v>
       </c>
       <c r="I106" t="s">
-        <v>774</v>
+        <v>871</v>
       </c>
       <c r="J106" t="s">
-        <v>775</v>
+        <v>872</v>
       </c>
       <c r="K106" t="s">
-        <v>776</v>
+        <v>873</v>
       </c>
       <c r="L106" t="s">
-        <v>777</v>
+        <v>874</v>
       </c>
       <c r="M106" t="n">
         <v>5</v>
       </c>
       <c r="N106" t="s">
-        <v>778</v>
+        <v>875</v>
       </c>
       <c r="O106" t="s">
         <v>53</v>
@@ -9777,15 +10496,19 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>777</v>
+        <v>874</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>42526</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>876</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
@@ -9793,7 +10516,7 @@
         <v>44</v>
       </c>
       <c r="F107" t="s">
-        <v>779</v>
+        <v>877</v>
       </c>
       <c r="G107" t="s">
         <v>46</v>
@@ -9802,22 +10525,22 @@
         <v>47</v>
       </c>
       <c r="I107" t="s">
-        <v>780</v>
+        <v>878</v>
       </c>
       <c r="J107" t="s">
-        <v>781</v>
+        <v>879</v>
       </c>
       <c r="K107" t="s">
-        <v>782</v>
+        <v>880</v>
       </c>
       <c r="L107" t="s">
-        <v>783</v>
+        <v>881</v>
       </c>
       <c r="M107" t="n">
         <v>2</v>
       </c>
       <c r="N107" t="s">
-        <v>784</v>
+        <v>882</v>
       </c>
       <c r="O107" t="s">
         <v>53</v>
@@ -9844,15 +10567,19 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>783</v>
+        <v>881</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>42526</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>883</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
@@ -9860,7 +10587,7 @@
         <v>44</v>
       </c>
       <c r="F108" t="s">
-        <v>785</v>
+        <v>884</v>
       </c>
       <c r="G108" t="s">
         <v>46</v>
@@ -9869,25 +10596,25 @@
         <v>47</v>
       </c>
       <c r="I108" t="s">
-        <v>786</v>
+        <v>885</v>
       </c>
       <c r="J108" t="s">
-        <v>787</v>
+        <v>886</v>
       </c>
       <c r="K108" t="s">
-        <v>788</v>
+        <v>887</v>
       </c>
       <c r="L108" t="s">
-        <v>789</v>
+        <v>888</v>
       </c>
       <c r="M108" t="n">
         <v>5</v>
       </c>
       <c r="N108" t="s">
-        <v>790</v>
+        <v>889</v>
       </c>
       <c r="O108" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P108" t="n">
         <v>5</v>
@@ -9911,15 +10638,19 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>791</v>
+        <v>890</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>42526</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>891</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
@@ -9927,7 +10658,7 @@
         <v>44</v>
       </c>
       <c r="F109" t="s">
-        <v>792</v>
+        <v>892</v>
       </c>
       <c r="G109" t="s">
         <v>46</v>
@@ -9936,16 +10667,16 @@
         <v>47</v>
       </c>
       <c r="I109" t="s">
-        <v>793</v>
+        <v>893</v>
       </c>
       <c r="J109" t="s">
-        <v>794</v>
+        <v>894</v>
       </c>
       <c r="K109" t="s">
-        <v>795</v>
+        <v>895</v>
       </c>
       <c r="L109" t="s">
-        <v>796</v>
+        <v>896</v>
       </c>
       <c r="M109" t="n">
         <v>5</v>
@@ -9964,15 +10695,19 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>796</v>
+        <v>896</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>42526</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>897</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
@@ -9980,7 +10715,7 @@
         <v>44</v>
       </c>
       <c r="F110" t="s">
-        <v>797</v>
+        <v>898</v>
       </c>
       <c r="G110" t="s">
         <v>46</v>
@@ -9989,16 +10724,16 @@
         <v>47</v>
       </c>
       <c r="I110" t="s">
-        <v>798</v>
+        <v>899</v>
       </c>
       <c r="J110" t="s">
-        <v>799</v>
+        <v>900</v>
       </c>
       <c r="K110" t="s">
-        <v>800</v>
+        <v>901</v>
       </c>
       <c r="L110" t="s">
-        <v>801</v>
+        <v>902</v>
       </c>
       <c r="M110" t="n">
         <v>5</v>
@@ -10017,7 +10752,7 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>802</v>
+        <v>903</v>
       </c>
     </row>
   </sheetData>
